--- a/tests/test7/ММП 0.2.xlsx
+++ b/tests/test7/ММП 0.2.xlsx
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="X2" t="n">
-        <v>0.004698200000007091</v>
+        <v>0.003049599999997099</v>
       </c>
       <c r="Y2" t="n">
         <v>12</v>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="X3" t="n">
-        <v>0.002199899999993704</v>
+        <v>0.002177700000004279</v>
       </c>
       <c r="Y3" t="n">
         <v>9</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="X4" t="n">
-        <v>0.002276800000004187</v>
+        <v>0.002093500000000859</v>
       </c>
       <c r="Y4" t="n">
         <v>8</v>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="X5" t="n">
-        <v>0.002390699999978096</v>
+        <v>0.004590599999971801</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="X6" t="n">
-        <v>0.003524200000015298</v>
+        <v>0.00330959999996594</v>
       </c>
       <c r="Y6" t="n">
         <v>13</v>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="X7" t="n">
-        <v>0.002549299999998311</v>
+        <v>0.002313700000001973</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="X8" t="n">
-        <v>0.002958299999988867</v>
+        <v>0.003440299999965646</v>
       </c>
       <c r="Y8" t="n">
         <v>12</v>
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="X9" t="n">
-        <v>0.004333499999972901</v>
+        <v>0.002669599999990169</v>
       </c>
       <c r="Y9" t="n">
         <v>11</v>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="X10" t="n">
-        <v>0.002295100000026196</v>
+        <v>0.003829600000017308</v>
       </c>
       <c r="Y10" t="n">
         <v>9</v>
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="X11" t="n">
-        <v>0.0033530999999698</v>
+        <v>0.002898200000004181</v>
       </c>
       <c r="Y11" t="n">
         <v>12</v>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="X12" t="n">
-        <v>0.001892999999995482</v>
+        <v>0.002138500000000931</v>
       </c>
       <c r="Y12" t="n">
         <v>8</v>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="X13" t="n">
-        <v>0.002158799999961047</v>
+        <v>0.003159299999992982</v>
       </c>
       <c r="Y13" t="n">
         <v>8</v>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="X14" t="n">
-        <v>0.002353799999980311</v>
+        <v>0.00240099999996346</v>
       </c>
       <c r="Y14" t="n">
         <v>10</v>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="X15" t="n">
-        <v>0.00268629999999348</v>
+        <v>0.003651600000011967</v>
       </c>
       <c r="Y15" t="n">
         <v>11</v>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="X16" t="n">
-        <v>0.003336199999978362</v>
+        <v>0.003106899999977486</v>
       </c>
       <c r="Y16" t="n">
         <v>13</v>
@@ -1868,7 +1868,7 @@
         </is>
       </c>
       <c r="X17" t="n">
-        <v>0.002024700000049506</v>
+        <v>0.002019300000029034</v>
       </c>
       <c r="Y17" t="n">
         <v>8</v>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="X18" t="n">
-        <v>0.004333500000029744</v>
+        <v>0.003480599999988954</v>
       </c>
       <c r="Y18" t="n">
         <v>12</v>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="X19" t="n">
-        <v>0.002308000000027732</v>
+        <v>0.002338000000008833</v>
       </c>
       <c r="Y19" t="n">
         <v>10</v>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="X20" t="n">
-        <v>0.003304299999967952</v>
+        <v>0.004682000000002517</v>
       </c>
       <c r="Y20" t="n">
         <v>13</v>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="X21" t="n">
-        <v>0.002108299999974861</v>
+        <v>0.002200499999958083</v>
       </c>
       <c r="Y21" t="n">
         <v>9</v>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="X22" t="n">
-        <v>0.002701899999976831</v>
+        <v>0.002760599999987789</v>
       </c>
       <c r="Y22" t="n">
         <v>11</v>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="X23" t="n">
-        <v>0.002511500000025535</v>
+        <v>0.002575799999988249</v>
       </c>
       <c r="Y23" t="n">
         <v>11</v>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="X24" t="n">
-        <v>0.002591999999992822</v>
+        <v>0.002681999999992968</v>
       </c>
       <c r="Y24" t="n">
         <v>11</v>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="X25" t="n">
-        <v>0.003740499999992153</v>
+        <v>0.003712899999982255</v>
       </c>
       <c r="Y25" t="n">
         <v>10</v>
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="X26" t="n">
-        <v>0.003185099999996055</v>
+        <v>0.003383499999983997</v>
       </c>
       <c r="Y26" t="n">
         <v>14</v>
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="X27" t="n">
-        <v>0.002740200000005188</v>
+        <v>0.002675500000009379</v>
       </c>
       <c r="Y27" t="n">
         <v>11</v>
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="X28" t="n">
-        <v>0.002994600000022274</v>
+        <v>0.003430500000035863</v>
       </c>
       <c r="Y28" t="n">
         <v>13</v>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="X29" t="n">
-        <v>0.002826799999979812</v>
+        <v>0.002919099999985519</v>
       </c>
       <c r="Y29" t="n">
         <v>12</v>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="X30" t="n">
-        <v>0.003601399999979549</v>
+        <v>0.002905999999995856</v>
       </c>
       <c r="Y30" t="n">
         <v>10</v>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="X31" t="n">
-        <v>0.00206780000002027</v>
+        <v>0.001974099999983991</v>
       </c>
       <c r="Y31" t="n">
         <v>8</v>
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="X32" t="n">
-        <v>0.003144800000029591</v>
+        <v>0.00302870000001576</v>
       </c>
       <c r="Y32" t="n">
         <v>12</v>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="X33" t="n">
-        <v>0.002325899999959802</v>
+        <v>0.003043699999977889</v>
       </c>
       <c r="Y33" t="n">
         <v>9</v>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="X34" t="n">
-        <v>0.003036699999995562</v>
+        <v>0.002849099999991722</v>
       </c>
       <c r="Y34" t="n">
         <v>12</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="X35" t="n">
-        <v>0.003264000000001488</v>
+        <v>0.002719399999989491</v>
       </c>
       <c r="Y35" t="n">
         <v>11</v>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="X36" t="n">
-        <v>0.002166600000009566</v>
+        <v>0.002255699999977878</v>
       </c>
       <c r="Y36" t="n">
         <v>9</v>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="X37" t="n">
-        <v>0.003650599999957649</v>
+        <v>0.002256100000010974</v>
       </c>
       <c r="Y37" t="n">
         <v>9</v>
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="X38" t="n">
-        <v>0.003115299999990384</v>
+        <v>0.004686599999956798</v>
       </c>
       <c r="Y38" t="n">
         <v>13</v>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="X39" t="n">
-        <v>0.002528799999993225</v>
+        <v>0.002446300000030988</v>
       </c>
       <c r="Y39" t="n">
         <v>10</v>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="X40" t="n">
-        <v>0.002960300000040661</v>
+        <v>0.003213700000003428</v>
       </c>
       <c r="Y40" t="n">
         <v>13</v>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="X41" t="n">
-        <v>0.003534500000000662</v>
+        <v>0.002952800000002753</v>
       </c>
       <c r="Y41" t="n">
         <v>13</v>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="X42" t="n">
-        <v>0.002691500000025826</v>
+        <v>0.002172299999983807</v>
       </c>
       <c r="Y42" t="n">
         <v>8</v>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="X43" t="n">
-        <v>0.001983100000018112</v>
+        <v>0.002943799999968633</v>
       </c>
       <c r="Y43" t="n">
         <v>8</v>
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="X44" t="n">
-        <v>0.003359199999977136</v>
+        <v>0.002218200000015713</v>
       </c>
       <c r="Y44" t="n">
         <v>9</v>
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="X45" t="n">
-        <v>0.002379199999950288</v>
+        <v>0.00271539999999959</v>
       </c>
       <c r="Y45" t="n">
         <v>10</v>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="X46" t="n">
-        <v>0.00261569999997846</v>
+        <v>0.002218500000026324</v>
       </c>
       <c r="Y46" t="n">
         <v>9</v>
@@ -4328,7 +4328,7 @@
         </is>
       </c>
       <c r="X47" t="n">
-        <v>0.00265090000004875</v>
+        <v>0.00269679999996697</v>
       </c>
       <c r="Y47" t="n">
         <v>11</v>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="X48" t="n">
-        <v>0.002453300000013314</v>
+        <v>0.002400399999999081</v>
       </c>
       <c r="Y48" t="n">
         <v>10</v>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="X49" t="n">
-        <v>0.002150200000016866</v>
+        <v>0.002513800000031097</v>
       </c>
       <c r="Y49" t="n">
         <v>9</v>
@@ -4574,7 +4574,7 @@
         </is>
       </c>
       <c r="X50" t="n">
-        <v>0.002190299999995204</v>
+        <v>0.003611799999987397</v>
       </c>
       <c r="Y50" t="n">
         <v>9</v>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="X51" t="n">
-        <v>0.002758200000016586</v>
+        <v>0.002814499999999498</v>
       </c>
       <c r="Y51" t="n">
         <v>12</v>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="X52" t="n">
-        <v>0.002167900000017653</v>
+        <v>0.002423200000009729</v>
       </c>
       <c r="Y52" t="n">
         <v>9</v>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="X53" t="n">
-        <v>0.003017399999976078</v>
+        <v>0.001952099999982693</v>
       </c>
       <c r="Y53" t="n">
         <v>8</v>
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="X54" t="n">
-        <v>0.001900900000009642</v>
+        <v>0.00221559999999954</v>
       </c>
       <c r="Y54" t="n">
         <v>8</v>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="X55" t="n">
-        <v>0.003815199999962715</v>
+        <v>0.00335440000003473</v>
       </c>
       <c r="Y55" t="n">
         <v>12</v>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="X56" t="n">
-        <v>0.002042000000017197</v>
+        <v>0.002370700000028592</v>
       </c>
       <c r="Y56" t="n">
         <v>9</v>
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="X57" t="n">
-        <v>0.002051100000016959</v>
+        <v>0.002283200000022134</v>
       </c>
       <c r="Y57" t="n">
         <v>8</v>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="X58" t="n">
-        <v>0.002805300000034094</v>
+        <v>0.002892599999995582</v>
       </c>
       <c r="Y58" t="n">
         <v>12</v>
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="X59" t="n">
-        <v>0.002503300000000763</v>
+        <v>0.002532700000017485</v>
       </c>
       <c r="Y59" t="n">
         <v>10</v>
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="X60" t="n">
-        <v>0.002911200000028202</v>
+        <v>0.003558699999985038</v>
       </c>
       <c r="Y60" t="n">
         <v>12</v>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="X61" t="n">
-        <v>0.002438200000028701</v>
+        <v>0.002468599999986054</v>
       </c>
       <c r="Y61" t="n">
         <v>10</v>
@@ -5558,7 +5558,7 @@
         </is>
       </c>
       <c r="X62" t="n">
-        <v>0.003228599999999915</v>
+        <v>0.002584100000035505</v>
       </c>
       <c r="Y62" t="n">
         <v>8</v>
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="X63" t="n">
-        <v>0.002650899999991907</v>
+        <v>0.002754899999956706</v>
       </c>
       <c r="Y63" t="n">
         <v>11</v>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="X64" t="n">
-        <v>0.003326400000048579</v>
+        <v>0.003180699999973058</v>
       </c>
       <c r="Y64" t="n">
         <v>13</v>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="X65" t="n">
-        <v>0.002177099999983056</v>
+        <v>0.002998300000001564</v>
       </c>
       <c r="Y65" t="n">
         <v>9</v>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="X66" t="n">
-        <v>0.002898200000004181</v>
+        <v>0.003118600000050264</v>
       </c>
       <c r="Y66" t="n">
         <v>12</v>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="X67" t="n">
-        <v>0.001817299999970601</v>
+        <v>0.002163999999993393</v>
       </c>
       <c r="Y67" t="n">
         <v>8</v>
@@ -6050,7 +6050,7 @@
         </is>
       </c>
       <c r="X68" t="n">
-        <v>0.00217910000003485</v>
+        <v>0.002351400000009107</v>
       </c>
       <c r="Y68" t="n">
         <v>9</v>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="X69" t="n">
-        <v>0.002551900000014484</v>
+        <v>0.002756099999999151</v>
       </c>
       <c r="Y69" t="n">
         <v>11</v>
@@ -6214,7 +6214,7 @@
         </is>
       </c>
       <c r="X70" t="n">
-        <v>0.001983300000006238</v>
+        <v>0.002439500000036787</v>
       </c>
       <c r="Y70" t="n">
         <v>8</v>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="X71" t="n">
-        <v>0.003659300000038002</v>
+        <v>0.002290299999970102</v>
       </c>
       <c r="Y71" t="n">
         <v>9</v>
@@ -6378,7 +6378,7 @@
         </is>
       </c>
       <c r="X72" t="n">
-        <v>0.002478499999995165</v>
+        <v>0.002802899999949204</v>
       </c>
       <c r="Y72" t="n">
         <v>10</v>
@@ -6460,7 +6460,7 @@
         </is>
       </c>
       <c r="X73" t="n">
-        <v>0.00307479999997895</v>
+        <v>0.002810600000032082</v>
       </c>
       <c r="Y73" t="n">
         <v>12</v>
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="X74" t="n">
-        <v>0.002701999999999316</v>
+        <v>0.003026599999998325</v>
       </c>
       <c r="Y74" t="n">
         <v>12</v>
@@ -6624,7 +6624,7 @@
         </is>
       </c>
       <c r="X75" t="n">
-        <v>0.002900199999999131</v>
+        <v>0.00500750000003336</v>
       </c>
       <c r="Y75" t="n">
         <v>12</v>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="X76" t="n">
-        <v>0.003839700000014545</v>
+        <v>0.003111799999999221</v>
       </c>
       <c r="Y76" t="n">
         <v>13</v>
@@ -6788,7 +6788,7 @@
         </is>
       </c>
       <c r="X77" t="n">
-        <v>0.001969800000040323</v>
+        <v>0.002100100000006933</v>
       </c>
       <c r="Y77" t="n">
         <v>8</v>
@@ -6870,7 +6870,7 @@
         </is>
       </c>
       <c r="X78" t="n">
-        <v>0.003362499999980173</v>
+        <v>0.002262200000018311</v>
       </c>
       <c r="Y78" t="n">
         <v>9</v>
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="X79" t="n">
-        <v>0.003010000000017499</v>
+        <v>0.003274500000031821</v>
       </c>
       <c r="Y79" t="n">
         <v>13</v>
@@ -7034,7 +7034,7 @@
         </is>
       </c>
       <c r="X80" t="n">
-        <v>0.003475299999990966</v>
+        <v>0.004933700000037788</v>
       </c>
       <c r="Y80" t="n">
         <v>13</v>
@@ -7116,7 +7116,7 @@
         </is>
       </c>
       <c r="X81" t="n">
-        <v>0.002871799999979885</v>
+        <v>0.002911899999958223</v>
       </c>
       <c r="Y81" t="n">
         <v>12</v>
@@ -7198,7 +7198,7 @@
         </is>
       </c>
       <c r="X82" t="n">
-        <v>0.002406399999983933</v>
+        <v>0.003223599999955695</v>
       </c>
       <c r="Y82" t="n">
         <v>10</v>
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="X83" t="n">
-        <v>0.004657300000019404</v>
+        <v>0.0040791999999783</v>
       </c>
       <c r="Y83" t="n">
         <v>12</v>
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="X84" t="n">
-        <v>0.003055599999981951</v>
+        <v>0.003015800000014224</v>
       </c>
       <c r="Y84" t="n">
         <v>13</v>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="X85" t="n">
-        <v>0.003202299999998104</v>
+        <v>0.003096599999992122</v>
       </c>
       <c r="Y85" t="n">
         <v>13</v>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="X86" t="n">
-        <v>0.002425599999980932</v>
+        <v>0.00228840000005448</v>
       </c>
       <c r="Y86" t="n">
         <v>10</v>
@@ -7608,7 +7608,7 @@
         </is>
       </c>
       <c r="X87" t="n">
-        <v>0.002721699999995053</v>
+        <v>0.002933400000017627</v>
       </c>
       <c r="Y87" t="n">
         <v>11</v>
@@ -7690,7 +7690,7 @@
         </is>
       </c>
       <c r="X88" t="n">
-        <v>0.002169600000001992</v>
+        <v>0.003496399999960431</v>
       </c>
       <c r="Y88" t="n">
         <v>9</v>
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="X89" t="n">
-        <v>0.002515200000004825</v>
+        <v>0.002318500000001222</v>
       </c>
       <c r="Y89" t="n">
         <v>10</v>
@@ -7854,7 +7854,7 @@
         </is>
       </c>
       <c r="X90" t="n">
-        <v>0.00421670000002905</v>
+        <v>0.003264000000001488</v>
       </c>
       <c r="Y90" t="n">
         <v>12</v>
@@ -7936,7 +7936,7 @@
         </is>
       </c>
       <c r="X91" t="n">
-        <v>0.002195099999994454</v>
+        <v>0.002096999999992022</v>
       </c>
       <c r="Y91" t="n">
         <v>9</v>
@@ -8018,7 +8018,7 @@
         </is>
       </c>
       <c r="X92" t="n">
-        <v>0.002817600000014409</v>
+        <v>0.002454599999964557</v>
       </c>
       <c r="Y92" t="n">
         <v>10</v>
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="X93" t="n">
-        <v>0.002395999999976084</v>
+        <v>0.003423899999972946</v>
       </c>
       <c r="Y93" t="n">
         <v>10</v>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="X94" t="n">
-        <v>0.002503700000033859</v>
+        <v>0.002305799999987812</v>
       </c>
       <c r="Y94" t="n">
         <v>10</v>
@@ -8264,7 +8264,7 @@
         </is>
       </c>
       <c r="X95" t="n">
-        <v>0.002508000000034372</v>
+        <v>0.003315999999983887</v>
       </c>
       <c r="Y95" t="n">
         <v>11</v>
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="X96" t="n">
-        <v>0.003368700000009994</v>
+        <v>0.002973800000006577</v>
       </c>
       <c r="Y96" t="n">
         <v>13</v>
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="X97" t="n">
-        <v>0.003791799999987688</v>
+        <v>0.002641600000004019</v>
       </c>
       <c r="Y97" t="n">
         <v>11</v>
@@ -8510,7 +8510,7 @@
         </is>
       </c>
       <c r="X98" t="n">
-        <v>0.002502800000002026</v>
+        <v>0.0033762999999567</v>
       </c>
       <c r="Y98" t="n">
         <v>10</v>
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="X99" t="n">
-        <v>0.002090399999985948</v>
+        <v>0.001929099999983919</v>
       </c>
       <c r="Y99" t="n">
         <v>8</v>
@@ -8674,7 +8674,7 @@
         </is>
       </c>
       <c r="X100" t="n">
-        <v>0.002696900000046298</v>
+        <v>0.00319089999999278</v>
       </c>
       <c r="Y100" t="n">
         <v>11</v>
@@ -8756,7 +8756,7 @@
         </is>
       </c>
       <c r="X101" t="n">
-        <v>0.003140400000006593</v>
+        <v>0.002958100000000741</v>
       </c>
       <c r="Y101" t="n">
         <v>13</v>
@@ -8838,7 +8838,7 @@
         </is>
       </c>
       <c r="X102" t="n">
-        <v>0.004687300000000505</v>
+        <v>0.002586000000007971</v>
       </c>
       <c r="Y102" t="n">
         <v>10</v>
@@ -8920,7 +8920,7 @@
         </is>
       </c>
       <c r="X103" t="n">
-        <v>0.001941400000021076</v>
+        <v>0.002557899999999336</v>
       </c>
       <c r="Y103" t="n">
         <v>8</v>
@@ -9002,7 +9002,7 @@
         </is>
       </c>
       <c r="X104" t="n">
-        <v>0.002731900000014775</v>
+        <v>0.00268740000001344</v>
       </c>
       <c r="Y104" t="n">
         <v>11</v>
@@ -9084,7 +9084,7 @@
         </is>
       </c>
       <c r="X105" t="n">
-        <v>0.002177399999993668</v>
+        <v>0.002818400000023757</v>
       </c>
       <c r="Y105" t="n">
         <v>9</v>
@@ -9166,7 +9166,7 @@
         </is>
       </c>
       <c r="X106" t="n">
-        <v>0.002627800000027491</v>
+        <v>0.002659300000004805</v>
       </c>
       <c r="Y106" t="n">
         <v>11</v>
@@ -9248,7 +9248,7 @@
         </is>
       </c>
       <c r="X107" t="n">
-        <v>0.004591199999993023</v>
+        <v>0.003005000000030122</v>
       </c>
       <c r="Y107" t="n">
         <v>12</v>
@@ -9330,7 +9330,7 @@
         </is>
       </c>
       <c r="X108" t="n">
-        <v>0.002121600000009494</v>
+        <v>0.003317100000003848</v>
       </c>
       <c r="Y108" t="n">
         <v>9</v>
@@ -9412,7 +9412,7 @@
         </is>
       </c>
       <c r="X109" t="n">
-        <v>0.003068400000017846</v>
+        <v>0.00289420000001428</v>
       </c>
       <c r="Y109" t="n">
         <v>12</v>
@@ -9494,7 +9494,7 @@
         </is>
       </c>
       <c r="X110" t="n">
-        <v>0.001943799999992279</v>
+        <v>0.002054600000008122</v>
       </c>
       <c r="Y110" t="n">
         <v>8</v>
@@ -9576,7 +9576,7 @@
         </is>
       </c>
       <c r="X111" t="n">
-        <v>0.00306799999998475</v>
+        <v>0.003039599999965503</v>
       </c>
       <c r="Y111" t="n">
         <v>13</v>
@@ -9658,7 +9658,7 @@
         </is>
       </c>
       <c r="X112" t="n">
-        <v>0.002630899999985559</v>
+        <v>0.002733100000000377</v>
       </c>
       <c r="Y112" t="n">
         <v>11</v>
@@ -9740,7 +9740,7 @@
         </is>
       </c>
       <c r="X113" t="n">
-        <v>0.002311499999962052</v>
+        <v>0.003376300000013543</v>
       </c>
       <c r="Y113" t="n">
         <v>9</v>
@@ -9822,7 +9822,7 @@
         </is>
       </c>
       <c r="X114" t="n">
-        <v>0.004966200000012577</v>
+        <v>0.003313499999990199</v>
       </c>
       <c r="Y114" t="n">
         <v>14</v>
@@ -9904,7 +9904,7 @@
         </is>
       </c>
       <c r="X115" t="n">
-        <v>0.001969599999995353</v>
+        <v>0.002066200000001572</v>
       </c>
       <c r="Y115" t="n">
         <v>8</v>
@@ -9986,7 +9986,7 @@
         </is>
       </c>
       <c r="X116" t="n">
-        <v>0.002995499999997264</v>
+        <v>0.002729200000032961</v>
       </c>
       <c r="Y116" t="n">
         <v>12</v>
@@ -10068,7 +10068,7 @@
         </is>
       </c>
       <c r="X117" t="n">
-        <v>0.002592500000048403</v>
+        <v>0.002702999999996791</v>
       </c>
       <c r="Y117" t="n">
         <v>11</v>
@@ -10150,7 +10150,7 @@
         </is>
       </c>
       <c r="X118" t="n">
-        <v>0.002850500000022294</v>
+        <v>0.003969300000051135</v>
       </c>
       <c r="Y118" t="n">
         <v>12</v>
@@ -10232,7 +10232,7 @@
         </is>
       </c>
       <c r="X119" t="n">
-        <v>0.003196300000013252</v>
+        <v>0.002352799999982835</v>
       </c>
       <c r="Y119" t="n">
         <v>10</v>
@@ -10314,7 +10314,7 @@
         </is>
       </c>
       <c r="X120" t="n">
-        <v>0.002107299999977386</v>
+        <v>0.002296399999977439</v>
       </c>
       <c r="Y120" t="n">
         <v>9</v>
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="X121" t="n">
-        <v>0.003825500000004922</v>
+        <v>0.002328099999999722</v>
       </c>
       <c r="Y121" t="n">
         <v>10</v>
@@ -10478,7 +10478,7 @@
         </is>
       </c>
       <c r="X122" t="n">
-        <v>0.002734500000030948</v>
+        <v>0.003001600000004601</v>
       </c>
       <c r="Y122" t="n">
         <v>12</v>
@@ -10560,7 +10560,7 @@
         </is>
       </c>
       <c r="X123" t="n">
-        <v>0.002158800000017891</v>
+        <v>0.002334599999983311</v>
       </c>
       <c r="Y123" t="n">
         <v>9</v>
@@ -10642,7 +10642,7 @@
         </is>
       </c>
       <c r="X124" t="n">
-        <v>0.002287299999977677</v>
+        <v>0.002465000000029249</v>
       </c>
       <c r="Y124" t="n">
         <v>10</v>
@@ -10724,7 +10724,7 @@
         </is>
       </c>
       <c r="X125" t="n">
-        <v>0.002183600000023489</v>
+        <v>0.003145200000005843</v>
       </c>
       <c r="Y125" t="n">
         <v>9</v>
@@ -10806,7 +10806,7 @@
         </is>
       </c>
       <c r="X126" t="n">
-        <v>0.002767000000005737</v>
+        <v>0.003031099999986964</v>
       </c>
       <c r="Y126" t="n">
         <v>12</v>
@@ -10888,7 +10888,7 @@
         </is>
       </c>
       <c r="X127" t="n">
-        <v>0.001916700000037963</v>
+        <v>0.00256930000000466</v>
       </c>
       <c r="Y127" t="n">
         <v>8</v>
@@ -10970,7 +10970,7 @@
         </is>
       </c>
       <c r="X128" t="n">
-        <v>0.001890300000013667</v>
+        <v>0.002677199999993718</v>
       </c>
       <c r="Y128" t="n">
         <v>8</v>
@@ -11052,7 +11052,7 @@
         </is>
       </c>
       <c r="X129" t="n">
-        <v>0.002013300000044183</v>
+        <v>0.002061099999991711</v>
       </c>
       <c r="Y129" t="n">
         <v>8</v>
@@ -11134,7 +11134,7 @@
         </is>
       </c>
       <c r="X130" t="n">
-        <v>0.002719100000035723</v>
+        <v>0.00262440000000197</v>
       </c>
       <c r="Y130" t="n">
         <v>8</v>
@@ -11216,7 +11216,7 @@
         </is>
       </c>
       <c r="X131" t="n">
-        <v>0.00261569999997846</v>
+        <v>0.00261000000000422</v>
       </c>
       <c r="Y131" t="n">
         <v>11</v>
@@ -11298,7 +11298,7 @@
         </is>
       </c>
       <c r="X132" t="n">
-        <v>0.004190999999991618</v>
+        <v>0.002710900000010952</v>
       </c>
       <c r="Y132" t="n">
         <v>11</v>
@@ -11380,7 +11380,7 @@
         </is>
       </c>
       <c r="X133" t="n">
-        <v>0.002101199999970049</v>
+        <v>0.001949899999999616</v>
       </c>
       <c r="Y133" t="n">
         <v>8</v>
@@ -11462,7 +11462,7 @@
         </is>
       </c>
       <c r="X134" t="n">
-        <v>0.003099899999995159</v>
+        <v>0.002947899999981018</v>
       </c>
       <c r="Y134" t="n">
         <v>12</v>
@@ -11544,7 +11544,7 @@
         </is>
       </c>
       <c r="X135" t="n">
-        <v>0.001863000000014381</v>
+        <v>0.003211899999996604</v>
       </c>
       <c r="Y135" t="n">
         <v>8</v>
@@ -11626,7 +11626,7 @@
         </is>
       </c>
       <c r="X136" t="n">
-        <v>0.00291149999998197</v>
+        <v>0.002861999999993259</v>
       </c>
       <c r="Y136" t="n">
         <v>12</v>
@@ -11708,7 +11708,7 @@
         </is>
       </c>
       <c r="X137" t="n">
-        <v>0.002427599999975882</v>
+        <v>0.002705200000036712</v>
       </c>
       <c r="Y137" t="n">
         <v>10</v>
@@ -11790,7 +11790,7 @@
         </is>
       </c>
       <c r="X138" t="n">
-        <v>0.002325599999949191</v>
+        <v>0.002309699999955228</v>
       </c>
       <c r="Y138" t="n">
         <v>9</v>
@@ -11872,7 +11872,7 @@
         </is>
       </c>
       <c r="X139" t="n">
-        <v>0.002752500000042346</v>
+        <v>0.002078000000039992</v>
       </c>
       <c r="Y139" t="n">
         <v>8</v>
@@ -11954,7 +11954,7 @@
         </is>
       </c>
       <c r="X140" t="n">
-        <v>0.002542700000049081</v>
+        <v>0.002507299999990664</v>
       </c>
       <c r="Y140" t="n">
         <v>11</v>
@@ -12036,7 +12036,7 @@
         </is>
       </c>
       <c r="X141" t="n">
-        <v>0.003546900000003461</v>
+        <v>0.003152300000010655</v>
       </c>
       <c r="Y141" t="n">
         <v>13</v>
@@ -12118,7 +12118,7 @@
         </is>
       </c>
       <c r="X142" t="n">
-        <v>0.001943000000039774</v>
+        <v>0.002068599999972776</v>
       </c>
       <c r="Y142" t="n">
         <v>8</v>
@@ -12200,7 +12200,7 @@
         </is>
       </c>
       <c r="X143" t="n">
-        <v>0.001867000000004282</v>
+        <v>0.001657299999976658</v>
       </c>
       <c r="Y143" t="n">
         <v>7</v>
@@ -12282,7 +12282,7 @@
         </is>
       </c>
       <c r="X144" t="n">
-        <v>0.002830000000017208</v>
+        <v>0.003228500000034273</v>
       </c>
       <c r="Y144" t="n">
         <v>12</v>
@@ -12364,7 +12364,7 @@
         </is>
       </c>
       <c r="X145" t="n">
-        <v>0.002718599999980142</v>
+        <v>0.002520099999969716</v>
       </c>
       <c r="Y145" t="n">
         <v>11</v>
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="X146" t="n">
-        <v>0.002841400000022531</v>
+        <v>0.002407199999993281</v>
       </c>
       <c r="Y146" t="n">
         <v>10</v>
@@ -12528,7 +12528,7 @@
         </is>
       </c>
       <c r="X147" t="n">
-        <v>0.002021100000035858</v>
+        <v>0.002641600000004019</v>
       </c>
       <c r="Y147" t="n">
         <v>8</v>
@@ -12610,7 +12610,7 @@
         </is>
       </c>
       <c r="X148" t="n">
-        <v>0.003664899999989757</v>
+        <v>0.002595199999973374</v>
       </c>
       <c r="Y148" t="n">
         <v>11</v>
@@ -12692,7 +12692,7 @@
         </is>
       </c>
       <c r="X149" t="n">
-        <v>0.002141300000005231</v>
+        <v>0.003181600000004892</v>
       </c>
       <c r="Y149" t="n">
         <v>9</v>
@@ -12774,7 +12774,7 @@
         </is>
       </c>
       <c r="X150" t="n">
-        <v>0.003351899999984198</v>
+        <v>0.00193309999997382</v>
       </c>
       <c r="Y150" t="n">
         <v>8</v>
@@ -12856,7 +12856,7 @@
         </is>
       </c>
       <c r="X151" t="n">
-        <v>0.001973000000020875</v>
+        <v>0.002030300000001262</v>
       </c>
       <c r="Y151" t="n">
         <v>8</v>
@@ -12938,7 +12938,7 @@
         </is>
       </c>
       <c r="X152" t="n">
-        <v>0.003227199999969343</v>
+        <v>0.002809300000023995</v>
       </c>
       <c r="Y152" t="n">
         <v>12</v>
@@ -13020,7 +13020,7 @@
         </is>
       </c>
       <c r="X153" t="n">
-        <v>0.002119100000015806</v>
+        <v>0.002233700000033423</v>
       </c>
       <c r="Y153" t="n">
         <v>9</v>
@@ -13102,7 +13102,7 @@
         </is>
       </c>
       <c r="X154" t="n">
-        <v>0.002419700000018565</v>
+        <v>0.00265460000002804</v>
       </c>
       <c r="Y154" t="n">
         <v>9</v>
@@ -13184,7 +13184,7 @@
         </is>
       </c>
       <c r="X155" t="n">
-        <v>0.00279280000000881</v>
+        <v>0.002903100000025916</v>
       </c>
       <c r="Y155" t="n">
         <v>12</v>
@@ -13266,7 +13266,7 @@
         </is>
       </c>
       <c r="X156" t="n">
-        <v>0.003049599999997099</v>
+        <v>0.003644500000007156</v>
       </c>
       <c r="Y156" t="n">
         <v>13</v>
@@ -13348,7 +13348,7 @@
         </is>
       </c>
       <c r="X157" t="n">
-        <v>0.003605899999968187</v>
+        <v>0.002401099999985945</v>
       </c>
       <c r="Y157" t="n">
         <v>8</v>
@@ -13430,7 +13430,7 @@
         </is>
       </c>
       <c r="X158" t="n">
-        <v>0.002622299999984534</v>
+        <v>0.002678800000012416</v>
       </c>
       <c r="Y158" t="n">
         <v>11</v>
@@ -13512,7 +13512,7 @@
         </is>
       </c>
       <c r="X159" t="n">
-        <v>0.003012500000011187</v>
+        <v>0.003994599999998627</v>
       </c>
       <c r="Y159" t="n">
         <v>11</v>
@@ -13594,7 +13594,7 @@
         </is>
       </c>
       <c r="X160" t="n">
-        <v>0.002190999999982068</v>
+        <v>0.002335599999980786</v>
       </c>
       <c r="Y160" t="n">
         <v>9</v>
@@ -13676,7 +13676,7 @@
         </is>
       </c>
       <c r="X161" t="n">
-        <v>0.002234199999975317</v>
+        <v>0.002393900000015492</v>
       </c>
       <c r="Y161" t="n">
         <v>9</v>
@@ -13758,7 +13758,7 @@
         </is>
       </c>
       <c r="X162" t="n">
-        <v>0.002687500000035925</v>
+        <v>0.003670800000008967</v>
       </c>
       <c r="Y162" t="n">
         <v>11</v>
@@ -13840,7 +13840,7 @@
         </is>
       </c>
       <c r="X163" t="n">
-        <v>0.002729199999976117</v>
+        <v>0.003848199999993085</v>
       </c>
       <c r="Y163" t="n">
         <v>11</v>
@@ -13922,7 +13922,7 @@
         </is>
       </c>
       <c r="X164" t="n">
-        <v>0.004641100000014831</v>
+        <v>0.00319179999996777</v>
       </c>
       <c r="Y164" t="n">
         <v>13</v>
@@ -14004,7 +14004,7 @@
         </is>
       </c>
       <c r="X165" t="n">
-        <v>0.003080399999987549</v>
+        <v>0.004671399999949699</v>
       </c>
       <c r="Y165" t="n">
         <v>12</v>
@@ -14086,7 +14086,7 @@
         </is>
       </c>
       <c r="X166" t="n">
-        <v>0.00249389999999039</v>
+        <v>0.002488400000004276</v>
       </c>
       <c r="Y166" t="n">
         <v>10</v>
@@ -14168,7 +14168,7 @@
         </is>
       </c>
       <c r="X167" t="n">
-        <v>0.003017199999987952</v>
+        <v>0.00311719999996285</v>
       </c>
       <c r="Y167" t="n">
         <v>13</v>
@@ -14250,7 +14250,7 @@
         </is>
       </c>
       <c r="X168" t="n">
-        <v>0.003001799999992727</v>
+        <v>0.003756199999997989</v>
       </c>
       <c r="Y168" t="n">
         <v>12</v>
@@ -14332,7 +14332,7 @@
         </is>
       </c>
       <c r="X169" t="n">
-        <v>0.002698899999984405</v>
+        <v>0.001951100000042061</v>
       </c>
       <c r="Y169" t="n">
         <v>8</v>
@@ -14414,7 +14414,7 @@
         </is>
       </c>
       <c r="X170" t="n">
-        <v>0.002760300000034022</v>
+        <v>0.003138999999976022</v>
       </c>
       <c r="Y170" t="n">
         <v>11</v>
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="X171" t="n">
-        <v>0.003790799999990213</v>
+        <v>0.002410199999985707</v>
       </c>
       <c r="Y171" t="n">
         <v>10</v>
@@ -14578,7 +14578,7 @@
         </is>
       </c>
       <c r="X172" t="n">
-        <v>0.002202000000011139</v>
+        <v>0.002195300000039424</v>
       </c>
       <c r="Y172" t="n">
         <v>9</v>
@@ -14660,7 +14660,7 @@
         </is>
       </c>
       <c r="X173" t="n">
-        <v>0.002274199999988014</v>
+        <v>0.00216899999998077</v>
       </c>
       <c r="Y173" t="n">
         <v>9</v>
@@ -14742,7 +14742,7 @@
         </is>
       </c>
       <c r="X174" t="n">
-        <v>0.001901299999985895</v>
+        <v>0.001959999999996853</v>
       </c>
       <c r="Y174" t="n">
         <v>8</v>
@@ -14824,7 +14824,7 @@
         </is>
       </c>
       <c r="X175" t="n">
-        <v>0.003007200000013199</v>
+        <v>0.005150799999967148</v>
       </c>
       <c r="Y175" t="n">
         <v>12</v>
@@ -14906,7 +14906,7 @@
         </is>
       </c>
       <c r="X176" t="n">
-        <v>0.002194899999949484</v>
+        <v>0.002213700000027075</v>
       </c>
       <c r="Y176" t="n">
         <v>9</v>
@@ -14988,7 +14988,7 @@
         </is>
       </c>
       <c r="X177" t="n">
-        <v>0.002723699999990004</v>
+        <v>0.002671500000019478</v>
       </c>
       <c r="Y177" t="n">
         <v>11</v>
@@ -15070,7 +15070,7 @@
         </is>
       </c>
       <c r="X178" t="n">
-        <v>0.002069399999982124</v>
+        <v>0.002114000000005944</v>
       </c>
       <c r="Y178" t="n">
         <v>9</v>
@@ -15152,7 +15152,7 @@
         </is>
       </c>
       <c r="X179" t="n">
-        <v>0.002742699999998877</v>
+        <v>0.002674100000035651</v>
       </c>
       <c r="Y179" t="n">
         <v>11</v>
@@ -15234,7 +15234,7 @@
         </is>
       </c>
       <c r="X180" t="n">
-        <v>0.003025100000002112</v>
+        <v>0.003239300000018375</v>
       </c>
       <c r="Y180" t="n">
         <v>8</v>
@@ -15316,7 +15316,7 @@
         </is>
       </c>
       <c r="X181" t="n">
-        <v>0.002716399999997066</v>
+        <v>0.003042400000026646</v>
       </c>
       <c r="Y181" t="n">
         <v>12</v>
@@ -15398,7 +15398,7 @@
         </is>
       </c>
       <c r="X182" t="n">
-        <v>0.003068199999972876</v>
+        <v>0.00199609999998529</v>
       </c>
       <c r="Y182" t="n">
         <v>8</v>
@@ -15480,7 +15480,7 @@
         </is>
       </c>
       <c r="X183" t="n">
-        <v>0.001851799999997183</v>
+        <v>0.001988100000005488</v>
       </c>
       <c r="Y183" t="n">
         <v>8</v>
@@ -15562,7 +15562,7 @@
         </is>
       </c>
       <c r="X184" t="n">
-        <v>0.002383300000019517</v>
+        <v>0.00199889999998959</v>
       </c>
       <c r="Y184" t="n">
         <v>8</v>
@@ -15644,7 +15644,7 @@
         </is>
       </c>
       <c r="X185" t="n">
-        <v>0.002502199999980803</v>
+        <v>0.003664799999967272</v>
       </c>
       <c r="Y185" t="n">
         <v>11</v>
@@ -15726,7 +15726,7 @@
         </is>
       </c>
       <c r="X186" t="n">
-        <v>0.003210200000012264</v>
+        <v>0.003111000000046715</v>
       </c>
       <c r="Y186" t="n">
         <v>13</v>
@@ -15808,7 +15808,7 @@
         </is>
       </c>
       <c r="X187" t="n">
-        <v>0.002544000000000324</v>
+        <v>0.00278400000001966</v>
       </c>
       <c r="Y187" t="n">
         <v>11</v>
@@ -15890,7 +15890,7 @@
         </is>
       </c>
       <c r="X188" t="n">
-        <v>0.0028456999999662</v>
+        <v>0.002861699999982648</v>
       </c>
       <c r="Y188" t="n">
         <v>12</v>
@@ -15972,7 +15972,7 @@
         </is>
       </c>
       <c r="X189" t="n">
-        <v>0.001668299999948886</v>
+        <v>0.001798800000017309</v>
       </c>
       <c r="Y189" t="n">
         <v>7</v>
@@ -16054,7 +16054,7 @@
         </is>
       </c>
       <c r="X190" t="n">
-        <v>0.002619299999992108</v>
+        <v>0.003240899999980229</v>
       </c>
       <c r="Y190" t="n">
         <v>11</v>
@@ -16136,7 +16136,7 @@
         </is>
       </c>
       <c r="X191" t="n">
-        <v>0.004183100000034301</v>
+        <v>0.003126000000008844</v>
       </c>
       <c r="Y191" t="n">
         <v>12</v>
@@ -16218,7 +16218,7 @@
         </is>
       </c>
       <c r="X192" t="n">
-        <v>0.002934899999956997</v>
+        <v>0.003517900000019836</v>
       </c>
       <c r="Y192" t="n">
         <v>13</v>
@@ -16300,7 +16300,7 @@
         </is>
       </c>
       <c r="X193" t="n">
-        <v>0.00258880000001227</v>
+        <v>0.002156700000000455</v>
       </c>
       <c r="Y193" t="n">
         <v>9</v>
@@ -16382,7 +16382,7 @@
         </is>
       </c>
       <c r="X194" t="n">
-        <v>0.002483499999982541</v>
+        <v>0.002866100000005645</v>
       </c>
       <c r="Y194" t="n">
         <v>11</v>
@@ -16464,7 +16464,7 @@
         </is>
       </c>
       <c r="X195" t="n">
-        <v>0.00266140000002224</v>
+        <v>0.003650399999969522</v>
       </c>
       <c r="Y195" t="n">
         <v>11</v>
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="X196" t="n">
-        <v>0.002839400000027581</v>
+        <v>0.002872299999978623</v>
       </c>
       <c r="Y196" t="n">
         <v>12</v>
@@ -16628,7 +16628,7 @@
         </is>
       </c>
       <c r="X197" t="n">
-        <v>0.001950399999998353</v>
+        <v>0.002671100000043225</v>
       </c>
       <c r="Y197" t="n">
         <v>8</v>
@@ -16710,7 +16710,7 @@
         </is>
       </c>
       <c r="X198" t="n">
-        <v>0.003238399999986541</v>
+        <v>0.002166299999998955</v>
       </c>
       <c r="Y198" t="n">
         <v>9</v>
@@ -16792,7 +16792,7 @@
         </is>
       </c>
       <c r="X199" t="n">
-        <v>0.002965200000005552</v>
+        <v>0.003192399999988993</v>
       </c>
       <c r="Y199" t="n">
         <v>13</v>
@@ -16874,7 +16874,7 @@
         </is>
       </c>
       <c r="X200" t="n">
-        <v>0.003146899999990183</v>
+        <v>0.001866399999983059</v>
       </c>
       <c r="Y200" t="n">
         <v>8</v>
@@ -16956,7 +16956,7 @@
         </is>
       </c>
       <c r="X201" t="n">
-        <v>0.00188130000003639</v>
+        <v>0.001945899999952871</v>
       </c>
       <c r="Y201" t="n">
         <v>8</v>
@@ -17038,7 +17038,7 @@
         </is>
       </c>
       <c r="X202" t="n">
-        <v>0.003391899999996895</v>
+        <v>0.003925799999990431</v>
       </c>
       <c r="Y202" t="n">
         <v>11</v>
@@ -17120,7 +17120,7 @@
         </is>
       </c>
       <c r="X203" t="n">
-        <v>0.002802799999983563</v>
+        <v>0.002869899999950576</v>
       </c>
       <c r="Y203" t="n">
         <v>12</v>
@@ -17202,7 +17202,7 @@
         </is>
       </c>
       <c r="X204" t="n">
-        <v>0.003161000000034164</v>
+        <v>0.002950999999995929</v>
       </c>
       <c r="Y204" t="n">
         <v>12</v>
@@ -17284,7 +17284,7 @@
         </is>
       </c>
       <c r="X205" t="n">
-        <v>0.003923699999972996</v>
+        <v>0.002535499999964941</v>
       </c>
       <c r="Y205" t="n">
         <v>10</v>
@@ -17366,7 +17366,7 @@
         </is>
       </c>
       <c r="X206" t="n">
-        <v>0.00291540000000623</v>
+        <v>0.002839800000003834</v>
       </c>
       <c r="Y206" t="n">
         <v>12</v>
@@ -17448,7 +17448,7 @@
         </is>
       </c>
       <c r="X207" t="n">
-        <v>0.003327100000035443</v>
+        <v>0.0052703000000065</v>
       </c>
       <c r="Y207" t="n">
         <v>14</v>
@@ -17530,7 +17530,7 @@
         </is>
       </c>
       <c r="X208" t="n">
-        <v>0.002128799999979947</v>
+        <v>0.002085500000021057</v>
       </c>
       <c r="Y208" t="n">
         <v>9</v>
@@ -17612,7 +17612,7 @@
         </is>
       </c>
       <c r="X209" t="n">
-        <v>0.003083100000026207</v>
+        <v>0.002780299999983527</v>
       </c>
       <c r="Y209" t="n">
         <v>11</v>
@@ -17694,7 +17694,7 @@
         </is>
       </c>
       <c r="X210" t="n">
-        <v>0.003430000000037126</v>
+        <v>0.00211699999999837</v>
       </c>
       <c r="Y210" t="n">
         <v>9</v>
@@ -17776,7 +17776,7 @@
         </is>
       </c>
       <c r="X211" t="n">
-        <v>0.002924599999971633</v>
+        <v>0.002875400000050377</v>
       </c>
       <c r="Y211" t="n">
         <v>12</v>
@@ -17858,7 +17858,7 @@
         </is>
       </c>
       <c r="X212" t="n">
-        <v>0.003225100000008752</v>
+        <v>0.004421799999988707</v>
       </c>
       <c r="Y212" t="n">
         <v>12</v>
@@ -17940,7 +17940,7 @@
         </is>
       </c>
       <c r="X213" t="n">
-        <v>0.003196500000001379</v>
+        <v>0.004109400000004371</v>
       </c>
       <c r="Y213" t="n">
         <v>14</v>
@@ -18022,7 +18022,7 @@
         </is>
       </c>
       <c r="X214" t="n">
-        <v>0.002075100000013208</v>
+        <v>0.002216699999962657</v>
       </c>
       <c r="Y214" t="n">
         <v>8</v>
@@ -18104,7 +18104,7 @@
         </is>
       </c>
       <c r="X215" t="n">
-        <v>0.002271100000029946</v>
+        <v>0.00332140000000436</v>
       </c>
       <c r="Y215" t="n">
         <v>10</v>
@@ -18186,7 +18186,7 @@
         </is>
       </c>
       <c r="X216" t="n">
-        <v>0.002837800000008883</v>
+        <v>0.003063300000007985</v>
       </c>
       <c r="Y216" t="n">
         <v>12</v>
@@ -18268,7 +18268,7 @@
         </is>
       </c>
       <c r="X217" t="n">
-        <v>0.002802299999984825</v>
+        <v>0.002744800000016312</v>
       </c>
       <c r="Y217" t="n">
         <v>10</v>
@@ -18350,7 +18350,7 @@
         </is>
       </c>
       <c r="X218" t="n">
-        <v>0.002846400000009908</v>
+        <v>0.002966100000037386</v>
       </c>
       <c r="Y218" t="n">
         <v>12</v>
@@ -18432,7 +18432,7 @@
         </is>
       </c>
       <c r="X219" t="n">
-        <v>0.004204799999968145</v>
+        <v>0.002311800000029507</v>
       </c>
       <c r="Y219" t="n">
         <v>9</v>
@@ -18514,7 +18514,7 @@
         </is>
       </c>
       <c r="X220" t="n">
-        <v>0.00227439999997614</v>
+        <v>0.00400289999998904</v>
       </c>
       <c r="Y220" t="n">
         <v>10</v>
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="X221" t="n">
-        <v>0.002221200000008139</v>
+        <v>0.002174099999990631</v>
       </c>
       <c r="Y221" t="n">
         <v>9</v>
@@ -18678,7 +18678,7 @@
         </is>
       </c>
       <c r="X222" t="n">
-        <v>0.002755500000034772</v>
+        <v>0.002899999999954161</v>
       </c>
       <c r="Y222" t="n">
         <v>12</v>
@@ -18760,7 +18760,7 @@
         </is>
       </c>
       <c r="X223" t="n">
-        <v>0.001973800000030224</v>
+        <v>0.001922900000010941</v>
       </c>
       <c r="Y223" t="n">
         <v>8</v>
@@ -18842,7 +18842,7 @@
         </is>
       </c>
       <c r="X224" t="n">
-        <v>0.004071800000019721</v>
+        <v>0.003287999999997737</v>
       </c>
       <c r="Y224" t="n">
         <v>13</v>
@@ -18924,7 +18924,7 @@
         </is>
       </c>
       <c r="X225" t="n">
-        <v>0.003048000000035245</v>
+        <v>0.004165799999952924</v>
       </c>
       <c r="Y225" t="n">
         <v>13</v>
@@ -19006,7 +19006,7 @@
         </is>
       </c>
       <c r="X226" t="n">
-        <v>0.002557099999989987</v>
+        <v>0.002300100000013572</v>
       </c>
       <c r="Y226" t="n">
         <v>9</v>
@@ -19088,7 +19088,7 @@
         </is>
       </c>
       <c r="X227" t="n">
-        <v>0.002520600000025297</v>
+        <v>0.002640100000007806</v>
       </c>
       <c r="Y227" t="n">
         <v>11</v>
@@ -19170,7 +19170,7 @@
         </is>
       </c>
       <c r="X228" t="n">
-        <v>0.002936499999975695</v>
+        <v>0.002955400000018926</v>
       </c>
       <c r="Y228" t="n">
         <v>12</v>
@@ -19252,7 +19252,7 @@
         </is>
       </c>
       <c r="X229" t="n">
-        <v>0.003079399999990073</v>
+        <v>0.003225299999996878</v>
       </c>
       <c r="Y229" t="n">
         <v>13</v>
@@ -19334,7 +19334,7 @@
         </is>
       </c>
       <c r="X230" t="n">
-        <v>0.003058400000043093</v>
+        <v>0.004508100000009563</v>
       </c>
       <c r="Y230" t="n">
         <v>13</v>
@@ -19416,7 +19416,7 @@
         </is>
       </c>
       <c r="X231" t="n">
-        <v>0.004903300000023592</v>
+        <v>0.003067000000044118</v>
       </c>
       <c r="Y231" t="n">
         <v>13</v>
@@ -19498,7 +19498,7 @@
         </is>
       </c>
       <c r="X232" t="n">
-        <v>0.002047500000003311</v>
+        <v>0.002233999999987191</v>
       </c>
       <c r="Y232" t="n">
         <v>9</v>
@@ -19580,7 +19580,7 @@
         </is>
       </c>
       <c r="X233" t="n">
-        <v>0.003134499999987383</v>
+        <v>0.002810599999975238</v>
       </c>
       <c r="Y233" t="n">
         <v>12</v>
@@ -19662,7 +19662,7 @@
         </is>
       </c>
       <c r="X234" t="n">
-        <v>0.002199499999960608</v>
+        <v>0.002234900000019024</v>
       </c>
       <c r="Y234" t="n">
         <v>9</v>
@@ -19744,7 +19744,7 @@
         </is>
       </c>
       <c r="X235" t="n">
-        <v>0.002243700000008175</v>
+        <v>0.004215500000043448</v>
       </c>
       <c r="Y235" t="n">
         <v>9</v>
@@ -19826,7 +19826,7 @@
         </is>
       </c>
       <c r="X236" t="n">
-        <v>0.002965100000039911</v>
+        <v>0.002849199999957364</v>
       </c>
       <c r="Y236" t="n">
         <v>12</v>
@@ -19908,7 +19908,7 @@
         </is>
       </c>
       <c r="X237" t="n">
-        <v>0.00218169999999418</v>
+        <v>0.002296099999966827</v>
       </c>
       <c r="Y237" t="n">
         <v>9</v>
@@ -19990,7 +19990,7 @@
         </is>
       </c>
       <c r="X238" t="n">
-        <v>0.002550499999983913</v>
+        <v>0.00215549999995801</v>
       </c>
       <c r="Y238" t="n">
         <v>9</v>
@@ -20072,7 +20072,7 @@
         </is>
       </c>
       <c r="X239" t="n">
-        <v>0.001931299999966996</v>
+        <v>0.002087600000038492</v>
       </c>
       <c r="Y239" t="n">
         <v>8</v>
@@ -20154,7 +20154,7 @@
         </is>
       </c>
       <c r="X240" t="n">
-        <v>0.003658400000006168</v>
+        <v>0.004654899999991358</v>
       </c>
       <c r="Y240" t="n">
         <v>11</v>
@@ -20236,7 +20236,7 @@
         </is>
       </c>
       <c r="X241" t="n">
-        <v>0.00188980000001493</v>
+        <v>0.001938300000006166</v>
       </c>
       <c r="Y241" t="n">
         <v>8</v>
@@ -20318,7 +20318,7 @@
         </is>
       </c>
       <c r="X242" t="n">
-        <v>0.004610700000000634</v>
+        <v>0.003630100000009406</v>
       </c>
       <c r="Y242" t="n">
         <v>13</v>
@@ -20400,7 +20400,7 @@
         </is>
       </c>
       <c r="X243" t="n">
-        <v>0.002330999999969663</v>
+        <v>0.002430500000002667</v>
       </c>
       <c r="Y243" t="n">
         <v>10</v>
@@ -20482,7 +20482,7 @@
         </is>
       </c>
       <c r="X244" t="n">
-        <v>0.002061599999990449</v>
+        <v>0.0020935999999665</v>
       </c>
       <c r="Y244" t="n">
         <v>8</v>
@@ -20564,7 +20564,7 @@
         </is>
       </c>
       <c r="X245" t="n">
-        <v>0.002802700000017921</v>
+        <v>0.003518499999984215</v>
       </c>
       <c r="Y245" t="n">
         <v>12</v>
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="X246" t="n">
-        <v>0.001941799999997329</v>
+        <v>0.002135799999962273</v>
       </c>
       <c r="Y246" t="n">
         <v>8</v>
@@ -20728,7 +20728,7 @@
         </is>
       </c>
       <c r="X247" t="n">
-        <v>0.001830100000006496</v>
+        <v>0.002451000000007753</v>
       </c>
       <c r="Y247" t="n">
         <v>8</v>
@@ -20810,7 +20810,7 @@
         </is>
       </c>
       <c r="X248" t="n">
-        <v>0.002346799999997984</v>
+        <v>0.002406299999961448</v>
       </c>
       <c r="Y248" t="n">
         <v>10</v>
@@ -20892,7 +20892,7 @@
         </is>
       </c>
       <c r="X249" t="n">
-        <v>0.002554299999985687</v>
+        <v>0.002218900000002577</v>
       </c>
       <c r="Y249" t="n">
         <v>9</v>
@@ -20974,7 +20974,7 @@
         </is>
       </c>
       <c r="X250" t="n">
-        <v>0.002135199999997894</v>
+        <v>0.002124300000048152</v>
       </c>
       <c r="Y250" t="n">
         <v>9</v>
@@ -21056,7 +21056,7 @@
         </is>
       </c>
       <c r="X251" t="n">
-        <v>0.004300300000011248</v>
+        <v>0.003214700000000903</v>
       </c>
       <c r="Y251" t="n">
         <v>13</v>
@@ -21138,7 +21138,7 @@
         </is>
       </c>
       <c r="X252" t="n">
-        <v>0.002341600000022481</v>
+        <v>0.003876900000022943</v>
       </c>
       <c r="Y252" t="n">
         <v>10</v>
@@ -21220,7 +21220,7 @@
         </is>
       </c>
       <c r="X253" t="n">
-        <v>0.002129599999989296</v>
+        <v>0.002005899999971916</v>
       </c>
       <c r="Y253" t="n">
         <v>8</v>
@@ -21302,7 +21302,7 @@
         </is>
       </c>
       <c r="X254" t="n">
-        <v>0.002287400000000162</v>
+        <v>0.002608100000031754</v>
       </c>
       <c r="Y254" t="n">
         <v>10</v>
@@ -21384,7 +21384,7 @@
         </is>
       </c>
       <c r="X255" t="n">
-        <v>0.002887599999951362</v>
+        <v>0.003345099999989998</v>
       </c>
       <c r="Y255" t="n">
         <v>12</v>
@@ -21466,7 +21466,7 @@
         </is>
       </c>
       <c r="X256" t="n">
-        <v>0.002295399999979963</v>
+        <v>0.002418099999999868</v>
       </c>
       <c r="Y256" t="n">
         <v>10</v>
@@ -21548,7 +21548,7 @@
         </is>
       </c>
       <c r="X257" t="n">
-        <v>0.002404399999988982</v>
+        <v>0.00375339999999369</v>
       </c>
       <c r="Y257" t="n">
         <v>10</v>
@@ -21630,7 +21630,7 @@
         </is>
       </c>
       <c r="X258" t="n">
-        <v>0.002480300000001989</v>
+        <v>0.002364300000010644</v>
       </c>
       <c r="Y258" t="n">
         <v>10</v>
@@ -21712,7 +21712,7 @@
         </is>
       </c>
       <c r="X259" t="n">
-        <v>0.002693799999974544</v>
+        <v>0.002603299999975661</v>
       </c>
       <c r="Y259" t="n">
         <v>11</v>
@@ -21794,7 +21794,7 @@
         </is>
       </c>
       <c r="X260" t="n">
-        <v>0.003843599999981961</v>
+        <v>0.002548699999977089</v>
       </c>
       <c r="Y260" t="n">
         <v>11</v>
@@ -21876,7 +21876,7 @@
         </is>
       </c>
       <c r="X261" t="n">
-        <v>0.00186949999999797</v>
+        <v>0.001998000000014599</v>
       </c>
       <c r="Y261" t="n">
         <v>8</v>
@@ -21958,7 +21958,7 @@
         </is>
       </c>
       <c r="X262" t="n">
-        <v>0.00219129999999268</v>
+        <v>0.001893699999982346</v>
       </c>
       <c r="Y262" t="n">
         <v>8</v>
@@ -22040,7 +22040,7 @@
         </is>
       </c>
       <c r="X263" t="n">
-        <v>0.003001400000016474</v>
+        <v>0.003030299999977615</v>
       </c>
       <c r="Y263" t="n">
         <v>13</v>
@@ -22122,7 +22122,7 @@
         </is>
       </c>
       <c r="X264" t="n">
-        <v>0.002912499999979445</v>
+        <v>0.005436299999985295</v>
       </c>
       <c r="Y264" t="n">
         <v>12</v>
@@ -22204,7 +22204,7 @@
         </is>
       </c>
       <c r="X265" t="n">
-        <v>0.002705700000035449</v>
+        <v>0.002797399999963091</v>
       </c>
       <c r="Y265" t="n">
         <v>12</v>
@@ -22286,7 +22286,7 @@
         </is>
       </c>
       <c r="X266" t="n">
-        <v>0.002600700000016332</v>
+        <v>0.002631300000018655</v>
       </c>
       <c r="Y266" t="n">
         <v>11</v>
@@ -22368,7 +22368,7 @@
         </is>
       </c>
       <c r="X267" t="n">
-        <v>0.003411700000015117</v>
+        <v>0.002669300000036401</v>
       </c>
       <c r="Y267" t="n">
         <v>9</v>
@@ -22450,7 +22450,7 @@
         </is>
       </c>
       <c r="X268" t="n">
-        <v>0.001879700000017692</v>
+        <v>0.00193509999996877</v>
       </c>
       <c r="Y268" t="n">
         <v>8</v>
@@ -22532,7 +22532,7 @@
         </is>
       </c>
       <c r="X269" t="n">
-        <v>0.003954399999997804</v>
+        <v>0.004318899999987025</v>
       </c>
       <c r="Y269" t="n">
         <v>13</v>
@@ -22614,7 +22614,7 @@
         </is>
       </c>
       <c r="X270" t="n">
-        <v>0.00334090000001197</v>
+        <v>0.00329540000001316</v>
       </c>
       <c r="Y270" t="n">
         <v>14</v>
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="X271" t="n">
-        <v>0.001996799999972154</v>
+        <v>0.002026000000000749</v>
       </c>
       <c r="Y271" t="n">
         <v>8</v>
@@ -22778,7 +22778,7 @@
         </is>
       </c>
       <c r="X272" t="n">
-        <v>0.002104900000006182</v>
+        <v>0.002063899999996011</v>
       </c>
       <c r="Y272" t="n">
         <v>9</v>
@@ -22860,7 +22860,7 @@
         </is>
       </c>
       <c r="X273" t="n">
-        <v>0.001946899999950347</v>
+        <v>0.001933899999983169</v>
       </c>
       <c r="Y273" t="n">
         <v>8</v>
@@ -22942,7 +22942,7 @@
         </is>
       </c>
       <c r="X274" t="n">
-        <v>0.00270180000001119</v>
+        <v>0.003938800000014453</v>
       </c>
       <c r="Y274" t="n">
         <v>12</v>
@@ -23024,7 +23024,7 @@
         </is>
       </c>
       <c r="X275" t="n">
-        <v>0.002064000000018495</v>
+        <v>0.001992900000004738</v>
       </c>
       <c r="Y275" t="n">
         <v>8</v>
@@ -23106,7 +23106,7 @@
         </is>
       </c>
       <c r="X276" t="n">
-        <v>0.002577199999961977</v>
+        <v>0.002245800000025611</v>
       </c>
       <c r="Y276" t="n">
         <v>9</v>
@@ -23188,7 +23188,7 @@
         </is>
       </c>
       <c r="X277" t="n">
-        <v>0.00380590000003167</v>
+        <v>0.00326129999996283</v>
       </c>
       <c r="Y277" t="n">
         <v>14</v>
@@ -23270,7 +23270,7 @@
         </is>
       </c>
       <c r="X278" t="n">
-        <v>0.002655199999992419</v>
+        <v>0.00218849999998838</v>
       </c>
       <c r="Y278" t="n">
         <v>8</v>
@@ -23352,7 +23352,7 @@
         </is>
       </c>
       <c r="X279" t="n">
-        <v>0.002179599999976745</v>
+        <v>0.002095899999972062</v>
       </c>
       <c r="Y279" t="n">
         <v>9</v>
@@ -23434,7 +23434,7 @@
         </is>
       </c>
       <c r="X280" t="n">
-        <v>0.002771200000040608</v>
+        <v>0.002480600000012601</v>
       </c>
       <c r="Y280" t="n">
         <v>10</v>
@@ -23516,7 +23516,7 @@
         </is>
       </c>
       <c r="X281" t="n">
-        <v>0.002940699999953722</v>
+        <v>0.004023500000016611</v>
       </c>
       <c r="Y281" t="n">
         <v>13</v>
@@ -23598,7 +23598,7 @@
         </is>
       </c>
       <c r="X282" t="n">
-        <v>0.002438899999958721</v>
+        <v>0.002300100000013572</v>
       </c>
       <c r="Y282" t="n">
         <v>10</v>
@@ -23680,7 +23680,7 @@
         </is>
       </c>
       <c r="X283" t="n">
-        <v>0.001848399999971662</v>
+        <v>0.002113800000017818</v>
       </c>
       <c r="Y283" t="n">
         <v>8</v>
@@ -23762,7 +23762,7 @@
         </is>
       </c>
       <c r="X284" t="n">
-        <v>0.002193400000010115</v>
+        <v>0.0020771999999738</v>
       </c>
       <c r="Y284" t="n">
         <v>9</v>
@@ -23844,7 +23844,7 @@
         </is>
       </c>
       <c r="X285" t="n">
-        <v>0.004271899999992002</v>
+        <v>0.002844700000025568</v>
       </c>
       <c r="Y285" t="n">
         <v>12</v>
@@ -23926,7 +23926,7 @@
         </is>
       </c>
       <c r="X286" t="n">
-        <v>0.001928399999997055</v>
+        <v>0.003134499999987383</v>
       </c>
       <c r="Y286" t="n">
         <v>8</v>
@@ -24008,7 +24008,7 @@
         </is>
       </c>
       <c r="X287" t="n">
-        <v>0.002826900000002297</v>
+        <v>0.001958299999955671</v>
       </c>
       <c r="Y287" t="n">
         <v>8</v>
@@ -24090,7 +24090,7 @@
         </is>
       </c>
       <c r="X288" t="n">
-        <v>0.002292199999999411</v>
+        <v>0.002579900000000634</v>
       </c>
       <c r="Y288" t="n">
         <v>10</v>
@@ -24172,7 +24172,7 @@
         </is>
       </c>
       <c r="X289" t="n">
-        <v>0.004904999999951087</v>
+        <v>0.003190500000016527</v>
       </c>
       <c r="Y289" t="n">
         <v>13</v>
@@ -24254,7 +24254,7 @@
         </is>
       </c>
       <c r="X290" t="n">
-        <v>0.003082000000006246</v>
+        <v>0.003154699999981858</v>
       </c>
       <c r="Y290" t="n">
         <v>13</v>
@@ -24336,7 +24336,7 @@
         </is>
       </c>
       <c r="X291" t="n">
-        <v>0.002462799999989329</v>
+        <v>0.004056999999988875</v>
       </c>
       <c r="Y291" t="n">
         <v>10</v>
@@ -24418,7 +24418,7 @@
         </is>
       </c>
       <c r="X292" t="n">
-        <v>0.002548599999954604</v>
+        <v>0.002572100000008959</v>
       </c>
       <c r="Y292" t="n">
         <v>11</v>
@@ -24500,7 +24500,7 @@
         </is>
       </c>
       <c r="X293" t="n">
-        <v>0.003076099999987036</v>
+        <v>0.003217300000017076</v>
       </c>
       <c r="Y293" t="n">
         <v>13</v>
@@ -24582,7 +24582,7 @@
         </is>
       </c>
       <c r="X294" t="n">
-        <v>0.004083700000023782</v>
+        <v>0.002989900000045509</v>
       </c>
       <c r="Y294" t="n">
         <v>12</v>
@@ -24664,7 +24664,7 @@
         </is>
       </c>
       <c r="X295" t="n">
-        <v>0.002906800000005205</v>
+        <v>0.003159900000014204</v>
       </c>
       <c r="Y295" t="n">
         <v>13</v>
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="X296" t="n">
-        <v>0.002496599999972204</v>
+        <v>0.003340699999967001</v>
       </c>
       <c r="Y296" t="n">
         <v>9</v>
@@ -24828,7 +24828,7 @@
         </is>
       </c>
       <c r="X297" t="n">
-        <v>0.002868100000000595</v>
+        <v>0.002853000000015982</v>
       </c>
       <c r="Y297" t="n">
         <v>12</v>
@@ -24910,7 +24910,7 @@
         </is>
       </c>
       <c r="X298" t="n">
-        <v>0.003081299999962539</v>
+        <v>0.003109200000039891</v>
       </c>
       <c r="Y298" t="n">
         <v>13</v>
@@ -24992,7 +24992,7 @@
         </is>
       </c>
       <c r="X299" t="n">
-        <v>0.0019036000000483</v>
+        <v>0.001928499999962696</v>
       </c>
       <c r="Y299" t="n">
         <v>8</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="X300" t="n">
-        <v>0.003134199999976772</v>
+        <v>0.003272900000013124</v>
       </c>
       <c r="Y300" t="n">
         <v>13</v>
@@ -25156,7 +25156,7 @@
         </is>
       </c>
       <c r="X301" t="n">
-        <v>0.003821700000003148</v>
+        <v>0.004376499999978023</v>
       </c>
       <c r="Y301" t="n">
         <v>12</v>
@@ -25238,7 +25238,7 @@
         </is>
       </c>
       <c r="X302" t="n">
-        <v>0.002173099999993156</v>
+        <v>0.002198799999973744</v>
       </c>
       <c r="Y302" t="n">
         <v>9</v>
@@ -25320,7 +25320,7 @@
         </is>
       </c>
       <c r="X303" t="n">
-        <v>0.003792200000020785</v>
+        <v>0.003200900000024376</v>
       </c>
       <c r="Y303" t="n">
         <v>13</v>
@@ -25402,7 +25402,7 @@
         </is>
       </c>
       <c r="X304" t="n">
-        <v>0.001975700000002689</v>
+        <v>0.002137299999958486</v>
       </c>
       <c r="Y304" t="n">
         <v>8</v>
@@ -25484,7 +25484,7 @@
         </is>
       </c>
       <c r="X305" t="n">
-        <v>0.002702999999996791</v>
+        <v>0.002778900000009799</v>
       </c>
       <c r="Y305" t="n">
         <v>11</v>
@@ -25566,7 +25566,7 @@
         </is>
       </c>
       <c r="X306" t="n">
-        <v>0.002950399999974707</v>
+        <v>0.004759000000035485</v>
       </c>
       <c r="Y306" t="n">
         <v>13</v>
@@ -25648,7 +25648,7 @@
         </is>
       </c>
       <c r="X307" t="n">
-        <v>0.002452800000014577</v>
+        <v>0.002593899999965288</v>
       </c>
       <c r="Y307" t="n">
         <v>10</v>
@@ -25730,7 +25730,7 @@
         </is>
       </c>
       <c r="X308" t="n">
-        <v>0.002807299999972201</v>
+        <v>0.001976700000000164</v>
       </c>
       <c r="Y308" t="n">
         <v>8</v>
@@ -25812,7 +25812,7 @@
         </is>
       </c>
       <c r="X309" t="n">
-        <v>0.002559299999973064</v>
+        <v>0.002656500000000506</v>
       </c>
       <c r="Y309" t="n">
         <v>11</v>
@@ -25894,7 +25894,7 @@
         </is>
       </c>
       <c r="X310" t="n">
-        <v>0.003346599999986211</v>
+        <v>0.002211999999985892</v>
       </c>
       <c r="Y310" t="n">
         <v>9</v>
@@ -25976,7 +25976,7 @@
         </is>
       </c>
       <c r="X311" t="n">
-        <v>0.002799600000003011</v>
+        <v>0.004343500000004497</v>
       </c>
       <c r="Y311" t="n">
         <v>12</v>
@@ -26058,7 +26058,7 @@
         </is>
       </c>
       <c r="X312" t="n">
-        <v>0.003951400000005378</v>
+        <v>0.003237600000034035</v>
       </c>
       <c r="Y312" t="n">
         <v>14</v>
@@ -26140,7 +26140,7 @@
         </is>
       </c>
       <c r="X313" t="n">
-        <v>0.00279760000000806</v>
+        <v>0.002961599999991904</v>
       </c>
       <c r="Y313" t="n">
         <v>12</v>
@@ -26222,7 +26222,7 @@
         </is>
       </c>
       <c r="X314" t="n">
-        <v>0.002631500000006781</v>
+        <v>0.002562399999987974</v>
       </c>
       <c r="Y314" t="n">
         <v>11</v>
@@ -26304,7 +26304,7 @@
         </is>
       </c>
       <c r="X315" t="n">
-        <v>0.004699599999980819</v>
+        <v>0.00330330000002732</v>
       </c>
       <c r="Y315" t="n">
         <v>13</v>
@@ -26386,7 +26386,7 @@
         </is>
       </c>
       <c r="X316" t="n">
-        <v>0.002498600000023998</v>
+        <v>0.002844900000013695</v>
       </c>
       <c r="Y316" t="n">
         <v>11</v>
@@ -26468,7 +26468,7 @@
         </is>
       </c>
       <c r="X317" t="n">
-        <v>0.002412200000037501</v>
+        <v>0.001875600000005306</v>
       </c>
       <c r="Y317" t="n">
         <v>8</v>
@@ -26550,7 +26550,7 @@
         </is>
       </c>
       <c r="X318" t="n">
-        <v>0.002712699999960932</v>
+        <v>0.00287279999997736</v>
       </c>
       <c r="Y318" t="n">
         <v>12</v>
@@ -26632,7 +26632,7 @@
         </is>
       </c>
       <c r="X319" t="n">
-        <v>0.003318500000034419</v>
+        <v>0.005188699999962409</v>
       </c>
       <c r="Y319" t="n">
         <v>14</v>
@@ -26714,7 +26714,7 @@
         </is>
       </c>
       <c r="X320" t="n">
-        <v>0.002266099999985727</v>
+        <v>0.002370600000006107</v>
       </c>
       <c r="Y320" t="n">
         <v>10</v>
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="X321" t="n">
-        <v>0.002019700000005287</v>
+        <v>0.002053300000000036</v>
       </c>
       <c r="Y321" t="n">
         <v>8</v>
@@ -26878,7 +26878,7 @@
         </is>
       </c>
       <c r="X322" t="n">
-        <v>0.00369180000001279</v>
+        <v>0.002857100000028368</v>
       </c>
       <c r="Y322" t="n">
         <v>12</v>
@@ -26960,7 +26960,7 @@
         </is>
       </c>
       <c r="X323" t="n">
-        <v>0.001955800000018826</v>
+        <v>0.002049699999986387</v>
       </c>
       <c r="Y323" t="n">
         <v>8</v>
@@ -27042,7 +27042,7 @@
         </is>
       </c>
       <c r="X324" t="n">
-        <v>0.003323700000009921</v>
+        <v>0.00190450000002329</v>
       </c>
       <c r="Y324" t="n">
         <v>8</v>
@@ -27124,7 +27124,7 @@
         </is>
       </c>
       <c r="X325" t="n">
-        <v>0.002122700000029454</v>
+        <v>0.002257600000007187</v>
       </c>
       <c r="Y325" t="n">
         <v>9</v>
@@ -27206,7 +27206,7 @@
         </is>
       </c>
       <c r="X326" t="n">
-        <v>0.002636600000016642</v>
+        <v>0.004233600000020488</v>
       </c>
       <c r="Y326" t="n">
         <v>9</v>
@@ -27288,7 +27288,7 @@
         </is>
       </c>
       <c r="X327" t="n">
-        <v>0.001614899999992758</v>
+        <v>0.001739400000019486</v>
       </c>
       <c r="Y327" t="n">
         <v>7</v>
@@ -27370,7 +27370,7 @@
         </is>
       </c>
       <c r="X328" t="n">
-        <v>0.002728599999954895</v>
+        <v>0.002277100000014798</v>
       </c>
       <c r="Y328" t="n">
         <v>9</v>
@@ -27452,7 +27452,7 @@
         </is>
       </c>
       <c r="X329" t="n">
-        <v>0.002323400000022957</v>
+        <v>0.002447199999949135</v>
       </c>
       <c r="Y329" t="n">
         <v>10</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="X330" t="n">
-        <v>0.002221999999960644</v>
+        <v>0.002327699999966626</v>
       </c>
       <c r="Y330" t="n">
         <v>9</v>
@@ -27616,7 +27616,7 @@
         </is>
       </c>
       <c r="X331" t="n">
-        <v>0.002257899999960955</v>
+        <v>0.00220140000004676</v>
       </c>
       <c r="Y331" t="n">
         <v>9</v>
@@ -27698,7 +27698,7 @@
         </is>
       </c>
       <c r="X332" t="n">
-        <v>0.002766699999995126</v>
+        <v>0.002725400000031186</v>
       </c>
       <c r="Y332" t="n">
         <v>11</v>
@@ -27780,7 +27780,7 @@
         </is>
       </c>
       <c r="X333" t="n">
-        <v>0.00210650000002488</v>
+        <v>0.002403600000036477</v>
       </c>
       <c r="Y333" t="n">
         <v>9</v>
@@ -27862,7 +27862,7 @@
         </is>
       </c>
       <c r="X334" t="n">
-        <v>0.00226959999997689</v>
+        <v>0.002226699999994253</v>
       </c>
       <c r="Y334" t="n">
         <v>9</v>
@@ -27944,7 +27944,7 @@
         </is>
       </c>
       <c r="X335" t="n">
-        <v>0.003451600000005328</v>
+        <v>0.002236299999992752</v>
       </c>
       <c r="Y335" t="n">
         <v>9</v>
@@ -28026,7 +28026,7 @@
         </is>
       </c>
       <c r="X336" t="n">
-        <v>0.001643800000010742</v>
+        <v>0.001658899999995356</v>
       </c>
       <c r="Y336" t="n">
         <v>7</v>
@@ -28108,7 +28108,7 @@
         </is>
       </c>
       <c r="X337" t="n">
-        <v>0.002903799999955936</v>
+        <v>0.002050699999983863</v>
       </c>
       <c r="Y337" t="n">
         <v>8</v>
@@ -28190,7 +28190,7 @@
         </is>
       </c>
       <c r="X338" t="n">
-        <v>0.002321099999960552</v>
+        <v>0.003712799999959771</v>
       </c>
       <c r="Y338" t="n">
         <v>10</v>
@@ -28272,7 +28272,7 @@
         </is>
       </c>
       <c r="X339" t="n">
-        <v>0.003618899999992209</v>
+        <v>0.002180399999986093</v>
       </c>
       <c r="Y339" t="n">
         <v>9</v>
@@ -28354,7 +28354,7 @@
         </is>
       </c>
       <c r="X340" t="n">
-        <v>0.00284020000003693</v>
+        <v>0.00297640000002275</v>
       </c>
       <c r="Y340" t="n">
         <v>12</v>
@@ -28436,7 +28436,7 @@
         </is>
       </c>
       <c r="X341" t="n">
-        <v>0.001963399999965532</v>
+        <v>0.00191669999998112</v>
       </c>
       <c r="Y341" t="n">
         <v>8</v>
@@ -28518,7 +28518,7 @@
         </is>
       </c>
       <c r="X342" t="n">
-        <v>0.001896699999974771</v>
+        <v>0.002077900000017507</v>
       </c>
       <c r="Y342" t="n">
         <v>8</v>
@@ -28600,7 +28600,7 @@
         </is>
       </c>
       <c r="X343" t="n">
-        <v>0.002595099999950889</v>
+        <v>0.002303000000040356</v>
       </c>
       <c r="Y343" t="n">
         <v>10</v>
@@ -28682,7 +28682,7 @@
         </is>
       </c>
       <c r="X344" t="n">
-        <v>0.002050100000019484</v>
+        <v>0.002228800000011688</v>
       </c>
       <c r="Y344" t="n">
         <v>9</v>
@@ -28764,7 +28764,7 @@
         </is>
       </c>
       <c r="X345" t="n">
-        <v>0.003084199999989323</v>
+        <v>0.004347699999982524</v>
       </c>
       <c r="Y345" t="n">
         <v>13</v>
@@ -28846,7 +28846,7 @@
         </is>
       </c>
       <c r="X346" t="n">
-        <v>0.002239599999995789</v>
+        <v>0.002338300000019444</v>
       </c>
       <c r="Y346" t="n">
         <v>10</v>
@@ -28928,7 +28928,7 @@
         </is>
       </c>
       <c r="X347" t="n">
-        <v>0.002761299999974653</v>
+        <v>0.003052999999965778</v>
       </c>
       <c r="Y347" t="n">
         <v>12</v>
@@ -29010,7 +29010,7 @@
         </is>
       </c>
       <c r="X348" t="n">
-        <v>0.002980500000035136</v>
+        <v>0.001855200000022705</v>
       </c>
       <c r="Y348" t="n">
         <v>8</v>
@@ -29092,7 +29092,7 @@
         </is>
       </c>
       <c r="X349" t="n">
-        <v>0.002739000000019587</v>
+        <v>0.002860400000031404</v>
       </c>
       <c r="Y349" t="n">
         <v>12</v>
@@ -29174,7 +29174,7 @@
         </is>
       </c>
       <c r="X350" t="n">
-        <v>0.003369000000020606</v>
+        <v>0.00369940000001634</v>
       </c>
       <c r="Y350" t="n">
         <v>11</v>
@@ -29256,7 +29256,7 @@
         </is>
       </c>
       <c r="X351" t="n">
-        <v>0.001869199999987359</v>
+        <v>0.001989200000025448</v>
       </c>
       <c r="Y351" t="n">
         <v>8</v>
@@ -29338,7 +29338,7 @@
         </is>
       </c>
       <c r="X352" t="n">
-        <v>0.003162800000040988</v>
+        <v>0.003410599999995156</v>
       </c>
       <c r="Y352" t="n">
         <v>13</v>
@@ -29420,7 +29420,7 @@
         </is>
       </c>
       <c r="X353" t="n">
-        <v>0.002090899999984686</v>
+        <v>0.002174799999977495</v>
       </c>
       <c r="Y353" t="n">
         <v>9</v>
@@ -29502,7 +29502,7 @@
         </is>
       </c>
       <c r="X354" t="n">
-        <v>0.002592500000048403</v>
+        <v>0.002516700000001038</v>
       </c>
       <c r="Y354" t="n">
         <v>10</v>
@@ -29584,7 +29584,7 @@
         </is>
       </c>
       <c r="X355" t="n">
-        <v>0.003054800000029445</v>
+        <v>0.002533900000003086</v>
       </c>
       <c r="Y355" t="n">
         <v>11</v>
@@ -29666,7 +29666,7 @@
         </is>
       </c>
       <c r="X356" t="n">
-        <v>0.003091900000015357</v>
+        <v>0.003121300000032079</v>
       </c>
       <c r="Y356" t="n">
         <v>13</v>
@@ -29748,7 +29748,7 @@
         </is>
       </c>
       <c r="X357" t="n">
-        <v>0.004777799999999388</v>
+        <v>0.003520700000024135</v>
       </c>
       <c r="Y357" t="n">
         <v>13</v>
@@ -29830,7 +29830,7 @@
         </is>
       </c>
       <c r="X358" t="n">
-        <v>0.002619999999978972</v>
+        <v>0.002623200000016368</v>
       </c>
       <c r="Y358" t="n">
         <v>11</v>
@@ -29912,7 +29912,7 @@
         </is>
       </c>
       <c r="X359" t="n">
-        <v>0.002815600000019458</v>
+        <v>0.00298689999999624</v>
       </c>
       <c r="Y359" t="n">
         <v>12</v>
@@ -29994,7 +29994,7 @@
         </is>
       </c>
       <c r="X360" t="n">
-        <v>0.002039400000001024</v>
+        <v>0.003491600000018025</v>
       </c>
       <c r="Y360" t="n">
         <v>9</v>
@@ -30076,7 +30076,7 @@
         </is>
       </c>
       <c r="X361" t="n">
-        <v>0.002636600000016642</v>
+        <v>0.002768100000025697</v>
       </c>
       <c r="Y361" t="n">
         <v>11</v>
@@ -30158,7 +30158,7 @@
         </is>
       </c>
       <c r="X362" t="n">
-        <v>0.001825399999972888</v>
+        <v>0.001995300000032785</v>
       </c>
       <c r="Y362" t="n">
         <v>8</v>
@@ -30240,7 +30240,7 @@
         </is>
       </c>
       <c r="X363" t="n">
-        <v>0.003100099999983286</v>
+        <v>0.002983700000015688</v>
       </c>
       <c r="Y363" t="n">
         <v>13</v>
@@ -30322,7 +30322,7 @@
         </is>
       </c>
       <c r="X364" t="n">
-        <v>0.004103900000018257</v>
+        <v>0.003295300000047519</v>
       </c>
       <c r="Y364" t="n">
         <v>13</v>
@@ -30404,7 +30404,7 @@
         </is>
       </c>
       <c r="X365" t="n">
-        <v>0.002794999999991887</v>
+        <v>0.004077399999971476</v>
       </c>
       <c r="Y365" t="n">
         <v>12</v>
@@ -30486,7 +30486,7 @@
         </is>
       </c>
       <c r="X366" t="n">
-        <v>0.002029800000002524</v>
+        <v>0.001973700000007739</v>
       </c>
       <c r="Y366" t="n">
         <v>8</v>
@@ -30568,7 +30568,7 @@
         </is>
       </c>
       <c r="X367" t="n">
-        <v>0.003602999999998246</v>
+        <v>0.003260199999999713</v>
       </c>
       <c r="Y367" t="n">
         <v>13</v>
@@ -30650,7 +30650,7 @@
         </is>
       </c>
       <c r="X368" t="n">
-        <v>0.003176699999983157</v>
+        <v>0.003529499999956442</v>
       </c>
       <c r="Y368" t="n">
         <v>12</v>
@@ -30732,7 +30732,7 @@
         </is>
       </c>
       <c r="X369" t="n">
-        <v>0.001919100000009166</v>
+        <v>0.002002700000048208</v>
       </c>
       <c r="Y369" t="n">
         <v>8</v>
@@ -30814,7 +30814,7 @@
         </is>
       </c>
       <c r="X370" t="n">
-        <v>0.002131799999972372</v>
+        <v>0.003290199999980814</v>
       </c>
       <c r="Y370" t="n">
         <v>7</v>
@@ -30896,7 +30896,7 @@
         </is>
       </c>
       <c r="X371" t="n">
-        <v>0.003971700000022338</v>
+        <v>0.002666999999973996</v>
       </c>
       <c r="Y371" t="n">
         <v>11</v>
@@ -30978,7 +30978,7 @@
         </is>
       </c>
       <c r="X372" t="n">
-        <v>0.002765000000010787</v>
+        <v>0.002902599999970334</v>
       </c>
       <c r="Y372" t="n">
         <v>12</v>
@@ -31060,7 +31060,7 @@
         </is>
       </c>
       <c r="X373" t="n">
-        <v>0.003261000000009062</v>
+        <v>0.002584599999977399</v>
       </c>
       <c r="Y373" t="n">
         <v>11</v>
@@ -31142,7 +31142,7 @@
         </is>
       </c>
       <c r="X374" t="n">
-        <v>0.002544300000010935</v>
+        <v>0.002266699999950106</v>
       </c>
       <c r="Y374" t="n">
         <v>9</v>
@@ -31224,7 +31224,7 @@
         </is>
       </c>
       <c r="X375" t="n">
-        <v>0.003117300000042178</v>
+        <v>0.004848700000025019</v>
       </c>
       <c r="Y375" t="n">
         <v>13</v>
@@ -31306,7 +31306,7 @@
         </is>
       </c>
       <c r="X376" t="n">
-        <v>0.002378299999975297</v>
+        <v>0.002417999999977383</v>
       </c>
       <c r="Y376" t="n">
         <v>10</v>
@@ -31388,7 +31388,7 @@
         </is>
       </c>
       <c r="X377" t="n">
-        <v>0.002229899999974805</v>
+        <v>0.002031700000031833</v>
       </c>
       <c r="Y377" t="n">
         <v>8</v>
@@ -31470,7 +31470,7 @@
         </is>
       </c>
       <c r="X378" t="n">
-        <v>0.004516000000023723</v>
+        <v>0.003200899999967532</v>
       </c>
       <c r="Y378" t="n">
         <v>13</v>
@@ -31552,7 +31552,7 @@
         </is>
       </c>
       <c r="X379" t="n">
-        <v>0.002727400000026137</v>
+        <v>0.002917899999999918</v>
       </c>
       <c r="Y379" t="n">
         <v>12</v>
@@ -31634,7 +31634,7 @@
         </is>
       </c>
       <c r="X380" t="n">
-        <v>0.002176500000018677</v>
+        <v>0.003701000000035037</v>
       </c>
       <c r="Y380" t="n">
         <v>8</v>
@@ -31716,7 +31716,7 @@
         </is>
       </c>
       <c r="X381" t="n">
-        <v>0.002266899999995076</v>
+        <v>0.002367800000001807</v>
       </c>
       <c r="Y381" t="n">
         <v>10</v>
@@ -31798,7 +31798,7 @@
         </is>
       </c>
       <c r="X382" t="n">
-        <v>0.003235899999992853</v>
+        <v>0.003373299999964274</v>
       </c>
       <c r="Y382" t="n">
         <v>13</v>
@@ -31880,7 +31880,7 @@
         </is>
       </c>
       <c r="X383" t="n">
-        <v>0.002478499999995165</v>
+        <v>0.002553499999976339</v>
       </c>
       <c r="Y383" t="n">
         <v>11</v>
@@ -31962,7 +31962,7 @@
         </is>
       </c>
       <c r="X384" t="n">
-        <v>0.00237210000000232</v>
+        <v>0.002397999999971034</v>
       </c>
       <c r="Y384" t="n">
         <v>10</v>
@@ -32044,7 +32044,7 @@
         </is>
       </c>
       <c r="X385" t="n">
-        <v>0.003905500000030315</v>
+        <v>0.003229699999963032</v>
       </c>
       <c r="Y385" t="n">
         <v>9</v>
@@ -32126,7 +32126,7 @@
         </is>
       </c>
       <c r="X386" t="n">
-        <v>0.002854700000000321</v>
+        <v>0.00286030000000892</v>
       </c>
       <c r="Y386" t="n">
         <v>12</v>
@@ -32208,7 +32208,7 @@
         </is>
       </c>
       <c r="X387" t="n">
-        <v>0.002455200000042623</v>
+        <v>0.002300999999988562</v>
       </c>
       <c r="Y387" t="n">
         <v>9</v>
@@ -32290,7 +32290,7 @@
         </is>
       </c>
       <c r="X388" t="n">
-        <v>0.003195899999980156</v>
+        <v>0.002964699999949971</v>
       </c>
       <c r="Y388" t="n">
         <v>13</v>
@@ -32372,7 +32372,7 @@
         </is>
       </c>
       <c r="X389" t="n">
-        <v>0.002240800000038234</v>
+        <v>0.002260300000045845</v>
       </c>
       <c r="Y389" t="n">
         <v>9</v>
@@ -32454,7 +32454,7 @@
         </is>
       </c>
       <c r="X390" t="n">
-        <v>0.00275579999998854</v>
+        <v>0.004103900000018257</v>
       </c>
       <c r="Y390" t="n">
         <v>12</v>
@@ -32536,7 +32536,7 @@
         </is>
       </c>
       <c r="X391" t="n">
-        <v>0.001949700000011489</v>
+        <v>0.001987199999973654</v>
       </c>
       <c r="Y391" t="n">
         <v>8</v>
@@ -32618,7 +32618,7 @@
         </is>
       </c>
       <c r="X392" t="n">
-        <v>0.004268599999988965</v>
+        <v>0.003683999999964271</v>
       </c>
       <c r="Y392" t="n">
         <v>13</v>
@@ -32700,7 +32700,7 @@
         </is>
       </c>
       <c r="X393" t="n">
-        <v>0.002291500000012547</v>
+        <v>0.002179699999999229</v>
       </c>
       <c r="Y393" t="n">
         <v>9</v>
@@ -32782,7 +32782,7 @@
         </is>
       </c>
       <c r="X394" t="n">
-        <v>0.002434300000004441</v>
+        <v>0.001978700000051958</v>
       </c>
       <c r="Y394" t="n">
         <v>8</v>
@@ -32864,7 +32864,7 @@
         </is>
       </c>
       <c r="X395" t="n">
-        <v>0.002312399999993886</v>
+        <v>0.002423499999963497</v>
       </c>
       <c r="Y395" t="n">
         <v>10</v>
@@ -32946,7 +32946,7 @@
         </is>
       </c>
       <c r="X396" t="n">
-        <v>0.003027799999983927</v>
+        <v>0.002271300000018073</v>
       </c>
       <c r="Y396" t="n">
         <v>9</v>
@@ -33028,7 +33028,7 @@
         </is>
       </c>
       <c r="X397" t="n">
-        <v>0.002105500000027405</v>
+        <v>0.003628300000002582</v>
       </c>
       <c r="Y397" t="n">
         <v>9</v>
@@ -33110,7 +33110,7 @@
         </is>
       </c>
       <c r="X398" t="n">
-        <v>0.002874299999973573</v>
+        <v>0.002953999999988355</v>
       </c>
       <c r="Y398" t="n">
         <v>12</v>
@@ -33192,7 +33192,7 @@
         </is>
       </c>
       <c r="X399" t="n">
-        <v>0.001905899999997018</v>
+        <v>0.002327900000011596</v>
       </c>
       <c r="Y399" t="n">
         <v>8</v>
@@ -33274,7 +33274,7 @@
         </is>
       </c>
       <c r="X400" t="n">
-        <v>0.001981199999988803</v>
+        <v>0.001954599999976381</v>
       </c>
       <c r="Y400" t="n">
         <v>8</v>
@@ -33356,7 +33356,7 @@
         </is>
       </c>
       <c r="X401" t="n">
-        <v>0.002168000000040138</v>
+        <v>0.002236900000013975</v>
       </c>
       <c r="Y401" t="n">
         <v>9</v>
@@ -33438,7 +33438,7 @@
         </is>
       </c>
       <c r="X402" t="n">
-        <v>0.002610600000025443</v>
+        <v>0.002525899999966441</v>
       </c>
       <c r="Y402" t="n">
         <v>11</v>
@@ -33520,7 +33520,7 @@
         </is>
       </c>
       <c r="X403" t="n">
-        <v>0.002543900000034682</v>
+        <v>0.002604499999961263</v>
       </c>
       <c r="Y403" t="n">
         <v>11</v>
@@ -33602,7 +33602,7 @@
         </is>
       </c>
       <c r="X404" t="n">
-        <v>0.002664600000002793</v>
+        <v>0.004039299999988089</v>
       </c>
       <c r="Y404" t="n">
         <v>11</v>
@@ -33684,7 +33684,7 @@
         </is>
       </c>
       <c r="X405" t="n">
-        <v>0.004052699999988363</v>
+        <v>0.002768899999978203</v>
       </c>
       <c r="Y405" t="n">
         <v>12</v>
@@ -33766,7 +33766,7 @@
         </is>
       </c>
       <c r="X406" t="n">
-        <v>0.002689799999984643</v>
+        <v>0.003003700000022036</v>
       </c>
       <c r="Y406" t="n">
         <v>12</v>
@@ -33848,7 +33848,7 @@
         </is>
       </c>
       <c r="X407" t="n">
-        <v>0.002440500000034262</v>
+        <v>0.002177700000004279</v>
       </c>
       <c r="Y407" t="n">
         <v>9</v>
@@ -33930,7 +33930,7 @@
         </is>
       </c>
       <c r="X408" t="n">
-        <v>0.002703600000018014</v>
+        <v>0.003373199999998633</v>
       </c>
       <c r="Y408" t="n">
         <v>12</v>
@@ -34012,7 +34012,7 @@
         </is>
       </c>
       <c r="X409" t="n">
-        <v>0.002626899999995658</v>
+        <v>0.002877399999988484</v>
       </c>
       <c r="Y409" t="n">
         <v>11</v>
@@ -34094,7 +34094,7 @@
         </is>
       </c>
       <c r="X410" t="n">
-        <v>0.003034100000036233</v>
+        <v>0.003296499999976277</v>
       </c>
       <c r="Y410" t="n">
         <v>13</v>
@@ -34176,7 +34176,7 @@
         </is>
       </c>
       <c r="X411" t="n">
-        <v>0.001913199999989956</v>
+        <v>0.00204919999998765</v>
       </c>
       <c r="Y411" t="n">
         <v>8</v>
@@ -34258,7 +34258,7 @@
         </is>
       </c>
       <c r="X412" t="n">
-        <v>0.004369899999971949</v>
+        <v>0.005410900000015317</v>
       </c>
       <c r="Y412" t="n">
         <v>14</v>
@@ -34340,7 +34340,7 @@
         </is>
       </c>
       <c r="X413" t="n">
-        <v>0.002488900000003014</v>
+        <v>0.002644099999997707</v>
       </c>
       <c r="Y413" t="n">
         <v>11</v>
@@ -34422,7 +34422,7 @@
         </is>
       </c>
       <c r="X414" t="n">
-        <v>0.00244079999998803</v>
+        <v>0.001997000000017124</v>
       </c>
       <c r="Y414" t="n">
         <v>8</v>
@@ -34504,7 +34504,7 @@
         </is>
       </c>
       <c r="X415" t="n">
-        <v>0.001949899999999616</v>
+        <v>0.001925200000016503</v>
       </c>
       <c r="Y415" t="n">
         <v>8</v>
@@ -34586,7 +34586,7 @@
         </is>
       </c>
       <c r="X416" t="n">
-        <v>0.003227200000026187</v>
+        <v>0.003262599999970917</v>
       </c>
       <c r="Y416" t="n">
         <v>13</v>
@@ -34668,7 +34668,7 @@
         </is>
       </c>
       <c r="X417" t="n">
-        <v>0.002152699999953711</v>
+        <v>0.004006899999978941</v>
       </c>
       <c r="Y417" t="n">
         <v>9</v>
@@ -34750,7 +34750,7 @@
         </is>
       </c>
       <c r="X418" t="n">
-        <v>0.002455600000018876</v>
+        <v>0.002443299999981718</v>
       </c>
       <c r="Y418" t="n">
         <v>10</v>
@@ -34832,7 +34832,7 @@
         </is>
       </c>
       <c r="X419" t="n">
-        <v>0.001948599999991529</v>
+        <v>0.002079100000003109</v>
       </c>
       <c r="Y419" t="n">
         <v>8</v>
@@ -34914,7 +34914,7 @@
         </is>
       </c>
       <c r="X420" t="n">
-        <v>0.002655000000004293</v>
+        <v>0.002660699999978533</v>
       </c>
       <c r="Y420" t="n">
         <v>11</v>
@@ -34996,7 +34996,7 @@
         </is>
       </c>
       <c r="X421" t="n">
-        <v>0.003391500000020642</v>
+        <v>0.002472100000034061</v>
       </c>
       <c r="Y421" t="n">
         <v>9</v>
@@ -35078,7 +35078,7 @@
         </is>
       </c>
       <c r="X422" t="n">
-        <v>0.002739200000007713</v>
+        <v>0.003014100000029885</v>
       </c>
       <c r="Y422" t="n">
         <v>11</v>
@@ -35160,7 +35160,7 @@
         </is>
       </c>
       <c r="X423" t="n">
-        <v>0.002445899999997891</v>
+        <v>0.002233199999977842</v>
       </c>
       <c r="Y423" t="n">
         <v>9</v>
@@ -35242,7 +35242,7 @@
         </is>
       </c>
       <c r="X424" t="n">
-        <v>0.002215100000000803</v>
+        <v>0.003997600000047896</v>
       </c>
       <c r="Y424" t="n">
         <v>9</v>
@@ -35324,7 +35324,7 @@
         </is>
       </c>
       <c r="X425" t="n">
-        <v>0.003132300000004307</v>
+        <v>0.003088900000022932</v>
       </c>
       <c r="Y425" t="n">
         <v>13</v>
@@ -35406,7 +35406,7 @@
         </is>
       </c>
       <c r="X426" t="n">
-        <v>0.002305599999999686</v>
+        <v>0.002505000000041946</v>
       </c>
       <c r="Y426" t="n">
         <v>10</v>
@@ -35488,7 +35488,7 @@
         </is>
       </c>
       <c r="X427" t="n">
-        <v>0.002847500000029868</v>
+        <v>0.002767100000028222</v>
       </c>
       <c r="Y427" t="n">
         <v>12</v>
@@ -35570,7 +35570,7 @@
         </is>
       </c>
       <c r="X428" t="n">
-        <v>0.004704000000003816</v>
+        <v>0.002899499999955424</v>
       </c>
       <c r="Y428" t="n">
         <v>12</v>
@@ -35652,7 +35652,7 @@
         </is>
       </c>
       <c r="X429" t="n">
-        <v>0.00235570000000962</v>
+        <v>0.00460609999998951</v>
       </c>
       <c r="Y429" t="n">
         <v>10</v>
@@ -35734,7 +35734,7 @@
         </is>
       </c>
       <c r="X430" t="n">
-        <v>0.002901100000030965</v>
+        <v>0.002076700000031906</v>
       </c>
       <c r="Y430" t="n">
         <v>9</v>
@@ -35816,7 +35816,7 @@
         </is>
       </c>
       <c r="X431" t="n">
-        <v>0.002782999999965341</v>
+        <v>0.003058000000009997</v>
       </c>
       <c r="Y431" t="n">
         <v>12</v>
@@ -35898,7 +35898,7 @@
         </is>
       </c>
       <c r="X432" t="n">
-        <v>0.003508099999976366</v>
+        <v>0.003752200000008088</v>
       </c>
       <c r="Y432" t="n">
         <v>14</v>
@@ -35980,7 +35980,7 @@
         </is>
       </c>
       <c r="X433" t="n">
-        <v>0.002952900000025238</v>
+        <v>0.003179799999998068</v>
       </c>
       <c r="Y433" t="n">
         <v>13</v>
@@ -36062,7 +36062,7 @@
         </is>
       </c>
       <c r="X434" t="n">
-        <v>0.002178700000001754</v>
+        <v>0.002543600000024071</v>
       </c>
       <c r="Y434" t="n">
         <v>9</v>
@@ -36144,7 +36144,7 @@
         </is>
       </c>
       <c r="X435" t="n">
-        <v>0.001925500000027114</v>
+        <v>0.001878400000009606</v>
       </c>
       <c r="Y435" t="n">
         <v>8</v>
@@ -36226,7 +36226,7 @@
         </is>
       </c>
       <c r="X436" t="n">
-        <v>0.002654800000016166</v>
+        <v>0.002767800000015086</v>
       </c>
       <c r="Y436" t="n">
         <v>11</v>
@@ -36308,7 +36308,7 @@
         </is>
       </c>
       <c r="X437" t="n">
-        <v>0.0034598000000301</v>
+        <v>0.002290099999981976</v>
       </c>
       <c r="Y437" t="n">
         <v>10</v>
@@ -36390,7 +36390,7 @@
         </is>
       </c>
       <c r="X438" t="n">
-        <v>0.002269799999965016</v>
+        <v>0.002411199999983182</v>
       </c>
       <c r="Y438" t="n">
         <v>10</v>
@@ -36472,7 +36472,7 @@
         </is>
       </c>
       <c r="X439" t="n">
-        <v>0.003820899999993799</v>
+        <v>0.005533299999967767</v>
       </c>
       <c r="Y439" t="n">
         <v>13</v>
@@ -36554,7 +36554,7 @@
         </is>
       </c>
       <c r="X440" t="n">
-        <v>0.001817899999991823</v>
+        <v>0.002022299999964616</v>
       </c>
       <c r="Y440" t="n">
         <v>8</v>
@@ -36636,7 +36636,7 @@
         </is>
       </c>
       <c r="X441" t="n">
-        <v>0.00219019999997272</v>
+        <v>0.002254400000026635</v>
       </c>
       <c r="Y441" t="n">
         <v>9</v>
@@ -36718,7 +36718,7 @@
         </is>
       </c>
       <c r="X442" t="n">
-        <v>0.002261200000020835</v>
+        <v>0.002277300000002924</v>
       </c>
       <c r="Y442" t="n">
         <v>9</v>
@@ -36800,7 +36800,7 @@
         </is>
       </c>
       <c r="X443" t="n">
-        <v>0.002217099999995753</v>
+        <v>0.002194599999995717</v>
       </c>
       <c r="Y443" t="n">
         <v>9</v>
@@ -36882,7 +36882,7 @@
         </is>
       </c>
       <c r="X444" t="n">
-        <v>0.002899599999977909</v>
+        <v>0.003044799999997849</v>
       </c>
       <c r="Y444" t="n">
         <v>8</v>
@@ -36964,7 +36964,7 @@
         </is>
       </c>
       <c r="X445" t="n">
-        <v>0.001832699999965826</v>
+        <v>0.002032700000029308</v>
       </c>
       <c r="Y445" t="n">
         <v>8</v>
@@ -37046,7 +37046,7 @@
         </is>
       </c>
       <c r="X446" t="n">
-        <v>0.004826699999966877</v>
+        <v>0.002791199999990113</v>
       </c>
       <c r="Y446" t="n">
         <v>11</v>
@@ -37128,7 +37128,7 @@
         </is>
       </c>
       <c r="X447" t="n">
-        <v>0.001895699999977296</v>
+        <v>0.002011000000038621</v>
       </c>
       <c r="Y447" t="n">
         <v>8</v>
@@ -37210,7 +37210,7 @@
         </is>
       </c>
       <c r="X448" t="n">
-        <v>0.003182900000012978</v>
+        <v>0.003095099999995909</v>
       </c>
       <c r="Y448" t="n">
         <v>13</v>
@@ -37292,7 +37292,7 @@
         </is>
       </c>
       <c r="X449" t="n">
-        <v>0.00304990000000771</v>
+        <v>0.004414899999972022</v>
       </c>
       <c r="Y449" t="n">
         <v>13</v>
@@ -37374,7 +37374,7 @@
         </is>
       </c>
       <c r="X450" t="n">
-        <v>0.003083100000026207</v>
+        <v>0.003017499999998563</v>
       </c>
       <c r="Y450" t="n">
         <v>13</v>
@@ -37456,7 +37456,7 @@
         </is>
       </c>
       <c r="X451" t="n">
-        <v>0.003776500000014948</v>
+        <v>0.003234099999986029</v>
       </c>
       <c r="Y451" t="n">
         <v>13</v>
@@ -37538,7 +37538,7 @@
         </is>
       </c>
       <c r="X452" t="n">
-        <v>0.003031899999996313</v>
+        <v>0.003865700000005745</v>
       </c>
       <c r="Y452" t="n">
         <v>13</v>
@@ -37620,7 +37620,7 @@
         </is>
       </c>
       <c r="X453" t="n">
-        <v>0.003640000000018517</v>
+        <v>0.00286230000000387</v>
       </c>
       <c r="Y453" t="n">
         <v>12</v>
@@ -37702,7 +37702,7 @@
         </is>
       </c>
       <c r="X454" t="n">
-        <v>0.003003499999977066</v>
+        <v>0.004458799999952134</v>
       </c>
       <c r="Y454" t="n">
         <v>13</v>
@@ -37784,7 +37784,7 @@
         </is>
       </c>
       <c r="X455" t="n">
-        <v>0.003094799999985298</v>
+        <v>0.003089799999997922</v>
       </c>
       <c r="Y455" t="n">
         <v>13</v>
@@ -37866,7 +37866,7 @@
         </is>
       </c>
       <c r="X456" t="n">
-        <v>0.004145800000003419</v>
+        <v>0.003308500000002823</v>
       </c>
       <c r="Y456" t="n">
         <v>13</v>
@@ -37948,7 +37948,7 @@
         </is>
       </c>
       <c r="X457" t="n">
-        <v>0.002649499999961336</v>
+        <v>0.003798300000028121</v>
       </c>
       <c r="Y457" t="n">
         <v>11</v>
@@ -38030,7 +38030,7 @@
         </is>
       </c>
       <c r="X458" t="n">
-        <v>0.002816900000027545</v>
+        <v>0.002497899999980291</v>
       </c>
       <c r="Y458" t="n">
         <v>10</v>
@@ -38112,7 +38112,7 @@
         </is>
       </c>
       <c r="X459" t="n">
-        <v>0.001910399999985657</v>
+        <v>0.002046899999982088</v>
       </c>
       <c r="Y459" t="n">
         <v>8</v>
@@ -38194,7 +38194,7 @@
         </is>
       </c>
       <c r="X460" t="n">
-        <v>0.002057499999978063</v>
+        <v>0.001957000000004427</v>
       </c>
       <c r="Y460" t="n">
         <v>8</v>
@@ -38276,7 +38276,7 @@
         </is>
       </c>
       <c r="X461" t="n">
-        <v>0.002918199999953686</v>
+        <v>0.003195099999970807</v>
       </c>
       <c r="Y461" t="n">
         <v>13</v>
@@ -38358,7 +38358,7 @@
         </is>
       </c>
       <c r="X462" t="n">
-        <v>0.00225710000000845</v>
+        <v>0.002878500000008444</v>
       </c>
       <c r="Y462" t="n">
         <v>9</v>
@@ -38440,7 +38440,7 @@
         </is>
       </c>
       <c r="X463" t="n">
-        <v>0.001826199999982236</v>
+        <v>0.001796200000001136</v>
       </c>
       <c r="Y463" t="n">
         <v>7</v>
@@ -38522,7 +38522,7 @@
         </is>
       </c>
       <c r="X464" t="n">
-        <v>0.002291799999966315</v>
+        <v>0.003245599999956994</v>
       </c>
       <c r="Y464" t="n">
         <v>9</v>
@@ -38604,7 +38604,7 @@
         </is>
       </c>
       <c r="X465" t="n">
-        <v>0.004869600000006358</v>
+        <v>0.002088900000046578</v>
       </c>
       <c r="Y465" t="n">
         <v>9</v>
@@ -38686,7 +38686,7 @@
         </is>
       </c>
       <c r="X466" t="n">
-        <v>0.005493800000010651</v>
+        <v>0.002894599999990533</v>
       </c>
       <c r="Y466" t="n">
         <v>12</v>
@@ -38768,7 +38768,7 @@
         </is>
       </c>
       <c r="X467" t="n">
-        <v>0.00311260000000857</v>
+        <v>0.003063599999961752</v>
       </c>
       <c r="Y467" t="n">
         <v>13</v>
@@ -38850,7 +38850,7 @@
         </is>
       </c>
       <c r="X468" t="n">
-        <v>0.002894700000013017</v>
+        <v>0.0030631999999855</v>
       </c>
       <c r="Y468" t="n">
         <v>12</v>
@@ -38932,7 +38932,7 @@
         </is>
       </c>
       <c r="X469" t="n">
-        <v>0.003443000000004304</v>
+        <v>0.002084799999977349</v>
       </c>
       <c r="Y469" t="n">
         <v>8</v>
@@ -39014,7 +39014,7 @@
         </is>
       </c>
       <c r="X470" t="n">
-        <v>0.00311719999996285</v>
+        <v>0.003227100000003702</v>
       </c>
       <c r="Y470" t="n">
         <v>13</v>
@@ -39096,7 +39096,7 @@
         </is>
       </c>
       <c r="X471" t="n">
-        <v>0.002325100000007296</v>
+        <v>0.002063199999952303</v>
       </c>
       <c r="Y471" t="n">
         <v>8</v>
@@ -39178,7 +39178,7 @@
         </is>
       </c>
       <c r="X472" t="n">
-        <v>0.002963800000031824</v>
+        <v>0.004162099999973634</v>
       </c>
       <c r="Y472" t="n">
         <v>12</v>
@@ -39260,7 +39260,7 @@
         </is>
       </c>
       <c r="X473" t="n">
-        <v>0.002658399999972971</v>
+        <v>0.002756400000009762</v>
       </c>
       <c r="Y473" t="n">
         <v>11</v>
@@ -39342,7 +39342,7 @@
         </is>
       </c>
       <c r="X474" t="n">
-        <v>0.003349499999956151</v>
+        <v>0.002716499999962707</v>
       </c>
       <c r="Y474" t="n">
         <v>11</v>
@@ -39424,7 +39424,7 @@
         </is>
       </c>
       <c r="X475" t="n">
-        <v>0.005051299999990988</v>
+        <v>0.002811699999995199</v>
       </c>
       <c r="Y475" t="n">
         <v>12</v>
@@ -39506,7 +39506,7 @@
         </is>
       </c>
       <c r="X476" t="n">
-        <v>0.002609000000006745</v>
+        <v>0.00256930000000466</v>
       </c>
       <c r="Y476" t="n">
         <v>10</v>
@@ -39588,7 +39588,7 @@
         </is>
       </c>
       <c r="X477" t="n">
-        <v>0.002660200000036639</v>
+        <v>0.002316800000016883</v>
       </c>
       <c r="Y477" t="n">
         <v>10</v>
@@ -39670,7 +39670,7 @@
         </is>
       </c>
       <c r="X478" t="n">
-        <v>0.002163800000005267</v>
+        <v>0.002304900000012822</v>
       </c>
       <c r="Y478" t="n">
         <v>9</v>
@@ -39752,7 +39752,7 @@
         </is>
       </c>
       <c r="X479" t="n">
-        <v>0.00305750000001126</v>
+        <v>0.004082499999981337</v>
       </c>
       <c r="Y479" t="n">
         <v>12</v>
@@ -39834,7 +39834,7 @@
         </is>
       </c>
       <c r="X480" t="n">
-        <v>0.002583200000003671</v>
+        <v>0.002118999999993321</v>
       </c>
       <c r="Y480" t="n">
         <v>9</v>
@@ -39916,7 +39916,7 @@
         </is>
       </c>
       <c r="X481" t="n">
-        <v>0.004792300000019623</v>
+        <v>0.003263000000004013</v>
       </c>
       <c r="Y481" t="n">
         <v>13</v>
@@ -39998,7 +39998,7 @@
         </is>
       </c>
       <c r="X482" t="n">
-        <v>0.002378600000042752</v>
+        <v>0.002346699999975499</v>
       </c>
       <c r="Y482" t="n">
         <v>10</v>
@@ -40080,7 +40080,7 @@
         </is>
       </c>
       <c r="X483" t="n">
-        <v>0.003311199999984638</v>
+        <v>0.003476599999999053</v>
       </c>
       <c r="Y483" t="n">
         <v>14</v>
@@ -40162,7 +40162,7 @@
         </is>
       </c>
       <c r="X484" t="n">
-        <v>0.002071800000010171</v>
+        <v>0.002458100000012564</v>
       </c>
       <c r="Y484" t="n">
         <v>9</v>
@@ -40244,7 +40244,7 @@
         </is>
       </c>
       <c r="X485" t="n">
-        <v>0.003196700000046349</v>
+        <v>0.003115299999990384</v>
       </c>
       <c r="Y485" t="n">
         <v>13</v>
@@ -40326,7 +40326,7 @@
         </is>
       </c>
       <c r="X486" t="n">
-        <v>0.004096299999957864</v>
+        <v>0.002785800000026484</v>
       </c>
       <c r="Y486" t="n">
         <v>11</v>
@@ -40408,7 +40408,7 @@
         </is>
       </c>
       <c r="X487" t="n">
-        <v>0.002358600000036404</v>
+        <v>0.003581800000006297</v>
       </c>
       <c r="Y487" t="n">
         <v>10</v>
@@ -40490,7 +40490,7 @@
         </is>
       </c>
       <c r="X488" t="n">
-        <v>0.00314370000000963</v>
+        <v>0.002036799999984851</v>
       </c>
       <c r="Y488" t="n">
         <v>8</v>
@@ -40572,7 +40572,7 @@
         </is>
       </c>
       <c r="X489" t="n">
-        <v>0.002907699999980196</v>
+        <v>0.003256799999974191</v>
       </c>
       <c r="Y489" t="n">
         <v>11</v>
@@ -40654,7 +40654,7 @@
         </is>
       </c>
       <c r="X490" t="n">
-        <v>0.002325100000007296</v>
+        <v>0.002344300000004296</v>
       </c>
       <c r="Y490" t="n">
         <v>10</v>
@@ -40736,7 +40736,7 @@
         </is>
       </c>
       <c r="X491" t="n">
-        <v>0.003259400000047208</v>
+        <v>0.001985899999965568</v>
       </c>
       <c r="Y491" t="n">
         <v>8</v>
@@ -40818,7 +40818,7 @@
         </is>
       </c>
       <c r="X492" t="n">
-        <v>0.001894600000014179</v>
+        <v>0.001854799999989609</v>
       </c>
       <c r="Y492" t="n">
         <v>8</v>
@@ -40900,7 +40900,7 @@
         </is>
       </c>
       <c r="X493" t="n">
-        <v>0.00334090000001197</v>
+        <v>0.002057699999966189</v>
       </c>
       <c r="Y493" t="n">
         <v>8</v>
@@ -40982,7 +40982,7 @@
         </is>
       </c>
       <c r="X494" t="n">
-        <v>0.002914300000043113</v>
+        <v>0.00418849999999793</v>
       </c>
       <c r="Y494" t="n">
         <v>12</v>
@@ -41064,7 +41064,7 @@
         </is>
       </c>
       <c r="X495" t="n">
-        <v>0.002158899999983532</v>
+        <v>0.002147399999955724</v>
       </c>
       <c r="Y495" t="n">
         <v>9</v>
@@ -41146,7 +41146,7 @@
         </is>
       </c>
       <c r="X496" t="n">
-        <v>0.001896499999986645</v>
+        <v>0.002314599999976963</v>
       </c>
       <c r="Y496" t="n">
         <v>8</v>
@@ -41228,7 +41228,7 @@
         </is>
       </c>
       <c r="X497" t="n">
-        <v>0.001963999999986754</v>
+        <v>0.001870400000029804</v>
       </c>
       <c r="Y497" t="n">
         <v>8</v>
@@ -41310,7 +41310,7 @@
         </is>
       </c>
       <c r="X498" t="n">
-        <v>0.003157700000031127</v>
+        <v>0.003204299999993054</v>
       </c>
       <c r="Y498" t="n">
         <v>13</v>
@@ -41392,7 +41392,7 @@
         </is>
       </c>
       <c r="X499" t="n">
-        <v>0.002223499999956857</v>
+        <v>0.002167499999984557</v>
       </c>
       <c r="Y499" t="n">
         <v>9</v>
@@ -41474,7 +41474,7 @@
         </is>
       </c>
       <c r="X500" t="n">
-        <v>0.003097200000013345</v>
+        <v>0.001944100000002891</v>
       </c>
       <c r="Y500" t="n">
         <v>8</v>
@@ -41556,7 +41556,7 @@
         </is>
       </c>
       <c r="X501" t="n">
-        <v>0.003110499999991134</v>
+        <v>0.003522500000030959</v>
       </c>
       <c r="Y501" t="n">
         <v>11</v>
@@ -41638,7 +41638,7 @@
         </is>
       </c>
       <c r="X502" t="n">
-        <v>0.002177300000028026</v>
+        <v>0.001875700000027791</v>
       </c>
       <c r="Y502" t="n">
         <v>8</v>
@@ -41720,7 +41720,7 @@
         </is>
       </c>
       <c r="X503" t="n">
-        <v>0.002218200000015713</v>
+        <v>0.003712399999983518</v>
       </c>
       <c r="Y503" t="n">
         <v>9</v>
@@ -41802,7 +41802,7 @@
         </is>
       </c>
       <c r="X504" t="n">
-        <v>0.003218900000035774</v>
+        <v>0.003041699999982939</v>
       </c>
       <c r="Y504" t="n">
         <v>13</v>
@@ -41884,7 +41884,7 @@
         </is>
       </c>
       <c r="X505" t="n">
-        <v>0.002829000000019732</v>
+        <v>0.003009300000030635</v>
       </c>
       <c r="Y505" t="n">
         <v>12</v>
@@ -41966,7 +41966,7 @@
         </is>
       </c>
       <c r="X506" t="n">
-        <v>0.002622200000018893</v>
+        <v>0.002341000000001259</v>
       </c>
       <c r="Y506" t="n">
         <v>10</v>
@@ -42048,7 +42048,7 @@
         </is>
       </c>
       <c r="X507" t="n">
-        <v>0.003313300000002073</v>
+        <v>0.002287400000000162</v>
       </c>
       <c r="Y507" t="n">
         <v>9</v>
@@ -42130,7 +42130,7 @@
         </is>
       </c>
       <c r="X508" t="n">
-        <v>0.001893100000017967</v>
+        <v>0.003639700000007906</v>
       </c>
       <c r="Y508" t="n">
         <v>8</v>
@@ -42212,7 +42212,7 @@
         </is>
       </c>
       <c r="X509" t="n">
-        <v>0.002360799999962637</v>
+        <v>0.002072699999985161</v>
       </c>
       <c r="Y509" t="n">
         <v>8</v>
@@ -42294,7 +42294,7 @@
         </is>
       </c>
       <c r="X510" t="n">
-        <v>0.002091299999960938</v>
+        <v>0.002284099999997125</v>
       </c>
       <c r="Y510" t="n">
         <v>9</v>
@@ -42376,7 +42376,7 @@
         </is>
       </c>
       <c r="X511" t="n">
-        <v>0.002601599999991322</v>
+        <v>0.002769400000033784</v>
       </c>
       <c r="Y511" t="n">
         <v>11</v>
@@ -42458,7 +42458,7 @@
         </is>
       </c>
       <c r="X512" t="n">
-        <v>0.001805799999999635</v>
+        <v>0.002022699999997712</v>
       </c>
       <c r="Y512" t="n">
         <v>8</v>
@@ -42540,7 +42540,7 @@
         </is>
       </c>
       <c r="X513" t="n">
-        <v>0.004409199999997782</v>
+        <v>0.003365800000040053</v>
       </c>
       <c r="Y513" t="n">
         <v>9</v>
@@ -42622,7 +42622,7 @@
         </is>
       </c>
       <c r="X514" t="n">
-        <v>0.002423999999962234</v>
+        <v>0.002245200000004388</v>
       </c>
       <c r="Y514" t="n">
         <v>9</v>
@@ -42704,7 +42704,7 @@
         </is>
       </c>
       <c r="X515" t="n">
-        <v>0.00668329999996331</v>
+        <v>0.002328700000020945</v>
       </c>
       <c r="Y515" t="n">
         <v>8</v>
@@ -42786,7 +42786,7 @@
         </is>
       </c>
       <c r="X516" t="n">
-        <v>0.002264099999990776</v>
+        <v>0.001863799999966886</v>
       </c>
       <c r="Y516" t="n">
         <v>8</v>
@@ -42868,7 +42868,7 @@
         </is>
       </c>
       <c r="X517" t="n">
-        <v>0.00316379999998162</v>
+        <v>0.003128800000013143</v>
       </c>
       <c r="Y517" t="n">
         <v>13</v>
@@ -42950,7 +42950,7 @@
         </is>
       </c>
       <c r="X518" t="n">
-        <v>0.002766800000017611</v>
+        <v>0.002096999999992022</v>
       </c>
       <c r="Y518" t="n">
         <v>9</v>
@@ -43032,7 +43032,7 @@
         </is>
       </c>
       <c r="X519" t="n">
-        <v>0.001886099999978796</v>
+        <v>0.002025399999979527</v>
       </c>
       <c r="Y519" t="n">
         <v>8</v>
@@ -43114,7 +43114,7 @@
         </is>
       </c>
       <c r="X520" t="n">
-        <v>0.002651800000023741</v>
+        <v>0.004409600000030878</v>
       </c>
       <c r="Y520" t="n">
         <v>11</v>
@@ -43196,7 +43196,7 @@
         </is>
       </c>
       <c r="X521" t="n">
-        <v>0.002498500000001513</v>
+        <v>0.002437900000018089</v>
       </c>
       <c r="Y521" t="n">
         <v>10</v>
@@ -43278,7 +43278,7 @@
         </is>
       </c>
       <c r="X522" t="n">
-        <v>0.001927300000033938</v>
+        <v>0.002103900000008707</v>
       </c>
       <c r="Y522" t="n">
         <v>8</v>
@@ -43360,7 +43360,7 @@
         </is>
       </c>
       <c r="X523" t="n">
-        <v>0.00455579999999145</v>
+        <v>0.003026799999986451</v>
       </c>
       <c r="Y523" t="n">
         <v>13</v>
@@ -43442,7 +43442,7 @@
         </is>
       </c>
       <c r="X524" t="n">
-        <v>0.002120499999989534</v>
+        <v>0.002299199999981738</v>
       </c>
       <c r="Y524" t="n">
         <v>9</v>
@@ -43524,7 +43524,7 @@
         </is>
       </c>
       <c r="X525" t="n">
-        <v>0.002304400000014084</v>
+        <v>0.002490500000021711</v>
       </c>
       <c r="Y525" t="n">
         <v>8</v>
@@ -43606,7 +43606,7 @@
         </is>
       </c>
       <c r="X526" t="n">
-        <v>0.002428199999997105</v>
+        <v>0.002501600000016424</v>
       </c>
       <c r="Y526" t="n">
         <v>10</v>
@@ -43688,7 +43688,7 @@
         </is>
       </c>
       <c r="X527" t="n">
-        <v>0.002894099999991795</v>
+        <v>0.003350399999987985</v>
       </c>
       <c r="Y527" t="n">
         <v>12</v>
@@ -43770,7 +43770,7 @@
         </is>
       </c>
       <c r="X528" t="n">
-        <v>0.002229399999976067</v>
+        <v>0.002219300000035673</v>
       </c>
       <c r="Y528" t="n">
         <v>9</v>
@@ -43852,7 +43852,7 @@
         </is>
       </c>
       <c r="X529" t="n">
-        <v>0.002610699999991084</v>
+        <v>0.002663799999993444</v>
       </c>
       <c r="Y529" t="n">
         <v>11</v>
@@ -43934,7 +43934,7 @@
         </is>
       </c>
       <c r="X530" t="n">
-        <v>0.003445200000044224</v>
+        <v>0.002294199999994362</v>
       </c>
       <c r="Y530" t="n">
         <v>10</v>
@@ -44016,7 +44016,7 @@
         </is>
       </c>
       <c r="X531" t="n">
-        <v>0.003138900000010381</v>
+        <v>0.003117200000019693</v>
       </c>
       <c r="Y531" t="n">
         <v>13</v>
@@ -44098,7 +44098,7 @@
         </is>
       </c>
       <c r="X532" t="n">
-        <v>0.002854300000024068</v>
+        <v>0.005002699999977267</v>
       </c>
       <c r="Y532" t="n">
         <v>11</v>
@@ -44180,7 +44180,7 @@
         </is>
       </c>
       <c r="X533" t="n">
-        <v>0.004239299999994728</v>
+        <v>0.003062699999986762</v>
       </c>
       <c r="Y533" t="n">
         <v>13</v>
@@ -44262,7 +44262,7 @@
         </is>
       </c>
       <c r="X534" t="n">
-        <v>0.002842900000018744</v>
+        <v>0.002933499999983269</v>
       </c>
       <c r="Y534" t="n">
         <v>12</v>
@@ -44344,7 +44344,7 @@
         </is>
       </c>
       <c r="X535" t="n">
-        <v>0.003321500000026845</v>
+        <v>0.004532099999948969</v>
       </c>
       <c r="Y535" t="n">
         <v>12</v>
@@ -44426,7 +44426,7 @@
         </is>
       </c>
       <c r="X536" t="n">
-        <v>0.001908500000013191</v>
+        <v>0.001912900000036188</v>
       </c>
       <c r="Y536" t="n">
         <v>8</v>
@@ -44508,7 +44508,7 @@
         </is>
       </c>
       <c r="X537" t="n">
-        <v>0.002340000000003783</v>
+        <v>0.002268800000024385</v>
       </c>
       <c r="Y537" t="n">
         <v>9</v>
@@ -44590,7 +44590,7 @@
         </is>
       </c>
       <c r="X538" t="n">
-        <v>0.002581700000007459</v>
+        <v>0.002565899999979138</v>
       </c>
       <c r="Y538" t="n">
         <v>11</v>
@@ -44672,7 +44672,7 @@
         </is>
       </c>
       <c r="X539" t="n">
-        <v>0.003197300000010728</v>
+        <v>0.003155800000001818</v>
       </c>
       <c r="Y539" t="n">
         <v>13</v>
@@ -44754,7 +44754,7 @@
         </is>
       </c>
       <c r="X540" t="n">
-        <v>0.00407549999999901</v>
+        <v>0.003527099999985239</v>
       </c>
       <c r="Y540" t="n">
         <v>11</v>
@@ -44836,7 +44836,7 @@
         </is>
       </c>
       <c r="X541" t="n">
-        <v>0.002192499999978281</v>
+        <v>0.002180700000053548</v>
       </c>
       <c r="Y541" t="n">
         <v>9</v>
@@ -44918,7 +44918,7 @@
         </is>
       </c>
       <c r="X542" t="n">
-        <v>0.002553300000045056</v>
+        <v>0.002830200000005334</v>
       </c>
       <c r="Y542" t="n">
         <v>10</v>
@@ -45000,7 +45000,7 @@
         </is>
       </c>
       <c r="X543" t="n">
-        <v>0.001972200000011526</v>
+        <v>0.00187740000001213</v>
       </c>
       <c r="Y543" t="n">
         <v>8</v>
@@ -45082,7 +45082,7 @@
         </is>
       </c>
       <c r="X544" t="n">
-        <v>0.003024600000003375</v>
+        <v>0.002887799999996332</v>
       </c>
       <c r="Y544" t="n">
         <v>12</v>
@@ -45164,7 +45164,7 @@
         </is>
       </c>
       <c r="X545" t="n">
-        <v>0.001928300000031413</v>
+        <v>0.002081300000043029</v>
       </c>
       <c r="Y545" t="n">
         <v>8</v>
@@ -45246,7 +45246,7 @@
         </is>
       </c>
       <c r="X546" t="n">
-        <v>0.002190400000017689</v>
+        <v>0.002195900000003803</v>
       </c>
       <c r="Y546" t="n">
         <v>9</v>
@@ -45328,7 +45328,7 @@
         </is>
       </c>
       <c r="X547" t="n">
-        <v>0.003644299999962186</v>
+        <v>0.001918600000010429</v>
       </c>
       <c r="Y547" t="n">
         <v>8</v>
@@ -45410,7 +45410,7 @@
         </is>
       </c>
       <c r="X548" t="n">
-        <v>0.002325900000016645</v>
+        <v>0.002433300000006966</v>
       </c>
       <c r="Y548" t="n">
         <v>10</v>
@@ -45492,7 +45492,7 @@
         </is>
       </c>
       <c r="X549" t="n">
-        <v>0.003367099999991296</v>
+        <v>0.003052800000034495</v>
       </c>
       <c r="Y549" t="n">
         <v>11</v>
@@ -45574,7 +45574,7 @@
         </is>
       </c>
       <c r="X550" t="n">
-        <v>0.002820599999949991</v>
+        <v>0.002679600000021765</v>
       </c>
       <c r="Y550" t="n">
         <v>11</v>
@@ -45656,7 +45656,7 @@
         </is>
       </c>
       <c r="X551" t="n">
-        <v>0.002881300000012743</v>
+        <v>0.002888900000016292</v>
       </c>
       <c r="Y551" t="n">
         <v>12</v>
@@ -45738,7 +45738,7 @@
         </is>
       </c>
       <c r="X552" t="n">
-        <v>0.00417410000000018</v>
+        <v>0.002126999999973123</v>
       </c>
       <c r="Y552" t="n">
         <v>9</v>
@@ -45820,7 +45820,7 @@
         </is>
       </c>
       <c r="X553" t="n">
-        <v>0.002045699999996486</v>
+        <v>0.001971900000000915</v>
       </c>
       <c r="Y553" t="n">
         <v>8</v>
@@ -45902,7 +45902,7 @@
         </is>
       </c>
       <c r="X554" t="n">
-        <v>0.002920599999981732</v>
+        <v>0.004119900000034704</v>
       </c>
       <c r="Y554" t="n">
         <v>11</v>
@@ -45984,7 +45984,7 @@
         </is>
       </c>
       <c r="X555" t="n">
-        <v>0.004862000000002809</v>
+        <v>0.002837900000031368</v>
       </c>
       <c r="Y555" t="n">
         <v>12</v>
@@ -46066,7 +46066,7 @@
         </is>
       </c>
       <c r="X556" t="n">
-        <v>0.00217800000001489</v>
+        <v>0.002408300000013242</v>
       </c>
       <c r="Y556" t="n">
         <v>9</v>
@@ -46148,7 +46148,7 @@
         </is>
       </c>
       <c r="X557" t="n">
-        <v>0.002497500000004038</v>
+        <v>0.001959999999996853</v>
       </c>
       <c r="Y557" t="n">
         <v>8</v>
@@ -46230,7 +46230,7 @@
         </is>
       </c>
       <c r="X558" t="n">
-        <v>0.002870400000006157</v>
+        <v>0.003015699999991739</v>
       </c>
       <c r="Y558" t="n">
         <v>11</v>
@@ -46312,7 +46312,7 @@
         </is>
       </c>
       <c r="X559" t="n">
-        <v>0.003003100000000813</v>
+        <v>0.005291099999965354</v>
       </c>
       <c r="Y559" t="n">
         <v>11</v>
@@ -46394,7 +46394,7 @@
         </is>
       </c>
       <c r="X560" t="n">
-        <v>0.003596800000025269</v>
+        <v>0.003038100000026134</v>
       </c>
       <c r="Y560" t="n">
         <v>13</v>
@@ -46476,7 +46476,7 @@
         </is>
       </c>
       <c r="X561" t="n">
-        <v>0.003429699999969671</v>
+        <v>0.003494999999986703</v>
       </c>
       <c r="Y561" t="n">
         <v>13</v>
@@ -46558,7 +46558,7 @@
         </is>
       </c>
       <c r="X562" t="n">
-        <v>0.001985799999999927</v>
+        <v>0.002742899999987003</v>
       </c>
       <c r="Y562" t="n">
         <v>8</v>
@@ -46640,7 +46640,7 @@
         </is>
       </c>
       <c r="X563" t="n">
-        <v>0.00324009999997088</v>
+        <v>0.002002099999970142</v>
       </c>
       <c r="Y563" t="n">
         <v>8</v>
@@ -46722,7 +46722,7 @@
         </is>
       </c>
       <c r="X564" t="n">
-        <v>0.004486099999951421</v>
+        <v>0.005201400000032663</v>
       </c>
       <c r="Y564" t="n">
         <v>12</v>
@@ -46804,7 +46804,7 @@
         </is>
       </c>
       <c r="X565" t="n">
-        <v>0.003101500000013857</v>
+        <v>0.002511799999979303</v>
       </c>
       <c r="Y565" t="n">
         <v>10</v>
@@ -46886,7 +46886,7 @@
         </is>
       </c>
       <c r="X566" t="n">
-        <v>0.003043600000012248</v>
+        <v>0.00317560000002004</v>
       </c>
       <c r="Y566" t="n">
         <v>13</v>
@@ -46968,7 +46968,7 @@
         </is>
       </c>
       <c r="X567" t="n">
-        <v>0.004442200000028151</v>
+        <v>0.004103499999985161</v>
       </c>
       <c r="Y567" t="n">
         <v>12</v>
@@ -47050,7 +47050,7 @@
         </is>
       </c>
       <c r="X568" t="n">
-        <v>0.002050399999973251</v>
+        <v>0.001952200000005178</v>
       </c>
       <c r="Y568" t="n">
         <v>8</v>
@@ -47132,7 +47132,7 @@
         </is>
       </c>
       <c r="X569" t="n">
-        <v>0.002392200000031153</v>
+        <v>0.002719200000001365</v>
       </c>
       <c r="Y569" t="n">
         <v>10</v>
@@ -47214,7 +47214,7 @@
         </is>
       </c>
       <c r="X570" t="n">
-        <v>0.002382000000011431</v>
+        <v>0.002321999999992386</v>
       </c>
       <c r="Y570" t="n">
         <v>10</v>
@@ -47296,7 +47296,7 @@
         </is>
       </c>
       <c r="X571" t="n">
-        <v>0.002833300000020245</v>
+        <v>0.00287410000004229</v>
       </c>
       <c r="Y571" t="n">
         <v>11</v>
@@ -47378,7 +47378,7 @@
         </is>
       </c>
       <c r="X572" t="n">
-        <v>0.003649399999972047</v>
+        <v>0.00359949999995024</v>
       </c>
       <c r="Y572" t="n">
         <v>10</v>
@@ -47460,7 +47460,7 @@
         </is>
       </c>
       <c r="X573" t="n">
-        <v>0.003034399999990001</v>
+        <v>0.002792999999996937</v>
       </c>
       <c r="Y573" t="n">
         <v>12</v>
@@ -47542,7 +47542,7 @@
         </is>
       </c>
       <c r="X574" t="n">
-        <v>0.00300550000002886</v>
+        <v>0.002571600000010221</v>
       </c>
       <c r="Y574" t="n">
         <v>10</v>
@@ -47624,7 +47624,7 @@
         </is>
       </c>
       <c r="X575" t="n">
-        <v>0.004381599999987884</v>
+        <v>0.002188600000010865</v>
       </c>
       <c r="Y575" t="n">
         <v>9</v>
@@ -47706,7 +47706,7 @@
         </is>
       </c>
       <c r="X576" t="n">
-        <v>0.002554400000008172</v>
+        <v>0.002363000000002557</v>
       </c>
       <c r="Y576" t="n">
         <v>10</v>
@@ -47788,7 +47788,7 @@
         </is>
       </c>
       <c r="X577" t="n">
-        <v>0.002739899999994577</v>
+        <v>0.002800600000000486</v>
       </c>
       <c r="Y577" t="n">
         <v>9</v>
@@ -47870,7 +47870,7 @@
         </is>
       </c>
       <c r="X578" t="n">
-        <v>0.002203700000052322</v>
+        <v>0.002180799999962346</v>
       </c>
       <c r="Y578" t="n">
         <v>9</v>
@@ -47952,7 +47952,7 @@
         </is>
       </c>
       <c r="X579" t="n">
-        <v>0.001957599999968807</v>
+        <v>0.002561000000014246</v>
       </c>
       <c r="Y579" t="n">
         <v>8</v>
@@ -48034,7 +48034,7 @@
         </is>
       </c>
       <c r="X580" t="n">
-        <v>0.005440800000030777</v>
+        <v>0.002818699999977525</v>
       </c>
       <c r="Y580" t="n">
         <v>12</v>
@@ -48116,7 +48116,7 @@
         </is>
       </c>
       <c r="X581" t="n">
-        <v>0.002425200000004679</v>
+        <v>0.002321800000004259</v>
       </c>
       <c r="Y581" t="n">
         <v>9</v>
@@ -48198,7 +48198,7 @@
         </is>
       </c>
       <c r="X582" t="n">
-        <v>0.0024670000000242</v>
+        <v>0.003321100000050592</v>
       </c>
       <c r="Y582" t="n">
         <v>9</v>
@@ -48280,7 +48280,7 @@
         </is>
       </c>
       <c r="X583" t="n">
-        <v>0.002197300000034375</v>
+        <v>0.002140600000018367</v>
       </c>
       <c r="Y583" t="n">
         <v>9</v>
@@ -48362,7 +48362,7 @@
         </is>
       </c>
       <c r="X584" t="n">
-        <v>0.002020099999981539</v>
+        <v>0.002081199999963701</v>
       </c>
       <c r="Y584" t="n">
         <v>8</v>
@@ -48444,7 +48444,7 @@
         </is>
       </c>
       <c r="X585" t="n">
-        <v>0.003909299999975246</v>
+        <v>0.002300800000000436</v>
       </c>
       <c r="Y585" t="n">
         <v>9</v>
@@ -48526,7 +48526,7 @@
         </is>
       </c>
       <c r="X586" t="n">
-        <v>0.001937100000020564</v>
+        <v>0.002222099999983129</v>
       </c>
       <c r="Y586" t="n">
         <v>8</v>
@@ -48608,7 +48608,7 @@
         </is>
       </c>
       <c r="X587" t="n">
-        <v>0.00338350000004084</v>
+        <v>0.003855900000019119</v>
       </c>
       <c r="Y587" t="n">
         <v>13</v>
@@ -48690,7 +48690,7 @@
         </is>
       </c>
       <c r="X588" t="n">
-        <v>0.004009600000017599</v>
+        <v>0.002418400000010479</v>
       </c>
       <c r="Y588" t="n">
         <v>10</v>
@@ -48772,7 +48772,7 @@
         </is>
       </c>
       <c r="X589" t="n">
-        <v>0.002397700000017267</v>
+        <v>0.003353399999980411</v>
       </c>
       <c r="Y589" t="n">
         <v>10</v>
@@ -48854,7 +48854,7 @@
         </is>
       </c>
       <c r="X590" t="n">
-        <v>0.002905299999952149</v>
+        <v>0.002886999999986983</v>
       </c>
       <c r="Y590" t="n">
         <v>12</v>
@@ -48936,7 +48936,7 @@
         </is>
       </c>
       <c r="X591" t="n">
-        <v>0.00212770000001683</v>
+        <v>0.002312399999993886</v>
       </c>
       <c r="Y591" t="n">
         <v>9</v>
@@ -49018,7 +49018,7 @@
         </is>
       </c>
       <c r="X592" t="n">
-        <v>0.001970499999970343</v>
+        <v>0.001917699999978595</v>
       </c>
       <c r="Y592" t="n">
         <v>8</v>
@@ -49100,7 +49100,7 @@
         </is>
       </c>
       <c r="X593" t="n">
-        <v>0.001912500000003092</v>
+        <v>0.00199720000000525</v>
       </c>
       <c r="Y593" t="n">
         <v>8</v>
@@ -49182,7 +49182,7 @@
         </is>
       </c>
       <c r="X594" t="n">
-        <v>0.002219900000000052</v>
+        <v>0.003835400000014033</v>
       </c>
       <c r="Y594" t="n">
         <v>9</v>
@@ -49264,7 +49264,7 @@
         </is>
       </c>
       <c r="X595" t="n">
-        <v>0.004009700000040084</v>
+        <v>0.002913500000033764</v>
       </c>
       <c r="Y595" t="n">
         <v>12</v>
@@ -49346,7 +49346,7 @@
         </is>
       </c>
       <c r="X596" t="n">
-        <v>0.002252999999996064</v>
+        <v>0.002599799999984498</v>
       </c>
       <c r="Y596" t="n">
         <v>10</v>
@@ -49428,7 +49428,7 @@
         </is>
       </c>
       <c r="X597" t="n">
-        <v>0.003393700000003719</v>
+        <v>0.003094199999964076</v>
       </c>
       <c r="Y597" t="n">
         <v>13</v>
@@ -49510,7 +49510,7 @@
         </is>
       </c>
       <c r="X598" t="n">
-        <v>0.001740199999971992</v>
+        <v>0.001818000000014308</v>
       </c>
       <c r="Y598" t="n">
         <v>7</v>
@@ -49592,7 +49592,7 @@
         </is>
       </c>
       <c r="X599" t="n">
-        <v>0.003106000000002496</v>
+        <v>0.004078899999967689</v>
       </c>
       <c r="Y599" t="n">
         <v>13</v>
@@ -49674,7 +49674,7 @@
         </is>
       </c>
       <c r="X600" t="n">
-        <v>0.004389099999968948</v>
+        <v>0.003195600000026388</v>
       </c>
       <c r="Y600" t="n">
         <v>13</v>
@@ -49756,7 +49756,7 @@
         </is>
       </c>
       <c r="X601" t="n">
-        <v>0.002645799999982046</v>
+        <v>0.003007200000013199</v>
       </c>
       <c r="Y601" t="n">
         <v>11</v>
@@ -49838,7 +49838,7 @@
         </is>
       </c>
       <c r="X602" t="n">
-        <v>0.003426200000035351</v>
+        <v>0.003030700000010711</v>
       </c>
       <c r="Y602" t="n">
         <v>13</v>
@@ -49920,7 +49920,7 @@
         </is>
       </c>
       <c r="X603" t="n">
-        <v>0.001887899999985621</v>
+        <v>0.001971800000035273</v>
       </c>
       <c r="Y603" t="n">
         <v>8</v>
@@ -50002,7 +50002,7 @@
         </is>
       </c>
       <c r="X604" t="n">
-        <v>0.001963499999988016</v>
+        <v>0.002614500000049702</v>
       </c>
       <c r="Y604" t="n">
         <v>8</v>
@@ -50084,7 +50084,7 @@
         </is>
       </c>
       <c r="X605" t="n">
-        <v>0.001858699999957025</v>
+        <v>0.001945700000021588</v>
       </c>
       <c r="Y605" t="n">
         <v>8</v>
@@ -50166,7 +50166,7 @@
         </is>
       </c>
       <c r="X606" t="n">
-        <v>0.002428699999995843</v>
+        <v>0.003911200000004555</v>
       </c>
       <c r="Y606" t="n">
         <v>10</v>
@@ -50248,7 +50248,7 @@
         </is>
       </c>
       <c r="X607" t="n">
-        <v>0.004211499999996704</v>
+        <v>0.002831600000035905</v>
       </c>
       <c r="Y607" t="n">
         <v>12</v>
@@ -50330,7 +50330,7 @@
         </is>
       </c>
       <c r="X608" t="n">
-        <v>0.002756499999975404</v>
+        <v>0.002978000000041447</v>
       </c>
       <c r="Y608" t="n">
         <v>12</v>
@@ -50412,7 +50412,7 @@
         </is>
       </c>
       <c r="X609" t="n">
-        <v>0.002212799999995241</v>
+        <v>0.001894800000002306</v>
       </c>
       <c r="Y609" t="n">
         <v>8</v>
@@ -50494,7 +50494,7 @@
         </is>
       </c>
       <c r="X610" t="n">
-        <v>0.002650099999982558</v>
+        <v>0.002428000000008979</v>
       </c>
       <c r="Y610" t="n">
         <v>10</v>
@@ -50576,7 +50576,7 @@
         </is>
       </c>
       <c r="X611" t="n">
-        <v>0.00231899999999996</v>
+        <v>0.003186199999959172</v>
       </c>
       <c r="Y611" t="n">
         <v>8</v>
@@ -50658,7 +50658,7 @@
         </is>
       </c>
       <c r="X612" t="n">
-        <v>0.001927000000023327</v>
+        <v>0.001943400000016027</v>
       </c>
       <c r="Y612" t="n">
         <v>8</v>
@@ -50740,7 +50740,7 @@
         </is>
       </c>
       <c r="X613" t="n">
-        <v>0.001994799999977204</v>
+        <v>0.002367100000014943</v>
       </c>
       <c r="Y613" t="n">
         <v>8</v>
@@ -50822,7 +50822,7 @@
         </is>
       </c>
       <c r="X614" t="n">
-        <v>0.003047100000003411</v>
+        <v>0.002999199999976554</v>
       </c>
       <c r="Y614" t="n">
         <v>13</v>
@@ -50904,7 +50904,7 @@
         </is>
       </c>
       <c r="X615" t="n">
-        <v>0.002434099999959471</v>
+        <v>0.002212600000007114</v>
       </c>
       <c r="Y615" t="n">
         <v>9</v>
@@ -50986,7 +50986,7 @@
         </is>
       </c>
       <c r="X616" t="n">
-        <v>0.003614299999981085</v>
+        <v>0.00218080000001919</v>
       </c>
       <c r="Y616" t="n">
         <v>9</v>
@@ -51068,7 +51068,7 @@
         </is>
       </c>
       <c r="X617" t="n">
-        <v>0.001951999999960208</v>
+        <v>0.00199040000001105</v>
       </c>
       <c r="Y617" t="n">
         <v>8</v>
@@ -51150,7 +51150,7 @@
         </is>
       </c>
       <c r="X618" t="n">
-        <v>0.002676300000018728</v>
+        <v>0.004567199999996774</v>
       </c>
       <c r="Y618" t="n">
         <v>8</v>
@@ -51232,7 +51232,7 @@
         </is>
       </c>
       <c r="X619" t="n">
-        <v>0.002791300000012598</v>
+        <v>0.002556099999992512</v>
       </c>
       <c r="Y619" t="n">
         <v>11</v>
@@ -51314,7 +51314,7 @@
         </is>
       </c>
       <c r="X620" t="n">
-        <v>0.002442700000017339</v>
+        <v>0.002456700000038836</v>
       </c>
       <c r="Y620" t="n">
         <v>10</v>
@@ -51396,7 +51396,7 @@
         </is>
       </c>
       <c r="X621" t="n">
-        <v>0.002382299999965198</v>
+        <v>0.002296599999965565</v>
       </c>
       <c r="Y621" t="n">
         <v>10</v>
@@ -51478,7 +51478,7 @@
         </is>
       </c>
       <c r="X622" t="n">
-        <v>0.002181500000006054</v>
+        <v>0.002264800000034484</v>
       </c>
       <c r="Y622" t="n">
         <v>9</v>
@@ -51560,7 +51560,7 @@
         </is>
       </c>
       <c r="X623" t="n">
-        <v>0.004301399999974365</v>
+        <v>0.004093199999999797</v>
       </c>
       <c r="Y623" t="n">
         <v>11</v>
@@ -51642,7 +51642,7 @@
         </is>
       </c>
       <c r="X624" t="n">
-        <v>0.002278200000034758</v>
+        <v>0.002073999999993248</v>
       </c>
       <c r="Y624" t="n">
         <v>9</v>
@@ -51724,7 +51724,7 @@
         </is>
       </c>
       <c r="X625" t="n">
-        <v>0.002278100000012273</v>
+        <v>0.002254900000025373</v>
       </c>
       <c r="Y625" t="n">
         <v>9</v>
@@ -51806,7 +51806,7 @@
         </is>
       </c>
       <c r="X626" t="n">
-        <v>0.002251900000032947</v>
+        <v>0.002129500000023654</v>
       </c>
       <c r="Y626" t="n">
         <v>9</v>
@@ -51888,7 +51888,7 @@
         </is>
       </c>
       <c r="X627" t="n">
-        <v>0.002215799999987667</v>
+        <v>0.002206800000010389</v>
       </c>
       <c r="Y627" t="n">
         <v>9</v>
@@ -51970,7 +51970,7 @@
         </is>
       </c>
       <c r="X628" t="n">
-        <v>0.005114799999944353</v>
+        <v>0.002583899999990535</v>
       </c>
       <c r="Y628" t="n">
         <v>11</v>
@@ -52052,7 +52052,7 @@
         </is>
       </c>
       <c r="X629" t="n">
-        <v>0.002905500000053962</v>
+        <v>0.002920399999993606</v>
       </c>
       <c r="Y629" t="n">
         <v>12</v>
@@ -52134,7 +52134,7 @@
         </is>
       </c>
       <c r="X630" t="n">
-        <v>0.002017099999989114</v>
+        <v>0.002905399999974634</v>
       </c>
       <c r="Y630" t="n">
         <v>8</v>
@@ -52216,7 +52216,7 @@
         </is>
       </c>
       <c r="X631" t="n">
-        <v>0.002732300000047871</v>
+        <v>0.002227800000014213</v>
       </c>
       <c r="Y631" t="n">
         <v>9</v>
@@ -52298,7 +52298,7 @@
         </is>
       </c>
       <c r="X632" t="n">
-        <v>0.004878299999973024</v>
+        <v>0.002933499999983269</v>
       </c>
       <c r="Y632" t="n">
         <v>12</v>
@@ -52380,7 +52380,7 @@
         </is>
       </c>
       <c r="X633" t="n">
-        <v>0.002686799999992218</v>
+        <v>0.002567899999974088</v>
       </c>
       <c r="Y633" t="n">
         <v>11</v>
@@ -52462,7 +52462,7 @@
         </is>
       </c>
       <c r="X634" t="n">
-        <v>0.004614000000003671</v>
+        <v>0.003114400000015394</v>
       </c>
       <c r="Y634" t="n">
         <v>13</v>
@@ -52544,7 +52544,7 @@
         </is>
       </c>
       <c r="X635" t="n">
-        <v>0.002210999999988417</v>
+        <v>0.003316700000027595</v>
       </c>
       <c r="Y635" t="n">
         <v>8</v>
@@ -52626,7 +52626,7 @@
         </is>
       </c>
       <c r="X636" t="n">
-        <v>0.002456499999993866</v>
+        <v>0.002482700000030036</v>
       </c>
       <c r="Y636" t="n">
         <v>10</v>
@@ -52708,7 +52708,7 @@
         </is>
       </c>
       <c r="X637" t="n">
-        <v>0.01238260000002356</v>
+        <v>0.002307999999970889</v>
       </c>
       <c r="Y637" t="n">
         <v>9</v>
@@ -52790,7 +52790,7 @@
         </is>
       </c>
       <c r="X638" t="n">
-        <v>0.002240799999981391</v>
+        <v>0.00200680000000375</v>
       </c>
       <c r="Y638" t="n">
         <v>8</v>
@@ -52872,7 +52872,7 @@
         </is>
       </c>
       <c r="X639" t="n">
-        <v>0.002901199999996606</v>
+        <v>0.003018699999984165</v>
       </c>
       <c r="Y639" t="n">
         <v>12</v>
@@ -52954,7 +52954,7 @@
         </is>
       </c>
       <c r="X640" t="n">
-        <v>0.002739800000028936</v>
+        <v>0.002819700000031844</v>
       </c>
       <c r="Y640" t="n">
         <v>11</v>
@@ -53036,7 +53036,7 @@
         </is>
       </c>
       <c r="X641" t="n">
-        <v>0.003169099999979608</v>
+        <v>0.00314960000002884</v>
       </c>
       <c r="Y641" t="n">
         <v>13</v>
@@ -53118,7 +53118,7 @@
         </is>
       </c>
       <c r="X642" t="n">
-        <v>0.006078999999999724</v>
+        <v>0.002580000000023119</v>
       </c>
       <c r="Y642" t="n">
         <v>10</v>
@@ -53200,7 +53200,7 @@
         </is>
       </c>
       <c r="X643" t="n">
-        <v>0.003203000000041811</v>
+        <v>0.003084699999988061</v>
       </c>
       <c r="Y643" t="n">
         <v>13</v>
@@ -53282,7 +53282,7 @@
         </is>
       </c>
       <c r="X644" t="n">
-        <v>0.002436399999965033</v>
+        <v>0.00304900000003272</v>
       </c>
       <c r="Y644" t="n">
         <v>9</v>
@@ -53364,7 +53364,7 @@
         </is>
       </c>
       <c r="X645" t="n">
-        <v>0.006460199999992255</v>
+        <v>0.006026499999961743</v>
       </c>
       <c r="Y645" t="n">
         <v>11</v>
@@ -53446,7 +53446,7 @@
         </is>
       </c>
       <c r="X646" t="n">
-        <v>0.002208799999948496</v>
+        <v>0.002221899999995003</v>
       </c>
       <c r="Y646" t="n">
         <v>9</v>
@@ -53528,7 +53528,7 @@
         </is>
       </c>
       <c r="X647" t="n">
-        <v>0.002728300000001127</v>
+        <v>0.003085699999985536</v>
       </c>
       <c r="Y647" t="n">
         <v>11</v>
@@ -53610,7 +53610,7 @@
         </is>
       </c>
       <c r="X648" t="n">
-        <v>0.004778499999986252</v>
+        <v>0.003081400000041867</v>
       </c>
       <c r="Y648" t="n">
         <v>11</v>
@@ -53692,7 +53692,7 @@
         </is>
       </c>
       <c r="X649" t="n">
-        <v>0.002349500000036642</v>
+        <v>0.002466099999992366</v>
       </c>
       <c r="Y649" t="n">
         <v>9</v>
@@ -53774,7 +53774,7 @@
         </is>
       </c>
       <c r="X650" t="n">
-        <v>0.002374499999973523</v>
+        <v>0.00225319999998419</v>
       </c>
       <c r="Y650" t="n">
         <v>8</v>
@@ -53856,7 +53856,7 @@
         </is>
       </c>
       <c r="X651" t="n">
-        <v>0.00212659999999687</v>
+        <v>0.003675099999952636</v>
       </c>
       <c r="Y651" t="n">
         <v>9</v>
@@ -53938,7 +53938,7 @@
         </is>
       </c>
       <c r="X652" t="n">
-        <v>0.00308570000004238</v>
+        <v>0.002719399999989491</v>
       </c>
       <c r="Y652" t="n">
         <v>11</v>
@@ -54020,7 +54020,7 @@
         </is>
       </c>
       <c r="X653" t="n">
-        <v>0.003555199999993874</v>
+        <v>0.003604499999994459</v>
       </c>
       <c r="Y653" t="n">
         <v>13</v>
@@ -54102,7 +54102,7 @@
         </is>
       </c>
       <c r="X654" t="n">
-        <v>0.003748200000018187</v>
+        <v>0.006426999999973759</v>
       </c>
       <c r="Y654" t="n">
         <v>11</v>
@@ -54184,7 +54184,7 @@
         </is>
       </c>
       <c r="X655" t="n">
-        <v>0.001917899999966721</v>
+        <v>0.002029699999980039</v>
       </c>
       <c r="Y655" t="n">
         <v>8</v>
@@ -54266,7 +54266,7 @@
         </is>
       </c>
       <c r="X656" t="n">
-        <v>0.003851600000018607</v>
+        <v>0.003628400000025067</v>
       </c>
       <c r="Y656" t="n">
         <v>12</v>
@@ -54348,7 +54348,7 @@
         </is>
       </c>
       <c r="X657" t="n">
-        <v>0.003309600000022783</v>
+        <v>0.004345999999998185</v>
       </c>
       <c r="Y657" t="n">
         <v>14</v>
@@ -54430,7 +54430,7 @@
         </is>
       </c>
       <c r="X658" t="n">
-        <v>0.002246900000045571</v>
+        <v>0.002185600000018439</v>
       </c>
       <c r="Y658" t="n">
         <v>8</v>
@@ -54512,7 +54512,7 @@
         </is>
       </c>
       <c r="X659" t="n">
-        <v>0.002349100000003546</v>
+        <v>0.003056000000015047</v>
       </c>
       <c r="Y659" t="n">
         <v>10</v>
@@ -54594,7 +54594,7 @@
         </is>
       </c>
       <c r="X660" t="n">
-        <v>0.002946400000041649</v>
+        <v>0.003599600000029568</v>
       </c>
       <c r="Y660" t="n">
         <v>12</v>
@@ -54676,7 +54676,7 @@
         </is>
       </c>
       <c r="X661" t="n">
-        <v>0.003590900000006059</v>
+        <v>0.003697999999985768</v>
       </c>
       <c r="Y661" t="n">
         <v>12</v>
@@ -54758,7 +54758,7 @@
         </is>
       </c>
       <c r="X662" t="n">
-        <v>0.002356999999960863</v>
+        <v>0.002658400000029815</v>
       </c>
       <c r="Y662" t="n">
         <v>9</v>
@@ -54840,7 +54840,7 @@
         </is>
       </c>
       <c r="X663" t="n">
-        <v>0.002175000000022465</v>
+        <v>0.002059299999984887</v>
       </c>
       <c r="Y663" t="n">
         <v>8</v>
@@ -54922,7 +54922,7 @@
         </is>
       </c>
       <c r="X664" t="n">
-        <v>0.002524600000015198</v>
+        <v>0.003778900000042995</v>
       </c>
       <c r="Y664" t="n">
         <v>10</v>
@@ -55004,7 +55004,7 @@
         </is>
       </c>
       <c r="X665" t="n">
-        <v>0.00381550000003017</v>
+        <v>0.00679629999996223</v>
       </c>
       <c r="Y665" t="n">
         <v>11</v>
@@ -55086,7 +55086,7 @@
         </is>
       </c>
       <c r="X666" t="n">
-        <v>0.002833299999963401</v>
+        <v>0.004281499999990501</v>
       </c>
       <c r="Y666" t="n">
         <v>9</v>
@@ -55168,7 +55168,7 @@
         </is>
       </c>
       <c r="X667" t="n">
-        <v>0.002283200000022134</v>
+        <v>0.002443999999968582</v>
       </c>
       <c r="Y667" t="n">
         <v>9</v>
@@ -55250,7 +55250,7 @@
         </is>
       </c>
       <c r="X668" t="n">
-        <v>0.004012100000011287</v>
+        <v>0.002840600000013183</v>
       </c>
       <c r="Y668" t="n">
         <v>11</v>
@@ -55332,7 +55332,7 @@
         </is>
       </c>
       <c r="X669" t="n">
-        <v>0.003496399999960431</v>
+        <v>0.003029599999990751</v>
       </c>
       <c r="Y669" t="n">
         <v>10</v>
@@ -55414,7 +55414,7 @@
         </is>
       </c>
       <c r="X670" t="n">
-        <v>0.0024478000000272</v>
+        <v>0.00244359999999233</v>
       </c>
       <c r="Y670" t="n">
         <v>10</v>
@@ -55496,7 +55496,7 @@
         </is>
       </c>
       <c r="X671" t="n">
-        <v>0.003305900000043493</v>
+        <v>0.002674099999978807</v>
       </c>
       <c r="Y671" t="n">
         <v>11</v>
@@ -55578,7 +55578,7 @@
         </is>
       </c>
       <c r="X672" t="n">
-        <v>0.002239299999985178</v>
+        <v>0.001992099999995389</v>
       </c>
       <c r="Y672" t="n">
         <v>8</v>
@@ -55660,7 +55660,7 @@
         </is>
       </c>
       <c r="X673" t="n">
-        <v>0.005963800000017727</v>
+        <v>0.003564799999992374</v>
       </c>
       <c r="Y673" t="n">
         <v>13</v>
@@ -55742,7 +55742,7 @@
         </is>
       </c>
       <c r="X674" t="n">
-        <v>0.006802999999990789</v>
+        <v>0.004156099999988783</v>
       </c>
       <c r="Y674" t="n">
         <v>13</v>
@@ -55824,7 +55824,7 @@
         </is>
       </c>
       <c r="X675" t="n">
-        <v>0.001957300000015039</v>
+        <v>0.003754400000048008</v>
       </c>
       <c r="Y675" t="n">
         <v>8</v>
@@ -55906,7 +55906,7 @@
         </is>
       </c>
       <c r="X676" t="n">
-        <v>0.002899300000024141</v>
+        <v>0.003392399999995632</v>
       </c>
       <c r="Y676" t="n">
         <v>11</v>
@@ -55988,7 +55988,7 @@
         </is>
       </c>
       <c r="X677" t="n">
-        <v>0.003306500000007873</v>
+        <v>0.004140599999971073</v>
       </c>
       <c r="Y677" t="n">
         <v>13</v>
@@ -56070,7 +56070,7 @@
         </is>
       </c>
       <c r="X678" t="n">
-        <v>0.007280699999967055</v>
+        <v>0.00372829999997748</v>
       </c>
       <c r="Y678" t="n">
         <v>13</v>
@@ -56152,7 +56152,7 @@
         </is>
       </c>
       <c r="X679" t="n">
-        <v>0.002223000000014963</v>
+        <v>0.004827299999988099</v>
       </c>
       <c r="Y679" t="n">
         <v>9</v>
@@ -56234,7 +56234,7 @@
         </is>
       </c>
       <c r="X680" t="n">
-        <v>0.003078500000015083</v>
+        <v>0.003320499999972526</v>
       </c>
       <c r="Y680" t="n">
         <v>13</v>
@@ -56316,7 +56316,7 @@
         </is>
       </c>
       <c r="X681" t="n">
-        <v>0.006710599999962596</v>
+        <v>0.002694599999983893</v>
       </c>
       <c r="Y681" t="n">
         <v>11</v>
@@ -56398,7 +56398,7 @@
         </is>
       </c>
       <c r="X682" t="n">
-        <v>0.001930499999957647</v>
+        <v>0.002850500000022294</v>
       </c>
       <c r="Y682" t="n">
         <v>8</v>
@@ -56480,7 +56480,7 @@
         </is>
       </c>
       <c r="X683" t="n">
-        <v>0.003090900000017882</v>
+        <v>0.00314850000000888</v>
       </c>
       <c r="Y683" t="n">
         <v>13</v>
@@ -56562,7 +56562,7 @@
         </is>
       </c>
       <c r="X684" t="n">
-        <v>0.003306500000007873</v>
+        <v>0.00266399999998157</v>
       </c>
       <c r="Y684" t="n">
         <v>11</v>
@@ -56644,7 +56644,7 @@
         </is>
       </c>
       <c r="X685" t="n">
-        <v>0.00214630000004945</v>
+        <v>0.003450400000019727</v>
       </c>
       <c r="Y685" t="n">
         <v>9</v>
@@ -56726,7 +56726,7 @@
         </is>
       </c>
       <c r="X686" t="n">
-        <v>0.004150600000002669</v>
+        <v>0.002679199999988668</v>
       </c>
       <c r="Y686" t="n">
         <v>11</v>
@@ -56808,7 +56808,7 @@
         </is>
       </c>
       <c r="X687" t="n">
-        <v>0.00253039999995508</v>
+        <v>0.002397900000005393</v>
       </c>
       <c r="Y687" t="n">
         <v>9</v>
@@ -56890,7 +56890,7 @@
         </is>
       </c>
       <c r="X688" t="n">
-        <v>0.002237499999978354</v>
+        <v>0.001992900000004738</v>
       </c>
       <c r="Y688" t="n">
         <v>8</v>
@@ -56972,7 +56972,7 @@
         </is>
       </c>
       <c r="X689" t="n">
-        <v>0.001973299999974643</v>
+        <v>0.001992900000004738</v>
       </c>
       <c r="Y689" t="n">
         <v>8</v>
@@ -57054,7 +57054,7 @@
         </is>
       </c>
       <c r="X690" t="n">
-        <v>0.002285499999970853</v>
+        <v>0.002574499999980162</v>
       </c>
       <c r="Y690" t="n">
         <v>9</v>
@@ -57136,7 +57136,7 @@
         </is>
       </c>
       <c r="X691" t="n">
-        <v>0.006346800000017083</v>
+        <v>0.002184099999965383</v>
       </c>
       <c r="Y691" t="n">
         <v>9</v>
@@ -57218,7 +57218,7 @@
         </is>
       </c>
       <c r="X692" t="n">
-        <v>0.0065693999999894</v>
+        <v>0.003122899999993933</v>
       </c>
       <c r="Y692" t="n">
         <v>12</v>
@@ -57300,7 +57300,7 @@
         </is>
       </c>
       <c r="X693" t="n">
-        <v>0.003149000000007618</v>
+        <v>0.004264599999999064</v>
       </c>
       <c r="Y693" t="n">
         <v>12</v>
@@ -57382,7 +57382,7 @@
         </is>
       </c>
       <c r="X694" t="n">
-        <v>0.003288100000020222</v>
+        <v>0.003193800000019564</v>
       </c>
       <c r="Y694" t="n">
         <v>13</v>
@@ -57464,7 +57464,7 @@
         </is>
       </c>
       <c r="X695" t="n">
-        <v>0.003885700000012093</v>
+        <v>0.003102899999987585</v>
       </c>
       <c r="Y695" t="n">
         <v>12</v>
@@ -57546,7 +57546,7 @@
         </is>
       </c>
       <c r="X696" t="n">
-        <v>0.005617800000038642</v>
+        <v>0.005074700000022858</v>
       </c>
       <c r="Y696" t="n">
         <v>13</v>
@@ -57628,7 +57628,7 @@
         </is>
       </c>
       <c r="X697" t="n">
-        <v>0.003024100000004637</v>
+        <v>0.002931300000000192</v>
       </c>
       <c r="Y697" t="n">
         <v>12</v>
@@ -57710,7 +57710,7 @@
         </is>
       </c>
       <c r="X698" t="n">
-        <v>0.002210500000046522</v>
+        <v>0.002407599999969534</v>
       </c>
       <c r="Y698" t="n">
         <v>9</v>
@@ -57792,7 +57792,7 @@
         </is>
       </c>
       <c r="X699" t="n">
-        <v>0.003550500000017109</v>
+        <v>0.003934899999990193</v>
       </c>
       <c r="Y699" t="n">
         <v>12</v>
@@ -57874,7 +57874,7 @@
         </is>
       </c>
       <c r="X700" t="n">
-        <v>0.004860100000030343</v>
+        <v>0.00293010000001459</v>
       </c>
       <c r="Y700" t="n">
         <v>12</v>
@@ -57956,7 +57956,7 @@
         </is>
       </c>
       <c r="X701" t="n">
-        <v>0.003152699999986908</v>
+        <v>0.003835999999978412</v>
       </c>
       <c r="Y701" t="n">
         <v>13</v>
@@ -58038,7 +58038,7 @@
         </is>
       </c>
       <c r="X702" t="n">
-        <v>0.001971700000012788</v>
+        <v>0.00202299999995148</v>
       </c>
       <c r="Y702" t="n">
         <v>8</v>
@@ -58120,7 +58120,7 @@
         </is>
       </c>
       <c r="X703" t="n">
-        <v>0.002593499999989035</v>
+        <v>0.002820899999960602</v>
       </c>
       <c r="Y703" t="n">
         <v>11</v>
@@ -58202,7 +58202,7 @@
         </is>
       </c>
       <c r="X704" t="n">
-        <v>0.002849299999979849</v>
+        <v>0.003469300000006115</v>
       </c>
       <c r="Y704" t="n">
         <v>12</v>
@@ -58284,7 +58284,7 @@
         </is>
       </c>
       <c r="X705" t="n">
-        <v>0.003719199999977718</v>
+        <v>0.001960499999995591</v>
       </c>
       <c r="Y705" t="n">
         <v>8</v>
@@ -58366,7 +58366,7 @@
         </is>
       </c>
       <c r="X706" t="n">
-        <v>0.001939400000026126</v>
+        <v>0.00221339999995962</v>
       </c>
       <c r="Y706" t="n">
         <v>8</v>
@@ -58448,7 +58448,7 @@
         </is>
       </c>
       <c r="X707" t="n">
-        <v>0.002277400000025409</v>
+        <v>0.003555000000005748</v>
       </c>
       <c r="Y707" t="n">
         <v>9</v>
@@ -58530,7 +58530,7 @@
         </is>
       </c>
       <c r="X708" t="n">
-        <v>0.003221199999984492</v>
+        <v>0.003133100000013656</v>
       </c>
       <c r="Y708" t="n">
         <v>13</v>
@@ -58612,7 +58612,7 @@
         </is>
       </c>
       <c r="X709" t="n">
-        <v>0.002207300000009127</v>
+        <v>0.002348700000027293</v>
       </c>
       <c r="Y709" t="n">
         <v>9</v>
@@ -58694,7 +58694,7 @@
         </is>
       </c>
       <c r="X710" t="n">
-        <v>0.005448900000033063</v>
+        <v>0.004376600000000508</v>
       </c>
       <c r="Y710" t="n">
         <v>13</v>
@@ -58776,7 +58776,7 @@
         </is>
       </c>
       <c r="X711" t="n">
-        <v>0.003083600000024944</v>
+        <v>0.003201199999978144</v>
       </c>
       <c r="Y711" t="n">
         <v>13</v>
@@ -58858,7 +58858,7 @@
         </is>
       </c>
       <c r="X712" t="n">
-        <v>0.003148699999997007</v>
+        <v>0.003438099999982569</v>
       </c>
       <c r="Y712" t="n">
         <v>12</v>
@@ -58940,7 +58940,7 @@
         </is>
       </c>
       <c r="X713" t="n">
-        <v>0.00499569999999494</v>
+        <v>0.004270899999994526</v>
       </c>
       <c r="Y713" t="n">
         <v>12</v>
@@ -59022,7 +59022,7 @@
         </is>
       </c>
       <c r="X714" t="n">
-        <v>0.002232600000013463</v>
+        <v>0.002249699999993027</v>
       </c>
       <c r="Y714" t="n">
         <v>9</v>
@@ -59104,7 +59104,7 @@
         </is>
       </c>
       <c r="X715" t="n">
-        <v>0.002277499999991051</v>
+        <v>0.00259270000003653</v>
       </c>
       <c r="Y715" t="n">
         <v>8</v>
@@ -59186,7 +59186,7 @@
         </is>
       </c>
       <c r="X716" t="n">
-        <v>0.002092899999979636</v>
+        <v>0.003732000000013613</v>
       </c>
       <c r="Y716" t="n">
         <v>8</v>
@@ -59268,7 +59268,7 @@
         </is>
       </c>
       <c r="X717" t="n">
-        <v>0.00265439999998307</v>
+        <v>0.002721799999960695</v>
       </c>
       <c r="Y717" t="n">
         <v>11</v>
@@ -59350,7 +59350,7 @@
         </is>
       </c>
       <c r="X718" t="n">
-        <v>0.003269099999954506</v>
+        <v>0.00329629999998815</v>
       </c>
       <c r="Y718" t="n">
         <v>12</v>
@@ -59432,7 +59432,7 @@
         </is>
       </c>
       <c r="X719" t="n">
-        <v>0.002175200000010591</v>
+        <v>0.002186699999981556</v>
       </c>
       <c r="Y719" t="n">
         <v>9</v>
@@ -59514,7 +59514,7 @@
         </is>
       </c>
       <c r="X720" t="n">
-        <v>0.002196500000025026</v>
+        <v>0.002299100000016097</v>
       </c>
       <c r="Y720" t="n">
         <v>9</v>
@@ -59596,7 +59596,7 @@
         </is>
       </c>
       <c r="X721" t="n">
-        <v>0.00418760000002294</v>
+        <v>0.004408699999999044</v>
       </c>
       <c r="Y721" t="n">
         <v>8</v>
@@ -59678,7 +59678,7 @@
         </is>
       </c>
       <c r="X722" t="n">
-        <v>0.002397499999972297</v>
+        <v>0.002427800000020852</v>
       </c>
       <c r="Y722" t="n">
         <v>10</v>
@@ -59760,7 +59760,7 @@
         </is>
       </c>
       <c r="X723" t="n">
-        <v>0.003286700000046494</v>
+        <v>0.003464300000018739</v>
       </c>
       <c r="Y723" t="n">
         <v>13</v>
@@ -59842,7 +59842,7 @@
         </is>
       </c>
       <c r="X724" t="n">
-        <v>0.004582099999993261</v>
+        <v>0.004235499999992953</v>
       </c>
       <c r="Y724" t="n">
         <v>13</v>
@@ -59924,7 +59924,7 @@
         </is>
       </c>
       <c r="X725" t="n">
-        <v>0.002786099999980252</v>
+        <v>0.002922600000033526</v>
       </c>
       <c r="Y725" t="n">
         <v>12</v>
@@ -60006,7 +60006,7 @@
         </is>
       </c>
       <c r="X726" t="n">
-        <v>0.002808799999968414</v>
+        <v>0.003092699999967863</v>
       </c>
       <c r="Y726" t="n">
         <v>11</v>
@@ -60088,7 +60088,7 @@
         </is>
       </c>
       <c r="X727" t="n">
-        <v>0.002379700000005869</v>
+        <v>0.002344199999981811</v>
       </c>
       <c r="Y727" t="n">
         <v>10</v>
@@ -60170,7 +60170,7 @@
         </is>
       </c>
       <c r="X728" t="n">
-        <v>0.002101200000026893</v>
+        <v>0.002045899999984613</v>
       </c>
       <c r="Y728" t="n">
         <v>8</v>
@@ -60252,7 +60252,7 @@
         </is>
       </c>
       <c r="X729" t="n">
-        <v>0.002262200000018311</v>
+        <v>0.003410799999983283</v>
       </c>
       <c r="Y729" t="n">
         <v>10</v>
@@ -60334,7 +60334,7 @@
         </is>
       </c>
       <c r="X730" t="n">
-        <v>0.0022495000000049</v>
+        <v>0.002199299999972482</v>
       </c>
       <c r="Y730" t="n">
         <v>9</v>
@@ -60416,7 +60416,7 @@
         </is>
       </c>
       <c r="X731" t="n">
-        <v>0.003987400000028174</v>
+        <v>0.003248400000018137</v>
       </c>
       <c r="Y731" t="n">
         <v>12</v>
@@ -60498,7 +60498,7 @@
         </is>
       </c>
       <c r="X732" t="n">
-        <v>0.002771200000040608</v>
+        <v>0.002878399999985959</v>
       </c>
       <c r="Y732" t="n">
         <v>12</v>
@@ -60580,7 +60580,7 @@
         </is>
       </c>
       <c r="X733" t="n">
-        <v>0.002292000000011285</v>
+        <v>0.001987199999973654</v>
       </c>
       <c r="Y733" t="n">
         <v>8</v>
@@ -60662,7 +60662,7 @@
         </is>
       </c>
       <c r="X734" t="n">
-        <v>0.002398900000002868</v>
+        <v>0.003823100000033719</v>
       </c>
       <c r="Y734" t="n">
         <v>10</v>
@@ -60744,7 +60744,7 @@
         </is>
       </c>
       <c r="X735" t="n">
-        <v>0.002074499999991986</v>
+        <v>0.002063299999974788</v>
       </c>
       <c r="Y735" t="n">
         <v>8</v>
@@ -60826,7 +60826,7 @@
         </is>
       </c>
       <c r="X736" t="n">
-        <v>0.004601699999966513</v>
+        <v>0.003086900000027981</v>
       </c>
       <c r="Y736" t="n">
         <v>11</v>
@@ -60908,7 +60908,7 @@
         </is>
       </c>
       <c r="X737" t="n">
-        <v>0.002225499999951808</v>
+        <v>0.001936600000021826</v>
       </c>
       <c r="Y737" t="n">
         <v>8</v>
@@ -60990,7 +60990,7 @@
         </is>
       </c>
       <c r="X738" t="n">
-        <v>0.002271699999994325</v>
+        <v>0.002222500000016225</v>
       </c>
       <c r="Y738" t="n">
         <v>9</v>
@@ -61072,7 +61072,7 @@
         </is>
       </c>
       <c r="X739" t="n">
-        <v>0.001940200000035475</v>
+        <v>0.002729399999964244</v>
       </c>
       <c r="Y739" t="n">
         <v>8</v>
@@ -61154,7 +61154,7 @@
         </is>
       </c>
       <c r="X740" t="n">
-        <v>0.00194210000000794</v>
+        <v>0.001968000000033499</v>
       </c>
       <c r="Y740" t="n">
         <v>8</v>
@@ -61236,7 +61236,7 @@
         </is>
       </c>
       <c r="X741" t="n">
-        <v>0.002031299999998737</v>
+        <v>0.002330500000027769</v>
       </c>
       <c r="Y741" t="n">
         <v>8</v>
@@ -61318,7 +61318,7 @@
         </is>
       </c>
       <c r="X742" t="n">
-        <v>0.003198100000020077</v>
+        <v>0.003039099999966766</v>
       </c>
       <c r="Y742" t="n">
         <v>13</v>
@@ -61400,7 +61400,7 @@
         </is>
       </c>
       <c r="X743" t="n">
-        <v>0.002211499999987154</v>
+        <v>0.002376900000001569</v>
       </c>
       <c r="Y743" t="n">
         <v>9</v>
@@ -61482,7 +61482,7 @@
         </is>
       </c>
       <c r="X744" t="n">
-        <v>0.002212500000041473</v>
+        <v>0.003952499999968495</v>
       </c>
       <c r="Y744" t="n">
         <v>9</v>
@@ -61564,7 +61564,7 @@
         </is>
       </c>
       <c r="X745" t="n">
-        <v>0.003609200000028068</v>
+        <v>0.00212659999999687</v>
       </c>
       <c r="Y745" t="n">
         <v>9</v>
@@ -61646,7 +61646,7 @@
         </is>
       </c>
       <c r="X746" t="n">
-        <v>0.002115199999991546</v>
+        <v>0.00206300000002102</v>
       </c>
       <c r="Y746" t="n">
         <v>8</v>
@@ -61728,7 +61728,7 @@
         </is>
       </c>
       <c r="X747" t="n">
-        <v>0.002002800000013849</v>
+        <v>0.001934000000005653</v>
       </c>
       <c r="Y747" t="n">
         <v>8</v>
@@ -61810,7 +61810,7 @@
         </is>
       </c>
       <c r="X748" t="n">
-        <v>0.002341800000010608</v>
+        <v>0.002300999999988562</v>
       </c>
       <c r="Y748" t="n">
         <v>9</v>
@@ -61892,7 +61892,7 @@
         </is>
       </c>
       <c r="X749" t="n">
-        <v>0.00224639999998999</v>
+        <v>0.002150699999958761</v>
       </c>
       <c r="Y749" t="n">
         <v>9</v>
@@ -61974,7 +61974,7 @@
         </is>
       </c>
       <c r="X750" t="n">
-        <v>0.002576799999985724</v>
+        <v>0.002682800000002317</v>
       </c>
       <c r="Y750" t="n">
         <v>11</v>
@@ -62056,7 +62056,7 @@
         </is>
       </c>
       <c r="X751" t="n">
-        <v>0.002631799999960549</v>
+        <v>0.00352319999996098</v>
       </c>
       <c r="Y751" t="n">
         <v>11</v>
@@ -62138,7 +62138,7 @@
         </is>
       </c>
       <c r="X752" t="n">
-        <v>0.002823700000021745</v>
+        <v>0.003060000000004948</v>
       </c>
       <c r="Y752" t="n">
         <v>12</v>
@@ -62220,7 +62220,7 @@
         </is>
       </c>
       <c r="X753" t="n">
-        <v>0.002004899999974441</v>
+        <v>0.002104999999971824</v>
       </c>
       <c r="Y753" t="n">
         <v>8</v>
@@ -62302,7 +62302,7 @@
         </is>
       </c>
       <c r="X754" t="n">
-        <v>0.003904599999998482</v>
+        <v>0.004589400000043042</v>
       </c>
       <c r="Y754" t="n">
         <v>13</v>
@@ -62384,7 +62384,7 @@
         </is>
       </c>
       <c r="X755" t="n">
-        <v>0.002868100000000595</v>
+        <v>0.002918999999963034</v>
       </c>
       <c r="Y755" t="n">
         <v>12</v>
@@ -62466,7 +62466,7 @@
         </is>
       </c>
       <c r="X756" t="n">
-        <v>0.003378400000030979</v>
+        <v>0.003179000000045562</v>
       </c>
       <c r="Y756" t="n">
         <v>13</v>
@@ -62548,7 +62548,7 @@
         </is>
       </c>
       <c r="X757" t="n">
-        <v>0.003918199999986882</v>
+        <v>0.005412299999989045</v>
       </c>
       <c r="Y757" t="n">
         <v>13</v>
@@ -62630,7 +62630,7 @@
         </is>
       </c>
       <c r="X758" t="n">
-        <v>0.002291999999954442</v>
+        <v>0.002215400000011414</v>
       </c>
       <c r="Y758" t="n">
         <v>8</v>
@@ -62712,7 +62712,7 @@
         </is>
       </c>
       <c r="X759" t="n">
-        <v>0.003588900000011108</v>
+        <v>0.003149000000007618</v>
       </c>
       <c r="Y759" t="n">
         <v>11</v>
@@ -62794,7 +62794,7 @@
         </is>
       </c>
       <c r="X760" t="n">
-        <v>0.002617400000019643</v>
+        <v>0.002559999999959928</v>
       </c>
       <c r="Y760" t="n">
         <v>11</v>
@@ -62876,7 +62876,7 @@
         </is>
       </c>
       <c r="X761" t="n">
-        <v>0.00376130000000785</v>
+        <v>0.003167099999984657</v>
       </c>
       <c r="Y761" t="n">
         <v>13</v>
@@ -62958,7 +62958,7 @@
         </is>
       </c>
       <c r="X762" t="n">
-        <v>0.001856499999973948</v>
+        <v>0.002833099999975275</v>
       </c>
       <c r="Y762" t="n">
         <v>8</v>
@@ -63040,7 +63040,7 @@
         </is>
       </c>
       <c r="X763" t="n">
-        <v>0.002872299999978623</v>
+        <v>0.002911900000015066</v>
       </c>
       <c r="Y763" t="n">
         <v>12</v>
@@ -63122,7 +63122,7 @@
         </is>
       </c>
       <c r="X764" t="n">
-        <v>0.00227770000003602</v>
+        <v>0.002957800000046973</v>
       </c>
       <c r="Y764" t="n">
         <v>8</v>
@@ -63204,7 +63204,7 @@
         </is>
       </c>
       <c r="X765" t="n">
-        <v>0.002275999999994838</v>
+        <v>0.003885700000012093</v>
       </c>
       <c r="Y765" t="n">
         <v>9</v>
@@ -63286,7 +63286,7 @@
         </is>
       </c>
       <c r="X766" t="n">
-        <v>0.003435400000000755</v>
+        <v>0.002792900000031295</v>
       </c>
       <c r="Y766" t="n">
         <v>11</v>
@@ -63368,7 +63368,7 @@
         </is>
       </c>
       <c r="X767" t="n">
-        <v>0.003163899999947262</v>
+        <v>0.002832200000000284</v>
       </c>
       <c r="Y767" t="n">
         <v>11</v>
@@ -63450,7 +63450,7 @@
         </is>
       </c>
       <c r="X768" t="n">
-        <v>0.01308509999995522</v>
+        <v>0.004861000000005333</v>
       </c>
       <c r="Y768" t="n">
         <v>12</v>
@@ -63532,7 +63532,7 @@
         </is>
       </c>
       <c r="X769" t="n">
-        <v>0.006343399999991561</v>
+        <v>0.002829200000007859</v>
       </c>
       <c r="Y769" t="n">
         <v>12</v>
@@ -63614,7 +63614,7 @@
         </is>
       </c>
       <c r="X770" t="n">
-        <v>0.002246700000000601</v>
+        <v>0.002046200000052067</v>
       </c>
       <c r="Y770" t="n">
         <v>8</v>
@@ -63696,7 +63696,7 @@
         </is>
       </c>
       <c r="X771" t="n">
-        <v>0.002469800000028499</v>
+        <v>0.00211500000000342</v>
       </c>
       <c r="Y771" t="n">
         <v>9</v>
@@ -63778,7 +63778,7 @@
         </is>
       </c>
       <c r="X772" t="n">
-        <v>0.003544700000020384</v>
+        <v>0.00265940000002729</v>
       </c>
       <c r="Y772" t="n">
         <v>11</v>
@@ -63860,7 +63860,7 @@
         </is>
       </c>
       <c r="X773" t="n">
-        <v>0.002717000000018288</v>
+        <v>0.003294600000003811</v>
       </c>
       <c r="Y773" t="n">
         <v>10</v>
@@ -63942,7 +63942,7 @@
         </is>
       </c>
       <c r="X774" t="n">
-        <v>0.004580500000031407</v>
+        <v>0.003154099999960636</v>
       </c>
       <c r="Y774" t="n">
         <v>13</v>
@@ -64024,7 +64024,7 @@
         </is>
       </c>
       <c r="X775" t="n">
-        <v>0.005456500000036613</v>
+        <v>0.004152299999987008</v>
       </c>
       <c r="Y775" t="n">
         <v>13</v>
@@ -64106,7 +64106,7 @@
         </is>
       </c>
       <c r="X776" t="n">
-        <v>0.004627200000015819</v>
+        <v>0.003520100000002913</v>
       </c>
       <c r="Y776" t="n">
         <v>12</v>
@@ -64188,7 +64188,7 @@
         </is>
       </c>
       <c r="X777" t="n">
-        <v>0.003297900000006848</v>
+        <v>0.002273999999999887</v>
       </c>
       <c r="Y777" t="n">
         <v>8</v>
@@ -64270,7 +64270,7 @@
         </is>
       </c>
       <c r="X778" t="n">
-        <v>0.004635500000006232</v>
+        <v>0.002586699999994835</v>
       </c>
       <c r="Y778" t="n">
         <v>10</v>
@@ -64352,7 +64352,7 @@
         </is>
       </c>
       <c r="X779" t="n">
-        <v>0.002232600000013463</v>
+        <v>0.003403500000047188</v>
       </c>
       <c r="Y779" t="n">
         <v>9</v>
@@ -64434,7 +64434,7 @@
         </is>
       </c>
       <c r="X780" t="n">
-        <v>0.007835600000021259</v>
+        <v>0.002411099999960697</v>
       </c>
       <c r="Y780" t="n">
         <v>9</v>
@@ -64516,7 +64516,7 @@
         </is>
       </c>
       <c r="X781" t="n">
-        <v>0.003227999999978692</v>
+        <v>0.003289399999971465</v>
       </c>
       <c r="Y781" t="n">
         <v>13</v>
@@ -64598,7 +64598,7 @@
         </is>
       </c>
       <c r="X782" t="n">
-        <v>0.004466499999978168</v>
+        <v>0.002568699999983437</v>
       </c>
       <c r="Y782" t="n">
         <v>8</v>
@@ -64680,7 +64680,7 @@
         </is>
       </c>
       <c r="X783" t="n">
-        <v>0.006083899999964615</v>
+        <v>0.002657099999964885</v>
       </c>
       <c r="Y783" t="n">
         <v>11</v>
@@ -64762,7 +64762,7 @@
         </is>
       </c>
       <c r="X784" t="n">
-        <v>0.00698779999999033</v>
+        <v>0.002916599999991831</v>
       </c>
       <c r="Y784" t="n">
         <v>12</v>
@@ -64844,7 +64844,7 @@
         </is>
       </c>
       <c r="X785" t="n">
-        <v>0.004010300000004463</v>
+        <v>0.002469700000006014</v>
       </c>
       <c r="Y785" t="n">
         <v>8</v>
@@ -64926,7 +64926,7 @@
         </is>
       </c>
       <c r="X786" t="n">
-        <v>0.002846599999998034</v>
+        <v>0.002122299999996358</v>
       </c>
       <c r="Y786" t="n">
         <v>8</v>
@@ -65008,7 +65008,7 @@
         </is>
       </c>
       <c r="X787" t="n">
-        <v>0.002880000000004657</v>
+        <v>0.00416050000001178</v>
       </c>
       <c r="Y787" t="n">
         <v>12</v>
@@ -65090,7 +65090,7 @@
         </is>
       </c>
       <c r="X788" t="n">
-        <v>0.003322000000025582</v>
+        <v>0.003868600000032529</v>
       </c>
       <c r="Y788" t="n">
         <v>12</v>
@@ -65172,7 +65172,7 @@
         </is>
       </c>
       <c r="X789" t="n">
-        <v>0.003079700000000685</v>
+        <v>0.003137700000024779</v>
       </c>
       <c r="Y789" t="n">
         <v>13</v>
@@ -65254,7 +65254,7 @@
         </is>
       </c>
       <c r="X790" t="n">
-        <v>0.00199129999998604</v>
+        <v>0.003250200000024961</v>
       </c>
       <c r="Y790" t="n">
         <v>8</v>
@@ -65336,7 +65336,7 @@
         </is>
       </c>
       <c r="X791" t="n">
-        <v>0.002952200000038374</v>
+        <v>0.003594500000019707</v>
       </c>
       <c r="Y791" t="n">
         <v>11</v>
@@ -65418,7 +65418,7 @@
         </is>
       </c>
       <c r="X792" t="n">
-        <v>0.00289509999998927</v>
+        <v>0.002997899999968467</v>
       </c>
       <c r="Y792" t="n">
         <v>12</v>
@@ -65500,7 +65500,7 @@
         </is>
       </c>
       <c r="X793" t="n">
-        <v>0.00339379999996936</v>
+        <v>0.004507100000012088</v>
       </c>
       <c r="Y793" t="n">
         <v>13</v>
@@ -65582,7 +65582,7 @@
         </is>
       </c>
       <c r="X794" t="n">
-        <v>0.002327900000011596</v>
+        <v>0.002874099999985447</v>
       </c>
       <c r="Y794" t="n">
         <v>10</v>
@@ -65664,7 +65664,7 @@
         </is>
       </c>
       <c r="X795" t="n">
-        <v>0.002590499999996609</v>
+        <v>0.002836400000035155</v>
       </c>
       <c r="Y795" t="n">
         <v>10</v>
@@ -65746,7 +65746,7 @@
         </is>
       </c>
       <c r="X796" t="n">
-        <v>0.001936999999998079</v>
+        <v>0.003159900000014204</v>
       </c>
       <c r="Y796" t="n">
         <v>8</v>
@@ -65828,7 +65828,7 @@
         </is>
       </c>
       <c r="X797" t="n">
-        <v>0.00382319999999936</v>
+        <v>0.002697100000034425</v>
       </c>
       <c r="Y797" t="n">
         <v>11</v>
@@ -65910,7 +65910,7 @@
         </is>
       </c>
       <c r="X798" t="n">
-        <v>0.00294339999999238</v>
+        <v>0.002783200000010311</v>
       </c>
       <c r="Y798" t="n">
         <v>11</v>
@@ -65992,7 +65992,7 @@
         </is>
       </c>
       <c r="X799" t="n">
-        <v>0.002242200000011962</v>
+        <v>0.00196219999997993</v>
       </c>
       <c r="Y799" t="n">
         <v>8</v>
@@ -66074,7 +66074,7 @@
         </is>
       </c>
       <c r="X800" t="n">
-        <v>0.004111800000032417</v>
+        <v>0.00246590000000424</v>
       </c>
       <c r="Y800" t="n">
         <v>10</v>
@@ -66156,7 +66156,7 @@
         </is>
       </c>
       <c r="X801" t="n">
-        <v>0.002602299999978186</v>
+        <v>0.002604899999994359</v>
       </c>
       <c r="Y801" t="n">
         <v>9</v>
@@ -66238,7 +66238,7 @@
         </is>
       </c>
       <c r="X802" t="n">
-        <v>0.003158899999959885</v>
+        <v>0.002695000000016989</v>
       </c>
       <c r="Y802" t="n">
         <v>11</v>
@@ -66320,7 +66320,7 @@
         </is>
       </c>
       <c r="X803" t="n">
-        <v>0.003489500000000589</v>
+        <v>0.005145599999991646</v>
       </c>
       <c r="Y803" t="n">
         <v>11</v>
@@ -66402,7 +66402,7 @@
         </is>
       </c>
       <c r="X804" t="n">
-        <v>0.003067699999974138</v>
+        <v>0.003072099999997135</v>
       </c>
       <c r="Y804" t="n">
         <v>13</v>
@@ -66484,7 +66484,7 @@
         </is>
       </c>
       <c r="X805" t="n">
-        <v>0.002679799999953048</v>
+        <v>0.002278199999977915</v>
       </c>
       <c r="Y805" t="n">
         <v>9</v>
@@ -66566,7 +66566,7 @@
         </is>
       </c>
       <c r="X806" t="n">
-        <v>0.002739000000019587</v>
+        <v>0.002396299999986695</v>
       </c>
       <c r="Y806" t="n">
         <v>10</v>
@@ -66648,7 +66648,7 @@
         </is>
       </c>
       <c r="X807" t="n">
-        <v>0.002651000000014392</v>
+        <v>0.002711000000033437</v>
       </c>
       <c r="Y807" t="n">
         <v>11</v>
@@ -66730,7 +66730,7 @@
         </is>
       </c>
       <c r="X808" t="n">
-        <v>0.003958699999998316</v>
+        <v>0.003721100000007027</v>
       </c>
       <c r="Y808" t="n">
         <v>9</v>
@@ -66812,7 +66812,7 @@
         </is>
       </c>
       <c r="X809" t="n">
-        <v>0.002676399999984369</v>
+        <v>0.002563600000030419</v>
       </c>
       <c r="Y809" t="n">
         <v>11</v>
@@ -66894,7 +66894,7 @@
         </is>
       </c>
       <c r="X810" t="n">
-        <v>0.003286800000012136</v>
+        <v>0.002306899999950929</v>
       </c>
       <c r="Y810" t="n">
         <v>9</v>
@@ -66976,7 +66976,7 @@
         </is>
       </c>
       <c r="X811" t="n">
-        <v>0.003782099999966704</v>
+        <v>0.003397199999994882</v>
       </c>
       <c r="Y811" t="n">
         <v>12</v>
@@ -67058,7 +67058,7 @@
         </is>
       </c>
       <c r="X812" t="n">
-        <v>0.004056499999990137</v>
+        <v>0.003338399999961439</v>
       </c>
       <c r="Y812" t="n">
         <v>14</v>
@@ -67140,7 +67140,7 @@
         </is>
       </c>
       <c r="X813" t="n">
-        <v>0.0108644999999683</v>
+        <v>0.003254699999956756</v>
       </c>
       <c r="Y813" t="n">
         <v>13</v>
@@ -67222,7 +67222,7 @@
         </is>
       </c>
       <c r="X814" t="n">
-        <v>0.003046600000004673</v>
+        <v>0.00343049999997902</v>
       </c>
       <c r="Y814" t="n">
         <v>12</v>
@@ -67304,7 +67304,7 @@
         </is>
       </c>
       <c r="X815" t="n">
-        <v>0.002173499999969408</v>
+        <v>0.00224860000002991</v>
       </c>
       <c r="Y815" t="n">
         <v>9</v>
@@ -67386,7 +67386,7 @@
         </is>
       </c>
       <c r="X816" t="n">
-        <v>0.003358100000014019</v>
+        <v>0.003429800000048999</v>
       </c>
       <c r="Y816" t="n">
         <v>13</v>
@@ -67468,7 +67468,7 @@
         </is>
       </c>
       <c r="X817" t="n">
-        <v>0.001925799999980882</v>
+        <v>0.001957100000026912</v>
       </c>
       <c r="Y817" t="n">
         <v>8</v>
@@ -67550,7 +67550,7 @@
         </is>
       </c>
       <c r="X818" t="n">
-        <v>0.002423599999985981</v>
+        <v>0.002560499999958665</v>
       </c>
       <c r="Y818" t="n">
         <v>10</v>
@@ -67632,7 +67632,7 @@
         </is>
       </c>
       <c r="X819" t="n">
-        <v>0.001976700000000164</v>
+        <v>0.001897699999972247</v>
       </c>
       <c r="Y819" t="n">
         <v>8</v>
@@ -67714,7 +67714,7 @@
         </is>
       </c>
       <c r="X820" t="n">
-        <v>0.00253739999999425</v>
+        <v>0.002343400000029305</v>
       </c>
       <c r="Y820" t="n">
         <v>9</v>
@@ -67796,7 +67796,7 @@
         </is>
       </c>
       <c r="X821" t="n">
-        <v>0.00254920000003267</v>
+        <v>0.003425400000026002</v>
       </c>
       <c r="Y821" t="n">
         <v>11</v>
@@ -67878,7 +67878,7 @@
         </is>
       </c>
       <c r="X822" t="n">
-        <v>0.003866200000004483</v>
+        <v>0.002904999999998381</v>
       </c>
       <c r="Y822" t="n">
         <v>12</v>
@@ -67960,7 +67960,7 @@
         </is>
       </c>
       <c r="X823" t="n">
-        <v>0.003681000000028689</v>
+        <v>0.002947699999992892</v>
       </c>
       <c r="Y823" t="n">
         <v>12</v>
@@ -68042,7 +68042,7 @@
         </is>
       </c>
       <c r="X824" t="n">
-        <v>0.003917500000000018</v>
+        <v>0.00272499999999809</v>
       </c>
       <c r="Y824" t="n">
         <v>12</v>
@@ -68124,7 +68124,7 @@
         </is>
       </c>
       <c r="X825" t="n">
-        <v>0.004112899999995534</v>
+        <v>0.003264000000001488</v>
       </c>
       <c r="Y825" t="n">
         <v>14</v>
@@ -68206,7 +68206,7 @@
         </is>
       </c>
       <c r="X826" t="n">
-        <v>0.003101399999991372</v>
+        <v>0.003661099999987982</v>
       </c>
       <c r="Y826" t="n">
         <v>11</v>
@@ -68288,7 +68288,7 @@
         </is>
       </c>
       <c r="X827" t="n">
-        <v>0.003190800000027139</v>
+        <v>0.002819700000031844</v>
       </c>
       <c r="Y827" t="n">
         <v>12</v>
@@ -68370,7 +68370,7 @@
         </is>
       </c>
       <c r="X828" t="n">
-        <v>0.003253999999969892</v>
+        <v>0.002942899999993642</v>
       </c>
       <c r="Y828" t="n">
         <v>12</v>
@@ -68452,7 +68452,7 @@
         </is>
       </c>
       <c r="X829" t="n">
-        <v>0.003195599999969545</v>
+        <v>0.00444559999999683</v>
       </c>
       <c r="Y829" t="n">
         <v>12</v>
@@ -68534,7 +68534,7 @@
         </is>
       </c>
       <c r="X830" t="n">
-        <v>0.002407199999993281</v>
+        <v>0.002123299999993833</v>
       </c>
       <c r="Y830" t="n">
         <v>9</v>
@@ -68616,7 +68616,7 @@
         </is>
       </c>
       <c r="X831" t="n">
-        <v>0.002291800000023159</v>
+        <v>0.002436900000020614</v>
       </c>
       <c r="Y831" t="n">
         <v>9</v>
@@ -68698,7 +68698,7 @@
         </is>
       </c>
       <c r="X832" t="n">
-        <v>0.002337400000044454</v>
+        <v>0.002120999999988271</v>
       </c>
       <c r="Y832" t="n">
         <v>9</v>
@@ -68780,7 +68780,7 @@
         </is>
       </c>
       <c r="X833" t="n">
-        <v>0.002840600000013183</v>
+        <v>0.002919700000006742</v>
       </c>
       <c r="Y833" t="n">
         <v>12</v>
@@ -68862,7 +68862,7 @@
         </is>
       </c>
       <c r="X834" t="n">
-        <v>0.002640200000030291</v>
+        <v>0.002507999999977528</v>
       </c>
       <c r="Y834" t="n">
         <v>11</v>
@@ -68944,7 +68944,7 @@
         </is>
       </c>
       <c r="X835" t="n">
-        <v>0.003227199999969343</v>
+        <v>0.002868799999987459</v>
       </c>
       <c r="Y835" t="n">
         <v>12</v>
@@ -69026,7 +69026,7 @@
         </is>
       </c>
       <c r="X836" t="n">
-        <v>0.002392600000007405</v>
+        <v>0.002751499999988027</v>
       </c>
       <c r="Y836" t="n">
         <v>10</v>
@@ -69108,7 +69108,7 @@
         </is>
       </c>
       <c r="X837" t="n">
-        <v>0.002069500000004609</v>
+        <v>0.001922100000001592</v>
       </c>
       <c r="Y837" t="n">
         <v>8</v>
@@ -69190,7 +69190,7 @@
         </is>
       </c>
       <c r="X838" t="n">
-        <v>0.001942299999996067</v>
+        <v>0.002038900000002286</v>
       </c>
       <c r="Y838" t="n">
         <v>8</v>
@@ -69272,7 +69272,7 @@
         </is>
       </c>
       <c r="X839" t="n">
-        <v>0.00298779999997123</v>
+        <v>0.00279449999999315</v>
       </c>
       <c r="Y839" t="n">
         <v>12</v>
@@ -69354,7 +69354,7 @@
         </is>
       </c>
       <c r="X840" t="n">
-        <v>0.003464800000017476</v>
+        <v>0.003139000000032866</v>
       </c>
       <c r="Y840" t="n">
         <v>13</v>
@@ -69436,7 +69436,7 @@
         </is>
       </c>
       <c r="X841" t="n">
-        <v>0.003109699999981785</v>
+        <v>0.004885000000001583</v>
       </c>
       <c r="Y841" t="n">
         <v>13</v>
@@ -69518,7 +69518,7 @@
         </is>
       </c>
       <c r="X842" t="n">
-        <v>0.002999999999985903</v>
+        <v>0.002593700000034005</v>
       </c>
       <c r="Y842" t="n">
         <v>11</v>
@@ -69600,7 +69600,7 @@
         </is>
       </c>
       <c r="X843" t="n">
-        <v>0.003021700000033434</v>
+        <v>0.00307610000004388</v>
       </c>
       <c r="Y843" t="n">
         <v>13</v>
@@ -69682,7 +69682,7 @@
         </is>
       </c>
       <c r="X844" t="n">
-        <v>0.003280500000016673</v>
+        <v>0.003867500000012569</v>
       </c>
       <c r="Y844" t="n">
         <v>13</v>
@@ -69764,7 +69764,7 @@
         </is>
       </c>
       <c r="X845" t="n">
-        <v>0.002299600000014834</v>
+        <v>0.002390199999979359</v>
       </c>
       <c r="Y845" t="n">
         <v>9</v>
@@ -69846,7 +69846,7 @@
         </is>
       </c>
       <c r="X846" t="n">
-        <v>0.001924899999949048</v>
+        <v>0.002479800000003252</v>
       </c>
       <c r="Y846" t="n">
         <v>8</v>
@@ -69928,7 +69928,7 @@
         </is>
       </c>
       <c r="X847" t="n">
-        <v>0.002179200000000492</v>
+        <v>0.002004400000032547</v>
       </c>
       <c r="Y847" t="n">
         <v>8</v>
@@ -70010,7 +70010,7 @@
         </is>
       </c>
       <c r="X848" t="n">
-        <v>0.002810900000042693</v>
+        <v>0.002992299999959869</v>
       </c>
       <c r="Y848" t="n">
         <v>12</v>
@@ -70092,7 +70092,7 @@
         </is>
       </c>
       <c r="X849" t="n">
-        <v>0.002752599999951144</v>
+        <v>0.002624200000013843</v>
       </c>
       <c r="Y849" t="n">
         <v>11</v>
@@ -70174,7 +70174,7 @@
         </is>
       </c>
       <c r="X850" t="n">
-        <v>0.002966300000025512</v>
+        <v>0.00296769999999924</v>
       </c>
       <c r="Y850" t="n">
         <v>12</v>
@@ -70256,7 +70256,7 @@
         </is>
       </c>
       <c r="X851" t="n">
-        <v>0.002946999999949185</v>
+        <v>0.003675900000018828</v>
       </c>
       <c r="Y851" t="n">
         <v>11</v>
@@ -70338,7 +70338,7 @@
         </is>
       </c>
       <c r="X852" t="n">
-        <v>0.002827899999999772</v>
+        <v>0.001865500000008069</v>
       </c>
       <c r="Y852" t="n">
         <v>8</v>
@@ -70420,7 +70420,7 @@
         </is>
       </c>
       <c r="X853" t="n">
-        <v>0.002274999999997362</v>
+        <v>0.002280200000029708</v>
       </c>
       <c r="Y853" t="n">
         <v>9</v>
@@ -70502,7 +70502,7 @@
         </is>
       </c>
       <c r="X854" t="n">
-        <v>0.002421799999979157</v>
+        <v>0.002081400000008671</v>
       </c>
       <c r="Y854" t="n">
         <v>9</v>
@@ -70584,7 +70584,7 @@
         </is>
       </c>
       <c r="X855" t="n">
-        <v>0.002055799999993724</v>
+        <v>0.002039499999966665</v>
       </c>
       <c r="Y855" t="n">
         <v>8</v>
@@ -70666,7 +70666,7 @@
         </is>
       </c>
       <c r="X856" t="n">
-        <v>0.002812099999971451</v>
+        <v>0.002145199999972647</v>
       </c>
       <c r="Y856" t="n">
         <v>9</v>
@@ -70748,7 +70748,7 @@
         </is>
       </c>
       <c r="X857" t="n">
-        <v>0.003697799999997642</v>
+        <v>0.002412999999990006</v>
       </c>
       <c r="Y857" t="n">
         <v>10</v>
@@ -70830,7 +70830,7 @@
         </is>
       </c>
       <c r="X858" t="n">
-        <v>0.003502900000000864</v>
+        <v>0.004211499999996704</v>
       </c>
       <c r="Y858" t="n">
         <v>12</v>
@@ -70912,7 +70912,7 @@
         </is>
       </c>
       <c r="X859" t="n">
-        <v>0.002530799999988176</v>
+        <v>0.001970200000016575</v>
       </c>
       <c r="Y859" t="n">
         <v>8</v>
@@ -70994,7 +70994,7 @@
         </is>
       </c>
       <c r="X860" t="n">
-        <v>0.00194779999998218</v>
+        <v>0.0020867999999723</v>
       </c>
       <c r="Y860" t="n">
         <v>8</v>
@@ -71076,7 +71076,7 @@
         </is>
       </c>
       <c r="X861" t="n">
-        <v>0.003643000000010943</v>
+        <v>0.003050199999961478</v>
       </c>
       <c r="Y861" t="n">
         <v>13</v>
@@ -71158,7 +71158,7 @@
         </is>
       </c>
       <c r="X862" t="n">
-        <v>0.004329199999972388</v>
+        <v>0.003236299999969106</v>
       </c>
       <c r="Y862" t="n">
         <v>13</v>
@@ -71240,7 +71240,7 @@
         </is>
       </c>
       <c r="X863" t="n">
-        <v>0.002635899999972935</v>
+        <v>0.003831300000001647</v>
       </c>
       <c r="Y863" t="n">
         <v>11</v>
@@ -71322,7 +71322,7 @@
         </is>
       </c>
       <c r="X864" t="n">
-        <v>0.0035581999999863</v>
+        <v>0.003318399999955091</v>
       </c>
       <c r="Y864" t="n">
         <v>13</v>
@@ -71404,7 +71404,7 @@
         </is>
       </c>
       <c r="X865" t="n">
-        <v>0.00308549999999741</v>
+        <v>0.002912299999991319</v>
       </c>
       <c r="Y865" t="n">
         <v>12</v>
@@ -71486,7 +71486,7 @@
         </is>
       </c>
       <c r="X866" t="n">
-        <v>0.001985900000022411</v>
+        <v>0.002033400000016172</v>
       </c>
       <c r="Y866" t="n">
         <v>8</v>
@@ -71568,7 +71568,7 @@
         </is>
       </c>
       <c r="X867" t="n">
-        <v>0.003747599999996964</v>
+        <v>0.002915599999994356</v>
       </c>
       <c r="Y867" t="n">
         <v>12</v>
@@ -71650,7 +71650,7 @@
         </is>
       </c>
       <c r="X868" t="n">
-        <v>0.001857700000016393</v>
+        <v>0.003558800000007523</v>
       </c>
       <c r="Y868" t="n">
         <v>8</v>
@@ -71732,7 +71732,7 @@
         </is>
       </c>
       <c r="X869" t="n">
-        <v>0.003692499999999654</v>
+        <v>0.002952600000014627</v>
       </c>
       <c r="Y869" t="n">
         <v>12</v>
@@ -71814,7 +71814,7 @@
         </is>
       </c>
       <c r="X870" t="n">
-        <v>0.00207850000003873</v>
+        <v>0.002247099999976854</v>
       </c>
       <c r="Y870" t="n">
         <v>9</v>
@@ -71896,7 +71896,7 @@
         </is>
       </c>
       <c r="X871" t="n">
-        <v>0.003137299999991683</v>
+        <v>0.002773999999988064</v>
       </c>
       <c r="Y871" t="n">
         <v>11</v>
@@ -71978,7 +71978,7 @@
         </is>
       </c>
       <c r="X872" t="n">
-        <v>0.002297200000043631</v>
+        <v>0.003541800000050443</v>
       </c>
       <c r="Y872" t="n">
         <v>10</v>
@@ -72060,7 +72060,7 @@
         </is>
       </c>
       <c r="X873" t="n">
-        <v>0.002470200000004752</v>
+        <v>0.003186699999957909</v>
       </c>
       <c r="Y873" t="n">
         <v>10</v>
@@ -72142,7 +72142,7 @@
         </is>
       </c>
       <c r="X874" t="n">
-        <v>0.00186729999995805</v>
+        <v>0.002054700000030607</v>
       </c>
       <c r="Y874" t="n">
         <v>8</v>
@@ -72224,7 +72224,7 @@
         </is>
       </c>
       <c r="X875" t="n">
-        <v>0.002136000000007243</v>
+        <v>0.002923999999950411</v>
       </c>
       <c r="Y875" t="n">
         <v>9</v>
@@ -72306,7 +72306,7 @@
         </is>
       </c>
       <c r="X876" t="n">
-        <v>0.00295150000005151</v>
+        <v>0.003700699999967583</v>
       </c>
       <c r="Y876" t="n">
         <v>13</v>
@@ -72388,7 +72388,7 @@
         </is>
       </c>
       <c r="X877" t="n">
-        <v>0.001972300000034011</v>
+        <v>0.002045000000009622</v>
       </c>
       <c r="Y877" t="n">
         <v>8</v>
@@ -72470,7 +72470,7 @@
         </is>
       </c>
       <c r="X878" t="n">
-        <v>0.001814899999999398</v>
+        <v>0.00240120000000843</v>
       </c>
       <c r="Y878" t="n">
         <v>8</v>
@@ -72552,7 +72552,7 @@
         </is>
       </c>
       <c r="X879" t="n">
-        <v>0.00194579999998723</v>
+        <v>0.002592599999957201</v>
       </c>
       <c r="Y879" t="n">
         <v>8</v>
@@ -72634,7 +72634,7 @@
         </is>
       </c>
       <c r="X880" t="n">
-        <v>0.002787599999976464</v>
+        <v>0.002879899999982172</v>
       </c>
       <c r="Y880" t="n">
         <v>11</v>
@@ -72716,7 +72716,7 @@
         </is>
       </c>
       <c r="X881" t="n">
-        <v>0.002356200000008357</v>
+        <v>0.002866100000005645</v>
       </c>
       <c r="Y881" t="n">
         <v>9</v>
@@ -72798,7 +72798,7 @@
         </is>
       </c>
       <c r="X882" t="n">
-        <v>0.002185999999994692</v>
+        <v>0.004693700000018453</v>
       </c>
       <c r="Y882" t="n">
         <v>9</v>
@@ -72880,7 +72880,7 @@
         </is>
       </c>
       <c r="X883" t="n">
-        <v>0.002690099999995255</v>
+        <v>0.002910699999972621</v>
       </c>
       <c r="Y883" t="n">
         <v>11</v>
@@ -72962,7 +72962,7 @@
         </is>
       </c>
       <c r="X884" t="n">
-        <v>0.003572200000007797</v>
+        <v>0.003580399999975725</v>
       </c>
       <c r="Y884" t="n">
         <v>12</v>
@@ -73044,7 +73044,7 @@
         </is>
       </c>
       <c r="X885" t="n">
-        <v>0.002841700000033143</v>
+        <v>0.004132099999992533</v>
       </c>
       <c r="Y885" t="n">
         <v>11</v>
@@ -73126,7 +73126,7 @@
         </is>
       </c>
       <c r="X886" t="n">
-        <v>0.003173900000035701</v>
+        <v>0.003163500000027852</v>
       </c>
       <c r="Y886" t="n">
         <v>13</v>
@@ -73208,7 +73208,7 @@
         </is>
       </c>
       <c r="X887" t="n">
-        <v>0.002374199999962912</v>
+        <v>0.002294800000015584</v>
       </c>
       <c r="Y887" t="n">
         <v>9</v>
@@ -73290,7 +73290,7 @@
         </is>
       </c>
       <c r="X888" t="n">
-        <v>0.002172999999970671</v>
+        <v>0.003684500000019852</v>
       </c>
       <c r="Y888" t="n">
         <v>9</v>
@@ -73372,7 +73372,7 @@
         </is>
       </c>
       <c r="X889" t="n">
-        <v>0.001984399999969355</v>
+        <v>0.002031499999986863</v>
       </c>
       <c r="Y889" t="n">
         <v>8</v>
@@ -73454,7 +73454,7 @@
         </is>
       </c>
       <c r="X890" t="n">
-        <v>0.002108600000042316</v>
+        <v>0.00240030000003344</v>
       </c>
       <c r="Y890" t="n">
         <v>9</v>
@@ -73536,7 +73536,7 @@
         </is>
       </c>
       <c r="X891" t="n">
-        <v>0.003309000000001561</v>
+        <v>0.002891500000032465</v>
       </c>
       <c r="Y891" t="n">
         <v>12</v>
@@ -73618,7 +73618,7 @@
         </is>
       </c>
       <c r="X892" t="n">
-        <v>0.002898400000049151</v>
+        <v>0.003128699999990658</v>
       </c>
       <c r="Y892" t="n">
         <v>12</v>
@@ -73700,7 +73700,7 @@
         </is>
       </c>
       <c r="X893" t="n">
-        <v>0.002500499999996464</v>
+        <v>0.002698899999984405</v>
       </c>
       <c r="Y893" t="n">
         <v>10</v>
@@ -73782,7 +73782,7 @@
         </is>
       </c>
       <c r="X894" t="n">
-        <v>0.002393900000015492</v>
+        <v>0.002030499999989388</v>
       </c>
       <c r="Y894" t="n">
         <v>8</v>
@@ -73864,7 +73864,7 @@
         </is>
       </c>
       <c r="X895" t="n">
-        <v>0.002288899999996374</v>
+        <v>0.002418099999999868</v>
       </c>
       <c r="Y895" t="n">
         <v>9</v>
@@ -73946,7 +73946,7 @@
         </is>
       </c>
       <c r="X896" t="n">
-        <v>0.00421929999998838</v>
+        <v>0.00255690000000186</v>
       </c>
       <c r="Y896" t="n">
         <v>9</v>
@@ -74028,7 +74028,7 @@
         </is>
       </c>
       <c r="X897" t="n">
-        <v>0.002388200000041252</v>
+        <v>0.00242350000002034</v>
       </c>
       <c r="Y897" t="n">
         <v>10</v>
@@ -74110,7 +74110,7 @@
         </is>
       </c>
       <c r="X898" t="n">
-        <v>0.003252499999973679</v>
+        <v>0.002453099999968344</v>
       </c>
       <c r="Y898" t="n">
         <v>10</v>
@@ -74192,7 +74192,7 @@
         </is>
       </c>
       <c r="X899" t="n">
-        <v>0.003093100000000959</v>
+        <v>0.004004599999973379</v>
       </c>
       <c r="Y899" t="n">
         <v>13</v>
@@ -74274,7 +74274,7 @@
         </is>
       </c>
       <c r="X900" t="n">
-        <v>0.002645500000028278</v>
+        <v>0.002597000000037042</v>
       </c>
       <c r="Y900" t="n">
         <v>11</v>
@@ -74356,7 +74356,7 @@
         </is>
       </c>
       <c r="X901" t="n">
-        <v>0.003644699999995282</v>
+        <v>0.003198999999995067</v>
       </c>
       <c r="Y901" t="n">
         <v>13</v>
@@ -74438,7 +74438,7 @@
         </is>
       </c>
       <c r="X902" t="n">
-        <v>0.002688599999999042</v>
+        <v>0.002754199999969842</v>
       </c>
       <c r="Y902" t="n">
         <v>11</v>
@@ -74520,7 +74520,7 @@
         </is>
       </c>
       <c r="X903" t="n">
-        <v>0.001909399999988182</v>
+        <v>0.002060800000037943</v>
       </c>
       <c r="Y903" t="n">
         <v>8</v>
@@ -74602,7 +74602,7 @@
         </is>
       </c>
       <c r="X904" t="n">
-        <v>0.002273300000013023</v>
+        <v>0.003406299999994644</v>
       </c>
       <c r="Y904" t="n">
         <v>10</v>
@@ -74684,7 +74684,7 @@
         </is>
       </c>
       <c r="X905" t="n">
-        <v>0.002232199999980367</v>
+        <v>0.002248900000040521</v>
       </c>
       <c r="Y905" t="n">
         <v>9</v>
@@ -74766,7 +74766,7 @@
         </is>
       </c>
       <c r="X906" t="n">
-        <v>0.003059100000029957</v>
+        <v>0.003323200000011184</v>
       </c>
       <c r="Y906" t="n">
         <v>13</v>
@@ -74848,7 +74848,7 @@
         </is>
       </c>
       <c r="X907" t="n">
-        <v>0.003236299999969106</v>
+        <v>0.005161999999984346</v>
       </c>
       <c r="Y907" t="n">
         <v>14</v>
@@ -74930,7 +74930,7 @@
         </is>
       </c>
       <c r="X908" t="n">
-        <v>0.003459200000008877</v>
+        <v>0.003292700000031346</v>
       </c>
       <c r="Y908" t="n">
         <v>13</v>
@@ -75012,7 +75012,7 @@
         </is>
       </c>
       <c r="X909" t="n">
-        <v>0.002295099999969352</v>
+        <v>0.002484400000014375</v>
       </c>
       <c r="Y909" t="n">
         <v>10</v>
@@ -75094,7 +75094,7 @@
         </is>
       </c>
       <c r="X910" t="n">
-        <v>0.004919700000016292</v>
+        <v>0.003843499999959477</v>
       </c>
       <c r="Y910" t="n">
         <v>13</v>
@@ -75176,7 +75176,7 @@
         </is>
       </c>
       <c r="X911" t="n">
-        <v>0.001926900000000842</v>
+        <v>0.001986200000033023</v>
       </c>
       <c r="Y911" t="n">
         <v>8</v>
@@ -75258,7 +75258,7 @@
         </is>
       </c>
       <c r="X912" t="n">
-        <v>0.002269399999988764</v>
+        <v>0.002887600000008206</v>
       </c>
       <c r="Y912" t="n">
         <v>9</v>
@@ -75340,7 +75340,7 @@
         </is>
       </c>
       <c r="X913" t="n">
-        <v>0.001912000000004355</v>
+        <v>0.001983100000018112</v>
       </c>
       <c r="Y913" t="n">
         <v>8</v>
@@ -75422,7 +75422,7 @@
         </is>
       </c>
       <c r="X914" t="n">
-        <v>0.002953300000001491</v>
+        <v>0.003042499999992287</v>
       </c>
       <c r="Y914" t="n">
         <v>12</v>
@@ -75504,7 +75504,7 @@
         </is>
       </c>
       <c r="X915" t="n">
-        <v>0.002976200000034623</v>
+        <v>0.003780399999982365</v>
       </c>
       <c r="Y915" t="n">
         <v>13</v>
@@ -75586,7 +75586,7 @@
         </is>
       </c>
       <c r="X916" t="n">
-        <v>0.002218299999981355</v>
+        <v>0.0023150999999757</v>
       </c>
       <c r="Y916" t="n">
         <v>9</v>
@@ -75668,7 +75668,7 @@
         </is>
       </c>
       <c r="X917" t="n">
-        <v>0.002054600000008122</v>
+        <v>0.004105899999956364</v>
       </c>
       <c r="Y917" t="n">
         <v>9</v>
@@ -75750,7 +75750,7 @@
         </is>
       </c>
       <c r="X918" t="n">
-        <v>0.002809500000012122</v>
+        <v>0.003019300000005387</v>
       </c>
       <c r="Y918" t="n">
         <v>12</v>
@@ -75832,7 +75832,7 @@
         </is>
       </c>
       <c r="X919" t="n">
-        <v>0.003253900000004251</v>
+        <v>0.003107600000021193</v>
       </c>
       <c r="Y919" t="n">
         <v>12</v>
@@ -75914,7 +75914,7 @@
         </is>
       </c>
       <c r="X920" t="n">
-        <v>0.002499300000010862</v>
+        <v>0.003216399999985242</v>
       </c>
       <c r="Y920" t="n">
         <v>10</v>
@@ -75996,7 +75996,7 @@
         </is>
       </c>
       <c r="X921" t="n">
-        <v>0.002788099999975202</v>
+        <v>0.00266310000000658</v>
       </c>
       <c r="Y921" t="n">
         <v>11</v>
@@ -76078,7 +76078,7 @@
         </is>
       </c>
       <c r="X922" t="n">
-        <v>0.002377600000045277</v>
+        <v>0.002805599999987862</v>
       </c>
       <c r="Y922" t="n">
         <v>10</v>
@@ -76160,7 +76160,7 @@
         </is>
       </c>
       <c r="X923" t="n">
-        <v>0.001981200000045646</v>
+        <v>0.001912399999980607</v>
       </c>
       <c r="Y923" t="n">
         <v>8</v>
@@ -76242,7 +76242,7 @@
         </is>
       </c>
       <c r="X924" t="n">
-        <v>0.002782299999978477</v>
+        <v>0.003026799999986451</v>
       </c>
       <c r="Y924" t="n">
         <v>12</v>
@@ -76324,7 +76324,7 @@
         </is>
       </c>
       <c r="X925" t="n">
-        <v>0.001929099999983919</v>
+        <v>0.00165390000000798</v>
       </c>
       <c r="Y925" t="n">
         <v>7</v>
@@ -76406,7 +76406,7 @@
         </is>
       </c>
       <c r="X926" t="n">
-        <v>0.002986600000042472</v>
+        <v>0.003221400000029462</v>
       </c>
       <c r="Y926" t="n">
         <v>13</v>
@@ -76488,7 +76488,7 @@
         </is>
       </c>
       <c r="X927" t="n">
-        <v>0.003221199999984492</v>
+        <v>0.004271900000048845</v>
       </c>
       <c r="Y927" t="n">
         <v>13</v>
@@ -76570,7 +76570,7 @@
         </is>
       </c>
       <c r="X928" t="n">
-        <v>0.002727900000024874</v>
+        <v>0.002185600000018439</v>
       </c>
       <c r="Y928" t="n">
         <v>9</v>
@@ -76652,7 +76652,7 @@
         </is>
       </c>
       <c r="X929" t="n">
-        <v>0.002267700000004425</v>
+        <v>0.002438100000006216</v>
       </c>
       <c r="Y929" t="n">
         <v>9</v>
@@ -76734,7 +76734,7 @@
         </is>
       </c>
       <c r="X930" t="n">
-        <v>0.00238569999999072</v>
+        <v>0.002086600000041017</v>
       </c>
       <c r="Y930" t="n">
         <v>9</v>
@@ -76816,7 +76816,7 @@
         </is>
       </c>
       <c r="X931" t="n">
-        <v>0.00252759999995078</v>
+        <v>0.002427099999977145</v>
       </c>
       <c r="Y931" t="n">
         <v>10</v>
@@ -76898,7 +76898,7 @@
         </is>
       </c>
       <c r="X932" t="n">
-        <v>0.002384200000051351</v>
+        <v>0.002056700000025558</v>
       </c>
       <c r="Y932" t="n">
         <v>9</v>
@@ -76980,7 +76980,7 @@
         </is>
       </c>
       <c r="X933" t="n">
-        <v>0.001695100000006278</v>
+        <v>0.001796299999966777</v>
       </c>
       <c r="Y933" t="n">
         <v>7</v>
@@ -77062,7 +77062,7 @@
         </is>
       </c>
       <c r="X934" t="n">
-        <v>0.003197199999988243</v>
+        <v>0.004463699999973869</v>
       </c>
       <c r="Y934" t="n">
         <v>13</v>
@@ -77144,7 +77144,7 @@
         </is>
       </c>
       <c r="X935" t="n">
-        <v>0.002823299999988649</v>
+        <v>0.002765299999964554</v>
       </c>
       <c r="Y935" t="n">
         <v>12</v>
@@ -77226,7 +77226,7 @@
         </is>
       </c>
       <c r="X936" t="n">
-        <v>0.003389699999956974</v>
+        <v>0.00333499999999276</v>
       </c>
       <c r="Y936" t="n">
         <v>14</v>
@@ -77308,7 +77308,7 @@
         </is>
       </c>
       <c r="X937" t="n">
-        <v>0.003425100000015391</v>
+        <v>0.002289599999983238</v>
       </c>
       <c r="Y937" t="n">
         <v>10</v>
@@ -77390,7 +77390,7 @@
         </is>
       </c>
       <c r="X938" t="n">
-        <v>0.003334800000004634</v>
+        <v>0.002901500000007218</v>
       </c>
       <c r="Y938" t="n">
         <v>12</v>
@@ -77472,7 +77472,7 @@
         </is>
       </c>
       <c r="X939" t="n">
-        <v>0.002730299999996078</v>
+        <v>0.003445100000021739</v>
       </c>
       <c r="Y939" t="n">
         <v>9</v>
@@ -77554,7 +77554,7 @@
         </is>
       </c>
       <c r="X940" t="n">
-        <v>0.00187519999997221</v>
+        <v>0.001903099999992719</v>
       </c>
       <c r="Y940" t="n">
         <v>8</v>
@@ -77636,7 +77636,7 @@
         </is>
       </c>
       <c r="X941" t="n">
-        <v>0.002688100000000304</v>
+        <v>0.002997700000037185</v>
       </c>
       <c r="Y941" t="n">
         <v>11</v>
@@ -77718,7 +77718,7 @@
         </is>
       </c>
       <c r="X942" t="n">
-        <v>0.001907799999969484</v>
+        <v>0.002000199999997676</v>
       </c>
       <c r="Y942" t="n">
         <v>8</v>
@@ -77800,7 +77800,7 @@
         </is>
       </c>
       <c r="X943" t="n">
-        <v>0.002422799999976633</v>
+        <v>0.002494600000034097</v>
       </c>
       <c r="Y943" t="n">
         <v>10</v>
@@ -77882,7 +77882,7 @@
         </is>
       </c>
       <c r="X944" t="n">
-        <v>0.00316400000002659</v>
+        <v>0.002180899999984831</v>
       </c>
       <c r="Y944" t="n">
         <v>9</v>
@@ -77964,7 +77964,7 @@
         </is>
       </c>
       <c r="X945" t="n">
-        <v>0.003299000000026808</v>
+        <v>0.00316069999996671</v>
       </c>
       <c r="Y945" t="n">
         <v>13</v>
@@ -78046,7 +78046,7 @@
         </is>
       </c>
       <c r="X946" t="n">
-        <v>0.004802799999993113</v>
+        <v>0.003052599999989525</v>
       </c>
       <c r="Y946" t="n">
         <v>8</v>
@@ -78128,7 +78128,7 @@
         </is>
       </c>
       <c r="X947" t="n">
-        <v>0.005549099999996088</v>
+        <v>0.002709100000004128</v>
       </c>
       <c r="Y947" t="n">
         <v>11</v>
@@ -78210,7 +78210,7 @@
         </is>
       </c>
       <c r="X948" t="n">
-        <v>0.00193139999998948</v>
+        <v>0.002001000000007025</v>
       </c>
       <c r="Y948" t="n">
         <v>8</v>
@@ -78292,7 +78292,7 @@
         </is>
       </c>
       <c r="X949" t="n">
-        <v>0.002318400000035581</v>
+        <v>0.00213450000001103</v>
       </c>
       <c r="Y949" t="n">
         <v>8</v>
@@ -78374,7 +78374,7 @@
         </is>
       </c>
       <c r="X950" t="n">
-        <v>0.002293900000040594</v>
+        <v>0.002284699999961504</v>
       </c>
       <c r="Y950" t="n">
         <v>9</v>
@@ -78456,7 +78456,7 @@
         </is>
       </c>
       <c r="X951" t="n">
-        <v>0.00212090000002263</v>
+        <v>0.001913999999999305</v>
       </c>
       <c r="Y951" t="n">
         <v>8</v>
@@ -78538,7 +78538,7 @@
         </is>
       </c>
       <c r="X952" t="n">
-        <v>0.006337500000029195</v>
+        <v>0.002000399999985802</v>
       </c>
       <c r="Y952" t="n">
         <v>8</v>
@@ -78620,7 +78620,7 @@
         </is>
       </c>
       <c r="X953" t="n">
-        <v>0.002100799999993797</v>
+        <v>0.002980600000000777</v>
       </c>
       <c r="Y953" t="n">
         <v>8</v>
@@ -78702,7 +78702,7 @@
         </is>
       </c>
       <c r="X954" t="n">
-        <v>0.002682999999990443</v>
+        <v>0.00238480000001573</v>
       </c>
       <c r="Y954" t="n">
         <v>10</v>
@@ -78784,7 +78784,7 @@
         </is>
       </c>
       <c r="X955" t="n">
-        <v>0.003517700000031709</v>
+        <v>0.003662500000018554</v>
       </c>
       <c r="Y955" t="n">
         <v>13</v>
@@ -78866,7 +78866,7 @@
         </is>
       </c>
       <c r="X956" t="n">
-        <v>0.00334549999996625</v>
+        <v>0.002806700000007822</v>
       </c>
       <c r="Y956" t="n">
         <v>12</v>
@@ -78948,7 +78948,7 @@
         </is>
       </c>
       <c r="X957" t="n">
-        <v>0.001949999999965257</v>
+        <v>0.001988500000038584</v>
       </c>
       <c r="Y957" t="n">
         <v>8</v>
@@ -79030,7 +79030,7 @@
         </is>
       </c>
       <c r="X958" t="n">
-        <v>0.005432799999994131</v>
+        <v>0.002761599999985265</v>
       </c>
       <c r="Y958" t="n">
         <v>12</v>
@@ -79112,7 +79112,7 @@
         </is>
       </c>
       <c r="X959" t="n">
-        <v>0.003036399999984951</v>
+        <v>0.003041199999984201</v>
       </c>
       <c r="Y959" t="n">
         <v>13</v>
@@ -79194,7 +79194,7 @@
         </is>
       </c>
       <c r="X960" t="n">
-        <v>0.002173799999980019</v>
+        <v>0.002646000000027016</v>
       </c>
       <c r="Y960" t="n">
         <v>9</v>
@@ -79276,7 +79276,7 @@
         </is>
       </c>
       <c r="X961" t="n">
-        <v>0.00494059999999763</v>
+        <v>0.002555099999995036</v>
       </c>
       <c r="Y961" t="n">
         <v>11</v>
@@ -79358,7 +79358,7 @@
         </is>
       </c>
       <c r="X962" t="n">
-        <v>0.01043909999998505</v>
+        <v>0.002924599999971633</v>
       </c>
       <c r="Y962" t="n">
         <v>12</v>
@@ -79440,7 +79440,7 @@
         </is>
       </c>
       <c r="X963" t="n">
-        <v>0.005045900000027359</v>
+        <v>0.001883599999985108</v>
       </c>
       <c r="Y963" t="n">
         <v>8</v>
@@ -79522,7 +79522,7 @@
         </is>
       </c>
       <c r="X964" t="n">
-        <v>0.003225600000007489</v>
+        <v>0.002017700000010336</v>
       </c>
       <c r="Y964" t="n">
         <v>8</v>
@@ -79604,7 +79604,7 @@
         </is>
       </c>
       <c r="X965" t="n">
-        <v>0.002706700000032924</v>
+        <v>0.003141200000015942</v>
       </c>
       <c r="Y965" t="n">
         <v>8</v>
@@ -79686,7 +79686,7 @@
         </is>
       </c>
       <c r="X966" t="n">
-        <v>0.002742099999977654</v>
+        <v>0.002635599999962324</v>
       </c>
       <c r="Y966" t="n">
         <v>11</v>
@@ -79768,7 +79768,7 @@
         </is>
       </c>
       <c r="X967" t="n">
-        <v>0.003378999999995358</v>
+        <v>0.002655600000025515</v>
       </c>
       <c r="Y967" t="n">
         <v>10</v>
@@ -79850,7 +79850,7 @@
         </is>
       </c>
       <c r="X968" t="n">
-        <v>0.007373799999982111</v>
+        <v>0.002306400000009035</v>
       </c>
       <c r="Y968" t="n">
         <v>10</v>
@@ -79932,7 +79932,7 @@
         </is>
       </c>
       <c r="X969" t="n">
-        <v>0.005600200000003497</v>
+        <v>0.00304089999997359</v>
       </c>
       <c r="Y969" t="n">
         <v>12</v>
@@ -80014,7 +80014,7 @@
         </is>
       </c>
       <c r="X970" t="n">
-        <v>0.002632199999993645</v>
+        <v>0.003315199999974539</v>
       </c>
       <c r="Y970" t="n">
         <v>10</v>
@@ -80096,7 +80096,7 @@
         </is>
       </c>
       <c r="X971" t="n">
-        <v>0.003169899999988957</v>
+        <v>0.002180500000008578</v>
       </c>
       <c r="Y971" t="n">
         <v>9</v>
@@ -80178,7 +80178,7 @@
         </is>
       </c>
       <c r="X972" t="n">
-        <v>0.003157699999974284</v>
+        <v>0.002720799999963219</v>
       </c>
       <c r="Y972" t="n">
         <v>10</v>
@@ -80260,7 +80260,7 @@
         </is>
       </c>
       <c r="X973" t="n">
-        <v>0.002467599999988579</v>
+        <v>0.002294000000006235</v>
       </c>
       <c r="Y973" t="n">
         <v>10</v>
@@ -80342,7 +80342,7 @@
         </is>
       </c>
       <c r="X974" t="n">
-        <v>0.002726499999994303</v>
+        <v>0.00228250000003527</v>
       </c>
       <c r="Y974" t="n">
         <v>9</v>
@@ -80424,7 +80424,7 @@
         </is>
       </c>
       <c r="X975" t="n">
-        <v>0.005601299999966614</v>
+        <v>0.004228699999998753</v>
       </c>
       <c r="Y975" t="n">
         <v>12</v>
@@ -80506,7 +80506,7 @@
         </is>
       </c>
       <c r="X976" t="n">
-        <v>0.002736200000015288</v>
+        <v>0.00252690000002076</v>
       </c>
       <c r="Y976" t="n">
         <v>11</v>
@@ -80588,7 +80588,7 @@
         </is>
       </c>
       <c r="X977" t="n">
-        <v>0.002474699999993391</v>
+        <v>0.003153800000006868</v>
       </c>
       <c r="Y977" t="n">
         <v>10</v>
@@ -80670,7 +80670,7 @@
         </is>
       </c>
       <c r="X978" t="n">
-        <v>0.00233450000001767</v>
+        <v>0.002471500000012838</v>
       </c>
       <c r="Y978" t="n">
         <v>10</v>
@@ -80752,7 +80752,7 @@
         </is>
       </c>
       <c r="X979" t="n">
-        <v>0.002156500000012329</v>
+        <v>0.002234299999997802</v>
       </c>
       <c r="Y979" t="n">
         <v>9</v>
@@ -80834,7 +80834,7 @@
         </is>
       </c>
       <c r="X980" t="n">
-        <v>0.001865899999984322</v>
+        <v>0.001956199999995079</v>
       </c>
       <c r="Y980" t="n">
         <v>8</v>
@@ -80916,7 +80916,7 @@
         </is>
       </c>
       <c r="X981" t="n">
-        <v>0.002591400000028443</v>
+        <v>0.002695100000039474</v>
       </c>
       <c r="Y981" t="n">
         <v>11</v>
@@ -80998,7 +80998,7 @@
         </is>
       </c>
       <c r="X982" t="n">
-        <v>0.003142200000013418</v>
+        <v>0.004166999999995369</v>
       </c>
       <c r="Y982" t="n">
         <v>10</v>
@@ -81080,7 +81080,7 @@
         </is>
       </c>
       <c r="X983" t="n">
-        <v>0.005199899999979607</v>
+        <v>0.003027900000006412</v>
       </c>
       <c r="Y983" t="n">
         <v>13</v>
@@ -81162,7 +81162,7 @@
         </is>
       </c>
       <c r="X984" t="n">
-        <v>0.00199740000005022</v>
+        <v>0.002050899999971989</v>
       </c>
       <c r="Y984" t="n">
         <v>8</v>
@@ -81244,7 +81244,7 @@
         </is>
       </c>
       <c r="X985" t="n">
-        <v>0.002929099999960272</v>
+        <v>0.003224099999954433</v>
       </c>
       <c r="Y985" t="n">
         <v>13</v>
@@ -81326,7 +81326,7 @@
         </is>
       </c>
       <c r="X986" t="n">
-        <v>0.003727499999968131</v>
+        <v>0.002946300000019164</v>
       </c>
       <c r="Y986" t="n">
         <v>12</v>
@@ -81408,7 +81408,7 @@
         </is>
       </c>
       <c r="X987" t="n">
-        <v>0.004595599999959177</v>
+        <v>0.003674499999988257</v>
       </c>
       <c r="Y987" t="n">
         <v>9</v>
@@ -81490,7 +81490,7 @@
         </is>
       </c>
       <c r="X988" t="n">
-        <v>0.00308549999999741</v>
+        <v>0.003093299999989085</v>
       </c>
       <c r="Y988" t="n">
         <v>13</v>
@@ -81572,7 +81572,7 @@
         </is>
       </c>
       <c r="X989" t="n">
-        <v>0.00708470000000716</v>
+        <v>0.003292600000008861</v>
       </c>
       <c r="Y989" t="n">
         <v>13</v>
@@ -81654,7 +81654,7 @@
         </is>
       </c>
       <c r="X990" t="n">
-        <v>0.002174800000034338</v>
+        <v>0.001963699999976143</v>
       </c>
       <c r="Y990" t="n">
         <v>8</v>
@@ -81736,7 +81736,7 @@
         </is>
       </c>
       <c r="X991" t="n">
-        <v>0.003169500000012704</v>
+        <v>0.002293899999983751</v>
       </c>
       <c r="Y991" t="n">
         <v>9</v>
@@ -81818,7 +81818,7 @@
         </is>
       </c>
       <c r="X992" t="n">
-        <v>0.001958900000033736</v>
+        <v>0.001937599999962458</v>
       </c>
       <c r="Y992" t="n">
         <v>8</v>
@@ -81900,7 +81900,7 @@
         </is>
       </c>
       <c r="X993" t="n">
-        <v>0.002897200000006706</v>
+        <v>0.002921799999967334</v>
       </c>
       <c r="Y993" t="n">
         <v>12</v>
@@ -81982,7 +81982,7 @@
         </is>
       </c>
       <c r="X994" t="n">
-        <v>0.005825899999990725</v>
+        <v>0.004705899999976282</v>
       </c>
       <c r="Y994" t="n">
         <v>12</v>
@@ -82064,7 +82064,7 @@
         </is>
       </c>
       <c r="X995" t="n">
-        <v>0.004970499999956246</v>
+        <v>0.002072199999986424</v>
       </c>
       <c r="Y995" t="n">
         <v>8</v>
@@ -82146,7 +82146,7 @@
         </is>
       </c>
       <c r="X996" t="n">
-        <v>0.004415099999960148</v>
+        <v>0.002772800000002462</v>
       </c>
       <c r="Y996" t="n">
         <v>11</v>
@@ -82228,7 +82228,7 @@
         </is>
       </c>
       <c r="X997" t="n">
-        <v>0.002948099999969145</v>
+        <v>0.001859200000012606</v>
       </c>
       <c r="Y997" t="n">
         <v>8</v>
@@ -82310,7 +82310,7 @@
         </is>
       </c>
       <c r="X998" t="n">
-        <v>0.003183100000001104</v>
+        <v>0.002860199999986435</v>
       </c>
       <c r="Y998" t="n">
         <v>12</v>
@@ -82392,7 +82392,7 @@
         </is>
       </c>
       <c r="X999" t="n">
-        <v>0.002268200000003162</v>
+        <v>0.004083299999990686</v>
       </c>
       <c r="Y999" t="n">
         <v>8</v>
@@ -82474,7 +82474,7 @@
         </is>
       </c>
       <c r="X1000" t="n">
-        <v>0.003514099999961218</v>
+        <v>0.002598299999988285</v>
       </c>
       <c r="Y1000" t="n">
         <v>11</v>
@@ -82556,7 +82556,7 @@
         </is>
       </c>
       <c r="X1001" t="n">
-        <v>0.002521500000000287</v>
+        <v>0.002544499999999061</v>
       </c>
       <c r="Y1001" t="n">
         <v>10</v>
